--- a/B01/t01.xlsx
+++ b/B01/t01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="字段信息" sheetId="4" r:id="rId4"/>
     <sheet name="代码信息" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="290">
   <si>
     <t>Version</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -706,6 +706,288 @@
   </si>
   <si>
     <t>用户的朋友、同事等关联人信息</t>
+  </si>
+  <si>
+    <t>证件类型</t>
+  </si>
+  <si>
+    <t>证件编码</t>
+  </si>
+  <si>
+    <t>登录密码</t>
+  </si>
+  <si>
+    <t>T01_USER_LOGON</t>
+  </si>
+  <si>
+    <t>用户登录信息</t>
+  </si>
+  <si>
+    <t>登录时间</t>
+  </si>
+  <si>
+    <t>登录地点</t>
+  </si>
+  <si>
+    <t>登录IP</t>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>电话号码</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>T01_USER_PASSWORD</t>
+  </si>
+  <si>
+    <t>用户密码信息</t>
+  </si>
+  <si>
+    <t>密码修改时间</t>
+  </si>
+  <si>
+    <t>修改前密码</t>
+  </si>
+  <si>
+    <t>修改后密码</t>
+  </si>
+  <si>
+    <t>公司编码</t>
+  </si>
+  <si>
+    <t>公司名称</t>
+  </si>
+  <si>
+    <t>国籍</t>
+  </si>
+  <si>
+    <t>出生日期</t>
+  </si>
+  <si>
+    <t>性别代码</t>
+  </si>
+  <si>
+    <t>婚姻状态</t>
+  </si>
+  <si>
+    <t>居住地址</t>
+  </si>
+  <si>
+    <t>血型</t>
+  </si>
+  <si>
+    <t>籍贯</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>国家-省-市-县</t>
+  </si>
+  <si>
+    <t>T99_GEOGRAPHIC</t>
+  </si>
+  <si>
+    <t>地理信息代码</t>
+  </si>
+  <si>
+    <t>参数表</t>
+  </si>
+  <si>
+    <t>中文名称</t>
+  </si>
+  <si>
+    <t>证件类型代码</t>
+  </si>
+  <si>
+    <t>T99_CERTIFICATE_TYPE</t>
+  </si>
+  <si>
+    <t>教育程度</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
+    <t>户籍所在城市</t>
+  </si>
+  <si>
+    <t>身高（cm）</t>
+  </si>
+  <si>
+    <t>体重（kg）</t>
+  </si>
+  <si>
+    <t>是否激活</t>
+  </si>
+  <si>
+    <t>组织机构代码</t>
+  </si>
+  <si>
+    <t>营业执照号</t>
+  </si>
+  <si>
+    <t>税务登记证号（国税）</t>
+  </si>
+  <si>
+    <t>税务登记证号（地税）</t>
+  </si>
+  <si>
+    <t>企业登记注册类型</t>
+  </si>
+  <si>
+    <t>资本币种</t>
+  </si>
+  <si>
+    <t>资本金额</t>
+  </si>
+  <si>
+    <t>主营业务</t>
+  </si>
+  <si>
+    <t>兼营业务</t>
+  </si>
+  <si>
+    <t>注册地址</t>
+  </si>
+  <si>
+    <t>注册地址邮编</t>
+  </si>
+  <si>
+    <t>成立日期</t>
+  </si>
+  <si>
+    <t>客户所属行业</t>
+  </si>
+  <si>
+    <t>客户补充行业</t>
+  </si>
+  <si>
+    <t>企业规模</t>
+  </si>
+  <si>
+    <t>从业人数</t>
+  </si>
+  <si>
+    <t>营业面积</t>
+  </si>
+  <si>
+    <t>上市企业标志</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>传真号码</t>
+  </si>
+  <si>
+    <t>电子信箱</t>
+  </si>
+  <si>
+    <t>网址</t>
+  </si>
+  <si>
+    <t>联系地址</t>
+  </si>
+  <si>
+    <t>联系邮政编码</t>
+  </si>
+  <si>
+    <t>关系类型</t>
+  </si>
+  <si>
+    <t>关系开始时间</t>
+  </si>
+  <si>
+    <t>关系结束时间</t>
+  </si>
+  <si>
+    <t>关系描述</t>
+  </si>
+  <si>
+    <t>推荐人编码</t>
+  </si>
+  <si>
+    <t>关联人类型</t>
+  </si>
+  <si>
+    <t>关联人编码</t>
+  </si>
+  <si>
+    <t>关联人名称</t>
+  </si>
+  <si>
+    <t>简历编码</t>
+  </si>
+  <si>
+    <t>简历名称</t>
+  </si>
+  <si>
+    <t>简历描述</t>
+  </si>
+  <si>
+    <t>T01_RESUME_INDUSTRY</t>
+  </si>
+  <si>
+    <t>简历所属行业信息</t>
+  </si>
+  <si>
+    <t>所属一级行业</t>
+  </si>
+  <si>
+    <t>所属二级行业</t>
+  </si>
+  <si>
+    <t>所属三级行业</t>
+  </si>
+  <si>
+    <t>职位编码</t>
+  </si>
+  <si>
+    <t>推荐时间</t>
+  </si>
+  <si>
+    <t>渠道类型编码</t>
+  </si>
+  <si>
+    <t>渠道内容类型编码</t>
+  </si>
+  <si>
+    <t>渠道内容编码</t>
+  </si>
+  <si>
+    <t>投递简历数目</t>
+  </si>
+  <si>
+    <t>通知面试数目</t>
+  </si>
+  <si>
+    <t>入职数目</t>
+  </si>
+  <si>
+    <t>职位名称</t>
+  </si>
+  <si>
+    <t>职位描述</t>
+  </si>
+  <si>
+    <t>职位所属行业信息</t>
+  </si>
+  <si>
+    <t>收藏时间</t>
+  </si>
+  <si>
+    <t>分配规则编码</t>
+  </si>
+  <si>
+    <t>分配规则描述</t>
+  </si>
+  <si>
+    <t>是否有效</t>
   </si>
 </sst>
 </file>
@@ -948,18 +1230,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -972,6 +1242,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1278,7 +1560,7 @@
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:G27"/>
+      <selection activeCell="B21" sqref="B21:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1459,14 +1741,14 @@
     </row>
     <row r="10" spans="1:16" ht="23.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1671,14 +1953,14 @@
     </row>
     <row r="21" spans="1:16" ht="15.75">
       <c r="A21" s="3"/>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="3"/>
@@ -1691,14 +1973,14 @@
     </row>
     <row r="22" spans="1:16" ht="15.75">
       <c r="A22" s="3"/>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="3"/>
@@ -1711,14 +1993,14 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1"/>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1731,14 +2013,14 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1"/>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1751,14 +2033,14 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1"/>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1771,14 +2053,14 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1"/>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1791,14 +2073,14 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1"/>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -2261,7 +2543,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2550,10 +2832,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2627,20 +2909,14 @@
         <v>77</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>95</v>
+        <v>199</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="23" t="s">
@@ -2650,19 +2926,13 @@
         <v>77</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>97</v>
+        <v>207</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2673,16 +2943,16 @@
         <v>77</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>92</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>94</v>
@@ -2696,13 +2966,16 @@
         <v>77</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>194</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>94</v>
@@ -2716,14 +2989,17 @@
         <v>77</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>92</v>
       </c>
+      <c r="F7" s="24" t="s">
+        <v>195</v>
+      </c>
       <c r="H7" s="24" t="s">
         <v>94</v>
       </c>
@@ -2736,10 +3012,10 @@
         <v>77</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>92</v>
@@ -2756,17 +3032,14 @@
         <v>77</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>115</v>
+        <v>270</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>103</v>
+        <v>271</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="H9" s="24" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="23" t="s">
@@ -2776,10 +3049,10 @@
         <v>77</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>92</v>
@@ -2796,10 +3069,10 @@
         <v>77</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>92</v>
@@ -2816,10 +3089,10 @@
         <v>77</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>92</v>
@@ -2836,10 +3109,10 @@
         <v>77</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>92</v>
@@ -2856,10 +3129,10 @@
         <v>77</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>92</v>
@@ -2876,10 +3149,10 @@
         <v>77</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>92</v>
@@ -2896,10 +3169,10 @@
         <v>77</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>92</v>
@@ -2916,10 +3189,10 @@
         <v>77</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>92</v>
@@ -2936,10 +3209,10 @@
         <v>77</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>92</v>
@@ -2956,10 +3229,10 @@
         <v>77</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>92</v>
@@ -2976,10 +3249,10 @@
         <v>77</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>92</v>
@@ -2996,10 +3269,10 @@
         <v>77</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>92</v>
@@ -3016,10 +3289,10 @@
         <v>77</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>92</v>
@@ -3036,10 +3309,10 @@
         <v>77</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>92</v>
@@ -3056,13 +3329,13 @@
         <v>77</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H24" s="24" t="s">
         <v>94</v>
@@ -3076,10 +3349,10 @@
         <v>77</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>92</v>
@@ -3096,13 +3369,13 @@
         <v>77</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H26" s="24" t="s">
         <v>94</v>
@@ -3116,16 +3389,13 @@
         <v>77</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>142</v>
+        <v>285</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>94</v>
@@ -3139,13 +3409,13 @@
         <v>77</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H28" s="24" t="s">
         <v>94</v>
@@ -3159,10 +3429,10 @@
         <v>77</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>92</v>
@@ -3179,13 +3449,13 @@
         <v>77</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H30" s="24" t="s">
         <v>94</v>
@@ -3199,16 +3469,16 @@
         <v>77</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>100</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="H31" s="24" t="s">
         <v>94</v>
@@ -3222,16 +3492,13 @@
         <v>77</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="H32" s="24" t="s">
         <v>94</v>
@@ -3245,17 +3512,14 @@
         <v>77</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E33" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="24" t="s">
-        <v>158</v>
-      </c>
       <c r="H33" s="24" t="s">
         <v>94</v>
       </c>
@@ -3268,10 +3532,10 @@
         <v>77</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E34" s="23" t="s">
         <v>92</v>
@@ -3288,13 +3552,16 @@
         <v>77</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>156</v>
       </c>
       <c r="H35" s="24" t="s">
         <v>94</v>
@@ -3308,13 +3575,16 @@
         <v>77</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>155</v>
       </c>
       <c r="H36" s="24" t="s">
         <v>94</v>
@@ -3328,14 +3598,17 @@
         <v>77</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>92</v>
       </c>
+      <c r="F37" s="24" t="s">
+        <v>158</v>
+      </c>
       <c r="H37" s="24" t="s">
         <v>94</v>
       </c>
@@ -3348,10 +3621,10 @@
         <v>77</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E38" s="23" t="s">
         <v>92</v>
@@ -3368,10 +3641,10 @@
         <v>77</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E39" s="23" t="s">
         <v>92</v>
@@ -3388,10 +3661,10 @@
         <v>77</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E40" s="23" t="s">
         <v>92</v>
@@ -3408,10 +3681,10 @@
         <v>77</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E41" s="23" t="s">
         <v>92</v>
@@ -3428,10 +3701,10 @@
         <v>77</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>92</v>
@@ -3448,10 +3721,10 @@
         <v>77</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>92</v>
@@ -3468,10 +3741,10 @@
         <v>77</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E44" s="23" t="s">
         <v>92</v>
@@ -3488,16 +3761,141 @@
         <v>77</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E45" s="23" t="s">
         <v>92</v>
       </c>
       <c r="H45" s="24" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="D52" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3512,19 +3910,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="3" width="10.28515625" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.42578125" style="23" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.42578125" style="33" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="10.28515625" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.85546875" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.42578125" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.85546875" style="29" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="12.7109375" style="23" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" style="23" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.85546875" style="23" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="14.5703125" style="23" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="9.42578125" style="23" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="10.140625" style="23" customWidth="1" collapsed="1"/>
@@ -3596,7 +3997,7 @@
       <c r="D2" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="29">
         <v>1</v>
       </c>
       <c r="F2" s="23" t="s">
@@ -3643,7 +4044,7 @@
       <c r="D3" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="29">
         <v>2</v>
       </c>
       <c r="F3" s="23" t="s">
@@ -3663,6 +4064,1439 @@
       </c>
       <c r="L3" s="23" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="G4" s="23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="G5" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="G6" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="G7" s="23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="G8" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="G9" s="23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="G10" s="23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="G11" s="23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="G12" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="G13" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="G14" s="23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="G15" s="23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="G16" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="G17" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="O17" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="G18" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="G19" s="23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="G20" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="G21" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="G22" s="23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="G23" s="23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="G24" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E25" s="29">
+        <v>1</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="G26" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="G27" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="G28" s="23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="E29" s="29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="G30" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="G31" s="23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="G32" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="29">
+        <v>1</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J33" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="G34" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="G35" s="23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="G36" s="23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="G37" s="23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="G38" s="23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="G39" s="23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="G40" s="23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="G41" s="23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="G42" s="23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="G43" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="G44" s="23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="G45" s="23" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="G46" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="G47" s="23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="G48" s="23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="G49" s="23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="G50" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="G51" s="23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="G52" s="23" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="G53" s="23" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="G54" s="23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="G55" s="23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="G56" s="23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="G57" s="23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="G58" s="23" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E59" s="29">
+        <v>1</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="D60" s="29"/>
+      <c r="G60" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="D61" s="29"/>
+      <c r="G61" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="L61" s="23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="D62" s="29"/>
+      <c r="G62" s="23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="D63" s="29"/>
+      <c r="G63" s="23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="D64" s="29"/>
+      <c r="G64" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E65" s="29">
+        <v>1</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="D66" s="29"/>
+      <c r="G66" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="L66" s="23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="D67" s="29"/>
+      <c r="G67" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="D68" s="29"/>
+      <c r="G68" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E69" s="29">
+        <v>1</v>
+      </c>
+      <c r="G69" s="23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="D70" s="29"/>
+      <c r="G70" s="23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="D71" s="29"/>
+      <c r="G71" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="E72" s="29">
+        <v>1</v>
+      </c>
+      <c r="G72" s="23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="G73" s="23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="G74" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="G75" s="23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E76" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E77" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E78" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E79" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E80" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D81" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E81" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E82" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E83" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E84" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E85" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D86" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D87" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E87" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="E88" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D89" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E89" s="29">
+        <v>1</v>
+      </c>
+      <c r="G89" s="23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="E90" s="29">
+        <v>2</v>
+      </c>
+      <c r="G90" s="23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="E91" s="29">
+        <v>3</v>
+      </c>
+      <c r="G91" s="23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="E92" s="29">
+        <v>4</v>
+      </c>
+      <c r="G92" s="23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D93" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E93" s="29">
+        <v>1</v>
+      </c>
+      <c r="G93" s="23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="E94" s="29">
+        <v>2</v>
+      </c>
+      <c r="G94" s="23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="E95" s="29">
+        <v>3</v>
+      </c>
+      <c r="G95" s="23" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="E96" s="29">
+        <v>4</v>
+      </c>
+      <c r="G96" s="23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B97" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C97" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D97" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E97" s="29">
+        <v>1</v>
+      </c>
+      <c r="G97" s="23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="G98" s="23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="G99" s="23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="G100" s="23" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B101" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D101" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E101" s="29">
+        <v>1</v>
+      </c>
+      <c r="G101" s="23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="E102" s="29">
+        <v>2</v>
+      </c>
+      <c r="G102" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="E103" s="29">
+        <v>3</v>
+      </c>
+      <c r="G103" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C104" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D104" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="E104" s="29">
+        <v>1</v>
+      </c>
+      <c r="G104" s="23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="E105" s="29">
+        <v>2</v>
+      </c>
+      <c r="G105" s="23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="E106" s="29">
+        <v>3</v>
+      </c>
+      <c r="G106" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="E107" s="29">
+        <v>4</v>
+      </c>
+      <c r="G107" s="23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B108" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C108" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D108" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E108" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D109" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E109" s="29">
+        <v>1</v>
+      </c>
+      <c r="G109" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="G110" s="23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="G111" s="23" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B112" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D112" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E112" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C113" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D113" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E113" s="29">
+        <v>1</v>
+      </c>
+      <c r="G113" s="23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="E114" s="29">
+        <v>2</v>
+      </c>
+      <c r="G114" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="E115" s="29">
+        <v>3</v>
+      </c>
+      <c r="G115" s="23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="E116" s="29">
+        <v>4</v>
+      </c>
+      <c r="G116" s="23" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="E117" s="29">
+        <v>5</v>
+      </c>
+      <c r="G117" s="23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C118" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D118" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E118" s="29">
+        <v>1</v>
+      </c>
+      <c r="G118" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="E119" s="29">
+        <v>2</v>
+      </c>
+      <c r="G119" s="23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="E120" s="29">
+        <v>3</v>
+      </c>
+      <c r="G120" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B121" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D121" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E121" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B122" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D122" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E122" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D123" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E123" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B124" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D124" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E124" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B125" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D125" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="E125" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B126" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D126" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="E126" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B127" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C127" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D127" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="E127" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B128" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C128" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="D128" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="E128" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B129" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D129" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E129" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B130" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C130" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D130" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="E130" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B131" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C131" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D131" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E131" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B132" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C132" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D132" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="E132" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B133" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C133" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D133" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="E133" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B134" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C134" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D134" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E134" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B135" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C135" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D135" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="E135" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B136" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C136" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D136" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E136" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B137" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C137" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D137" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="E137" s="29">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3675,126 +5509,143 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="27" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32" t="s">
+      <c r="A2" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="A3" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="16.5">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9" ht="16.5">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9" ht="16.5">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:9" ht="16.5">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" ht="16.5">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/B01/t01.xlsx
+++ b/B01/t01.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
@@ -13,12 +13,12 @@
     <sheet name="字段信息" sheetId="4" r:id="rId4"/>
     <sheet name="代码信息" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="306">
   <si>
     <t>Version</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -408,604 +408,686 @@
     <t>T01_COMPANY</t>
   </si>
   <si>
+    <t>T01_USER_CMPY</t>
+  </si>
+  <si>
+    <t>用户信息</t>
+  </si>
+  <si>
+    <t>公司信息</t>
+  </si>
+  <si>
+    <t>历史表</t>
+  </si>
+  <si>
+    <t>简历信息-基本资料</t>
+  </si>
+  <si>
+    <t>简历信息-职业意向</t>
+  </si>
+  <si>
+    <t>简历信息-项目信息</t>
+  </si>
+  <si>
+    <t>简历信息-工作经历</t>
+  </si>
+  <si>
+    <t>简历信息-教育信息</t>
+  </si>
+  <si>
+    <t>简历信息-所获奖项</t>
+  </si>
+  <si>
+    <t>简历信息-工作技能</t>
+  </si>
+  <si>
+    <t>简历信息-社会经验</t>
+  </si>
+  <si>
+    <t>简历信息-证书</t>
+  </si>
+  <si>
+    <t>简历信息-语言能力</t>
+  </si>
+  <si>
+    <t>简历信息-自我评价</t>
+  </si>
+  <si>
+    <t>简历信息-附加信息</t>
+  </si>
+  <si>
+    <t>T01_RESUME_BASIC</t>
+  </si>
+  <si>
+    <t>T01_RESUME_PLAN</t>
+  </si>
+  <si>
+    <t>T01_RESUME_PROJECT</t>
+  </si>
+  <si>
+    <t>T01_RESUME_WOKR</t>
+  </si>
+  <si>
+    <t>T01_RESUME_EDUCATION</t>
+  </si>
+  <si>
+    <t>T01_RESUME_REWARDS</t>
+  </si>
+  <si>
+    <t>T01_RESUME_SKILL</t>
+  </si>
+  <si>
+    <t>T01_RESUME_EXPERIENCE</t>
+  </si>
+  <si>
+    <t>T01_RESUME_CERTIFICATE</t>
+  </si>
+  <si>
+    <t>T01_RESUME_LANGUAGE</t>
+  </si>
+  <si>
+    <t>T01_RESUME_EVALUATION</t>
+  </si>
+  <si>
+    <t>T01_RESUME_OTHER</t>
+  </si>
+  <si>
+    <t>T01_RESUME_HUNTER</t>
+  </si>
+  <si>
+    <t>简历职位推荐信息</t>
+  </si>
+  <si>
+    <t>T01_RESUME_TO_JOB</t>
+  </si>
+  <si>
+    <t>简历进度信息</t>
+  </si>
+  <si>
+    <t>T01_RESUME_PROGRESS</t>
+  </si>
+  <si>
+    <t>职位进度信息</t>
+  </si>
+  <si>
+    <t>T01_JOB_PROGRESS</t>
+  </si>
+  <si>
+    <t>T01_JOB</t>
+  </si>
+  <si>
+    <t>职位信息</t>
+  </si>
+  <si>
+    <t>职位修改信息</t>
+  </si>
+  <si>
+    <t>T01_JOB_MODIFY</t>
+  </si>
+  <si>
+    <t>职位收藏信息</t>
+  </si>
+  <si>
+    <t>T01_JOB_FAVORITES</t>
+  </si>
+  <si>
+    <t>T01_JOB_CONTACTER</t>
+  </si>
+  <si>
+    <t>职位佣金分配信息</t>
+  </si>
+  <si>
+    <t>T01_FEE_DISTRIBUTION</t>
+  </si>
+  <si>
+    <t>返佣信息</t>
+  </si>
+  <si>
+    <t>佣金收入信息</t>
+  </si>
+  <si>
+    <t>T01_FEE_INCOME</t>
+  </si>
+  <si>
+    <t>T01_FEE_COST</t>
+  </si>
+  <si>
+    <t>公司支付平台的佣金费用</t>
+  </si>
+  <si>
+    <t>平台支付第三方的佣金费用</t>
+  </si>
+  <si>
+    <t>用人单位职位评价控制信息</t>
+  </si>
+  <si>
+    <t>用人单位职位评价的权限配置信息</t>
+  </si>
+  <si>
+    <t>用人单位职位评价信息</t>
+  </si>
+  <si>
+    <t>T01_EVAL_CONTROL</t>
+  </si>
+  <si>
+    <t>T01_JOB_EVAL</t>
+  </si>
+  <si>
+    <t>用人单位评价信息</t>
+  </si>
+  <si>
+    <t>T01_COMPANY_EVAL</t>
+  </si>
+  <si>
+    <t>模块信息</t>
+  </si>
+  <si>
+    <t>T01_MODULE</t>
+  </si>
+  <si>
+    <t>菜单信息</t>
+  </si>
+  <si>
+    <t>T01_MENU</t>
+  </si>
+  <si>
+    <t>角色信息</t>
+  </si>
+  <si>
+    <t>T01_ROLE</t>
+  </si>
+  <si>
+    <t>角色菜单分配信息</t>
+  </si>
+  <si>
+    <t>T01_ROLE_MENU</t>
+  </si>
+  <si>
+    <t>用户角色关系</t>
+  </si>
+  <si>
+    <t>T01_USER_ROLE</t>
+  </si>
+  <si>
+    <t>用户菜单分配信息</t>
+  </si>
+  <si>
+    <t>T01_USER_MENU</t>
+  </si>
+  <si>
+    <t>渠道类型信息</t>
+  </si>
+  <si>
+    <t>渠道内容类型信息</t>
+  </si>
+  <si>
+    <t>T01_CHANNEL_TYPE</t>
+  </si>
+  <si>
+    <t>T01_CHEL_INFO_TYPE</t>
+  </si>
+  <si>
+    <t>渠道内容信息</t>
+  </si>
+  <si>
+    <t>T01_CHEL_INFO</t>
+  </si>
+  <si>
+    <t>渠道内容发送控制信息</t>
+  </si>
+  <si>
+    <t>T01_CHEL_INFO_CTRL</t>
+  </si>
+  <si>
+    <t>用户公司关系信息</t>
+  </si>
+  <si>
+    <t>用户关联人信息</t>
+  </si>
+  <si>
+    <t>T01_USER_PERSON</t>
+  </si>
+  <si>
+    <t>Acct_Id</t>
+  </si>
+  <si>
+    <t>用户编码</t>
+  </si>
+  <si>
+    <t>Acct_Name</t>
+  </si>
+  <si>
+    <t>用户名称</t>
+  </si>
+  <si>
+    <t>证件类型</t>
+  </si>
+  <si>
+    <t>证件编码</t>
+  </si>
+  <si>
+    <t>登录密码</t>
+  </si>
+  <si>
+    <t>T01_USER_LOGON</t>
+  </si>
+  <si>
+    <t>用户登录信息</t>
+  </si>
+  <si>
+    <t>登录时间</t>
+  </si>
+  <si>
+    <t>登录地点</t>
+  </si>
+  <si>
+    <t>登录IP</t>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>电话号码</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>T01_USER_PASSWORD</t>
+  </si>
+  <si>
+    <t>用户密码信息</t>
+  </si>
+  <si>
+    <t>密码修改时间</t>
+  </si>
+  <si>
+    <t>修改前密码</t>
+  </si>
+  <si>
+    <t>修改后密码</t>
+  </si>
+  <si>
+    <t>公司编码</t>
+  </si>
+  <si>
+    <t>公司名称</t>
+  </si>
+  <si>
+    <t>国籍</t>
+  </si>
+  <si>
+    <t>出生日期</t>
+  </si>
+  <si>
+    <t>性别代码</t>
+  </si>
+  <si>
+    <t>婚姻状态</t>
+  </si>
+  <si>
+    <t>居住地址</t>
+  </si>
+  <si>
+    <t>血型</t>
+  </si>
+  <si>
+    <t>籍贯</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>国家-省-市-县</t>
+  </si>
+  <si>
+    <t>T99_GEOGRAPHIC</t>
+  </si>
+  <si>
+    <t>地理信息代码</t>
+  </si>
+  <si>
+    <t>参数表</t>
+  </si>
+  <si>
+    <t>中文名称</t>
+  </si>
+  <si>
+    <t>证件类型代码</t>
+  </si>
+  <si>
+    <t>T99_CERTIFICATE_TYPE</t>
+  </si>
+  <si>
+    <t>教育程度</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
+    <t>户籍所在城市</t>
+  </si>
+  <si>
+    <t>身高（cm）</t>
+  </si>
+  <si>
+    <t>体重（kg）</t>
+  </si>
+  <si>
+    <t>是否激活</t>
+  </si>
+  <si>
+    <t>组织机构代码</t>
+  </si>
+  <si>
+    <t>营业执照号</t>
+  </si>
+  <si>
+    <t>税务登记证号（国税）</t>
+  </si>
+  <si>
+    <t>税务登记证号（地税）</t>
+  </si>
+  <si>
+    <t>企业登记注册类型</t>
+  </si>
+  <si>
+    <t>资本币种</t>
+  </si>
+  <si>
+    <t>资本金额</t>
+  </si>
+  <si>
+    <t>主营业务</t>
+  </si>
+  <si>
+    <t>兼营业务</t>
+  </si>
+  <si>
+    <t>注册地址</t>
+  </si>
+  <si>
+    <t>注册地址邮编</t>
+  </si>
+  <si>
+    <t>成立日期</t>
+  </si>
+  <si>
+    <t>客户所属行业</t>
+  </si>
+  <si>
+    <t>客户补充行业</t>
+  </si>
+  <si>
+    <t>企业规模</t>
+  </si>
+  <si>
+    <t>从业人数</t>
+  </si>
+  <si>
+    <t>营业面积</t>
+  </si>
+  <si>
+    <t>上市企业标志</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>传真号码</t>
+  </si>
+  <si>
+    <t>电子信箱</t>
+  </si>
+  <si>
+    <t>网址</t>
+  </si>
+  <si>
+    <t>联系地址</t>
+  </si>
+  <si>
+    <t>联系邮政编码</t>
+  </si>
+  <si>
+    <t>关系类型</t>
+  </si>
+  <si>
+    <t>关系开始时间</t>
+  </si>
+  <si>
+    <t>关系结束时间</t>
+  </si>
+  <si>
+    <t>关系描述</t>
+  </si>
+  <si>
+    <t>推荐人编码</t>
+  </si>
+  <si>
+    <t>关联人类型</t>
+  </si>
+  <si>
+    <t>关联人编码</t>
+  </si>
+  <si>
+    <t>关联人名称</t>
+  </si>
+  <si>
+    <t>简历编码</t>
+  </si>
+  <si>
+    <t>简历名称</t>
+  </si>
+  <si>
+    <t>简历描述</t>
+  </si>
+  <si>
+    <t>T01_RESUME_INDUSTRY</t>
+  </si>
+  <si>
+    <t>简历所属行业信息</t>
+  </si>
+  <si>
+    <t>所属一级行业</t>
+  </si>
+  <si>
+    <t>所属二级行业</t>
+  </si>
+  <si>
+    <t>所属三级行业</t>
+  </si>
+  <si>
+    <t>职位编码</t>
+  </si>
+  <si>
+    <t>推荐时间</t>
+  </si>
+  <si>
+    <t>渠道类型编码</t>
+  </si>
+  <si>
+    <t>渠道内容类型编码</t>
+  </si>
+  <si>
+    <t>渠道内容编码</t>
+  </si>
+  <si>
+    <t>投递简历数目</t>
+  </si>
+  <si>
+    <t>通知面试数目</t>
+  </si>
+  <si>
+    <t>入职数目</t>
+  </si>
+  <si>
+    <t>职位名称</t>
+  </si>
+  <si>
+    <t>职位描述</t>
+  </si>
+  <si>
+    <t>职位所属行业信息</t>
+  </si>
+  <si>
+    <t>收藏时间</t>
+  </si>
+  <si>
+    <t>是否有效</t>
+  </si>
+  <si>
     <t>工作职位对应的公司信息</t>
-  </si>
-  <si>
-    <t>T01_USER_CMPY</t>
-  </si>
-  <si>
-    <t>用户信息</t>
-  </si>
-  <si>
-    <t>公司信息</t>
-  </si>
-  <si>
-    <t>历史表</t>
-  </si>
-  <si>
-    <t>简历信息-用户录入</t>
-  </si>
-  <si>
-    <t>简历信息-基本资料</t>
-  </si>
-  <si>
-    <t>简历信息-职业意向</t>
-  </si>
-  <si>
-    <t>简历信息-项目信息</t>
-  </si>
-  <si>
-    <t>简历信息-工作经历</t>
-  </si>
-  <si>
-    <t>简历信息-教育信息</t>
-  </si>
-  <si>
-    <t>简历信息-所获奖项</t>
-  </si>
-  <si>
-    <t>简历信息-工作技能</t>
-  </si>
-  <si>
-    <t>简历信息-社会经验</t>
-  </si>
-  <si>
-    <t>简历信息-证书</t>
-  </si>
-  <si>
-    <t>简历信息-语言能力</t>
-  </si>
-  <si>
-    <t>简历信息-自我评价</t>
-  </si>
-  <si>
-    <t>简历信息-附加信息</t>
-  </si>
-  <si>
-    <t>T01_RESUME_BASIC</t>
-  </si>
-  <si>
-    <t>T01_RESUME_PLAN</t>
-  </si>
-  <si>
-    <t>T01_RESUME_PROJECT</t>
-  </si>
-  <si>
-    <t>T01_RESUME_WOKR</t>
-  </si>
-  <si>
-    <t>T01_RESUME_EDUCATION</t>
-  </si>
-  <si>
-    <t>T01_RESUME_REWARDS</t>
-  </si>
-  <si>
-    <t>T01_RESUME_SKILL</t>
-  </si>
-  <si>
-    <t>T01_RESUME_EXPERIENCE</t>
-  </si>
-  <si>
-    <t>T01_RESUME_CERTIFICATE</t>
-  </si>
-  <si>
-    <t>T01_RESUME_LANGUAGE</t>
-  </si>
-  <si>
-    <t>T01_RESUME_EVALUATION</t>
-  </si>
-  <si>
-    <t>T01_RESUME_OTHER</t>
-  </si>
-  <si>
-    <t>T01_RESUME_USER</t>
-  </si>
-  <si>
-    <t>T01_RESUME_HUNTER</t>
-  </si>
-  <si>
-    <t>简历职位推荐信息</t>
-  </si>
-  <si>
-    <t>T01_RESUME_TO_JOB</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户与公司的对应关系</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户的朋友、同事等关联人信息</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括用户录入、用户录入</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历信息</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块信息</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历编码</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>T01_RESUME_PROGRESS</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>简历进度信息</t>
-  </si>
-  <si>
-    <t>T01_RESUME_PROGRESS</t>
-  </si>
-  <si>
-    <t>职位进度信息</t>
-  </si>
-  <si>
-    <t>T01_JOB_PROGRESS</t>
-  </si>
-  <si>
-    <t>T01_JOB</t>
-  </si>
-  <si>
-    <t>职位信息</t>
-  </si>
-  <si>
-    <t>职位修改信息</t>
-  </si>
-  <si>
-    <t>T01_JOB_MODIFY</t>
-  </si>
-  <si>
-    <t>职位收藏信息</t>
-  </si>
-  <si>
-    <t>T01_JOB_FAVORITES</t>
-  </si>
-  <si>
-    <t>职位收藏详细信息</t>
-  </si>
-  <si>
-    <t>T01_JOB_FAVORITES_ALL</t>
-  </si>
-  <si>
-    <t>职位推送信息</t>
-  </si>
-  <si>
-    <t>T01_JOB_CONTACTER</t>
-  </si>
-  <si>
-    <t>公司放配置的职位对应简历接收人信息</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历进度代码</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位编码</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改人编码</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段长度</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位联系人信息</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司方配置的职位对应简历接收人信息</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人姓名</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式类型</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>T01_JOB_CONTACTER_TYPE</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位佣金分配信息</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>T01_FEE_RULE_TYPE</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣金分配规则类型</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>T01_FEE_RULE</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>佣金分配规则</t>
-  </si>
-  <si>
-    <t>T01_FEE_RULE</t>
-  </si>
-  <si>
-    <t>职位分配计算信息</t>
-  </si>
-  <si>
-    <t>T01_FEE_CALCULATE</t>
-  </si>
-  <si>
-    <t>职位佣金分配信息</t>
-  </si>
-  <si>
-    <t>T01_FEE_DISTRIBUTION</t>
-  </si>
-  <si>
-    <t>返佣信息</t>
-  </si>
-  <si>
-    <t>佣金收入信息</t>
-  </si>
-  <si>
-    <t>T01_FEE_INCOME</t>
-  </si>
-  <si>
-    <t>T01_FEE_COST</t>
-  </si>
-  <si>
-    <t>公司支付平台的佣金费用</t>
-  </si>
-  <si>
-    <t>平台支付第三方的佣金费用</t>
-  </si>
-  <si>
-    <t>用人单位职位评价控制信息</t>
-  </si>
-  <si>
-    <t>用人单位职位评价的权限配置信息</t>
-  </si>
-  <si>
-    <t>用人单位职位评价信息</t>
-  </si>
-  <si>
-    <t>T01_EVAL_CONTROL</t>
-  </si>
-  <si>
-    <t>T01_JOB_EVAL</t>
-  </si>
-  <si>
-    <t>用人单位评价信息</t>
-  </si>
-  <si>
-    <t>T01_COMPANY_EVAL</t>
-  </si>
-  <si>
-    <t>模块信息</t>
-  </si>
-  <si>
-    <t>T01_MODULE</t>
-  </si>
-  <si>
-    <t>菜单信息</t>
-  </si>
-  <si>
-    <t>T01_MENU</t>
-  </si>
-  <si>
-    <t>角色信息</t>
-  </si>
-  <si>
-    <t>T01_ROLE</t>
-  </si>
-  <si>
-    <t>角色菜单分配信息</t>
-  </si>
-  <si>
-    <t>T01_ROLE_MENU</t>
-  </si>
-  <si>
-    <t>用户角色关系</t>
-  </si>
-  <si>
-    <t>T01_USER_ROLE</t>
-  </si>
-  <si>
-    <t>用户菜单分配信息</t>
-  </si>
-  <si>
-    <t>T01_USER_MENU</t>
-  </si>
-  <si>
-    <t>渠道类型信息</t>
-  </si>
-  <si>
-    <t>渠道内容类型信息</t>
-  </si>
-  <si>
-    <t>T01_CHANNEL_TYPE</t>
-  </si>
-  <si>
-    <t>T01_CHEL_INFO_TYPE</t>
-  </si>
-  <si>
-    <t>渠道内容信息</t>
-  </si>
-  <si>
-    <t>T01_CHEL_INFO</t>
-  </si>
-  <si>
-    <t>渠道内容发送控制信息</t>
-  </si>
-  <si>
-    <t>T01_CHEL_INFO_CTRL</t>
-  </si>
-  <si>
-    <t>用户公司关系信息</t>
-  </si>
-  <si>
-    <t>用户关联人信息</t>
-  </si>
-  <si>
-    <t>T01_USER_PERSON</t>
-  </si>
-  <si>
-    <t>简历信息-猎头上传</t>
-  </si>
-  <si>
-    <t>Acct_Id</t>
-  </si>
-  <si>
-    <t>用户编码</t>
-  </si>
-  <si>
-    <t>VARCHAR(30)</t>
-  </si>
-  <si>
-    <t>Acct_Name</t>
-  </si>
-  <si>
-    <t>用户名称</t>
-  </si>
-  <si>
-    <t>VARCHAR(200)</t>
-  </si>
-  <si>
-    <t>用户与公司的对应关系</t>
-  </si>
-  <si>
-    <t>用户的朋友、同事等关联人信息</t>
-  </si>
-  <si>
-    <t>证件类型</t>
-  </si>
-  <si>
-    <t>证件编码</t>
-  </si>
-  <si>
-    <t>登录密码</t>
-  </si>
-  <si>
-    <t>T01_USER_LOGON</t>
-  </si>
-  <si>
-    <t>用户登录信息</t>
-  </si>
-  <si>
-    <t>登录时间</t>
-  </si>
-  <si>
-    <t>登录地点</t>
-  </si>
-  <si>
-    <t>登录IP</t>
-  </si>
-  <si>
-    <t>手机号</t>
-  </si>
-  <si>
-    <t>电话号码</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>T01_USER_PASSWORD</t>
-  </si>
-  <si>
-    <t>用户密码信息</t>
-  </si>
-  <si>
-    <t>密码修改时间</t>
-  </si>
-  <si>
-    <t>修改前密码</t>
-  </si>
-  <si>
-    <t>修改后密码</t>
-  </si>
-  <si>
-    <t>公司编码</t>
-  </si>
-  <si>
-    <t>公司名称</t>
-  </si>
-  <si>
-    <t>国籍</t>
-  </si>
-  <si>
-    <t>出生日期</t>
-  </si>
-  <si>
-    <t>性别代码</t>
-  </si>
-  <si>
-    <t>婚姻状态</t>
-  </si>
-  <si>
-    <t>居住地址</t>
-  </si>
-  <si>
-    <t>血型</t>
-  </si>
-  <si>
-    <t>籍贯</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>国家-省-市-县</t>
-  </si>
-  <si>
-    <t>T99_GEOGRAPHIC</t>
-  </si>
-  <si>
-    <t>地理信息代码</t>
-  </si>
-  <si>
-    <t>参数表</t>
-  </si>
-  <si>
-    <t>中文名称</t>
-  </si>
-  <si>
-    <t>证件类型代码</t>
-  </si>
-  <si>
-    <t>T99_CERTIFICATE_TYPE</t>
-  </si>
-  <si>
-    <t>教育程度</t>
-  </si>
-  <si>
-    <t>民族</t>
-  </si>
-  <si>
-    <t>户籍所在城市</t>
-  </si>
-  <si>
-    <t>身高（cm）</t>
-  </si>
-  <si>
-    <t>体重（kg）</t>
-  </si>
-  <si>
-    <t>是否激活</t>
-  </si>
-  <si>
-    <t>组织机构代码</t>
-  </si>
-  <si>
-    <t>营业执照号</t>
-  </si>
-  <si>
-    <t>税务登记证号（国税）</t>
-  </si>
-  <si>
-    <t>税务登记证号（地税）</t>
-  </si>
-  <si>
-    <t>企业登记注册类型</t>
-  </si>
-  <si>
-    <t>资本币种</t>
-  </si>
-  <si>
-    <t>资本金额</t>
-  </si>
-  <si>
-    <t>主营业务</t>
-  </si>
-  <si>
-    <t>兼营业务</t>
-  </si>
-  <si>
-    <t>注册地址</t>
-  </si>
-  <si>
-    <t>注册地址邮编</t>
-  </si>
-  <si>
-    <t>成立日期</t>
-  </si>
-  <si>
-    <t>客户所属行业</t>
-  </si>
-  <si>
-    <t>客户补充行业</t>
-  </si>
-  <si>
-    <t>企业规模</t>
-  </si>
-  <si>
-    <t>从业人数</t>
-  </si>
-  <si>
-    <t>营业面积</t>
-  </si>
-  <si>
-    <t>上市企业标志</t>
-  </si>
-  <si>
-    <t>联系电话</t>
-  </si>
-  <si>
-    <t>传真号码</t>
-  </si>
-  <si>
-    <t>电子信箱</t>
-  </si>
-  <si>
-    <t>网址</t>
-  </si>
-  <si>
-    <t>联系地址</t>
-  </si>
-  <si>
-    <t>联系邮政编码</t>
-  </si>
-  <si>
-    <t>关系类型</t>
-  </si>
-  <si>
-    <t>关系开始时间</t>
-  </si>
-  <si>
-    <t>关系结束时间</t>
-  </si>
-  <si>
-    <t>关系描述</t>
-  </si>
-  <si>
-    <t>推荐人编码</t>
-  </si>
-  <si>
-    <t>关联人类型</t>
-  </si>
-  <si>
-    <t>关联人编码</t>
-  </si>
-  <si>
-    <t>关联人名称</t>
-  </si>
-  <si>
-    <t>简历编码</t>
-  </si>
-  <si>
-    <t>简历名称</t>
-  </si>
-  <si>
-    <t>简历描述</t>
-  </si>
-  <si>
-    <t>T01_RESUME_INDUSTRY</t>
-  </si>
-  <si>
-    <t>简历所属行业信息</t>
-  </si>
-  <si>
-    <t>所属一级行业</t>
-  </si>
-  <si>
-    <t>所属二级行业</t>
-  </si>
-  <si>
-    <t>所属三级行业</t>
-  </si>
-  <si>
-    <t>职位编码</t>
-  </si>
-  <si>
-    <t>推荐时间</t>
-  </si>
-  <si>
-    <t>渠道类型编码</t>
-  </si>
-  <si>
-    <t>渠道内容类型编码</t>
-  </si>
-  <si>
-    <t>渠道内容编码</t>
-  </si>
-  <si>
-    <t>投递简历数目</t>
-  </si>
-  <si>
-    <t>通知面试数目</t>
-  </si>
-  <si>
-    <t>入职数目</t>
-  </si>
-  <si>
-    <t>职位名称</t>
-  </si>
-  <si>
-    <t>职位描述</t>
-  </si>
-  <si>
-    <t>职位所属行业信息</t>
-  </si>
-  <si>
-    <t>收藏时间</t>
-  </si>
-  <si>
-    <t>分配规则编码</t>
-  </si>
-  <si>
-    <t>分配规则描述</t>
-  </si>
-  <si>
-    <t>是否有效</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配规则类型编码</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配规则类型描述</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣金分配规则编码</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣金分配规则描述</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数控制实现</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>不实施</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统常量配置表</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1092,6 +1174,13 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1271,7 +1360,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1345,7 +1434,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1380,7 +1468,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1556,24 +1643,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="17.625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.625" style="2" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.875" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.375" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.75" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.875" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.375" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.125" style="2" customWidth="1" collapsed="1"/>
     <col min="10" max="16384" width="9" style="2" collapsed="1"/>
   </cols>
   <sheetData>
@@ -2051,7 +2138,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" ht="14.25">
       <c r="A26" s="1"/>
       <c r="B26" s="30" t="s">
         <v>10</v>
@@ -2534,27 +2621,29 @@
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B25:G25"/>
   </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="16" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.42578125" style="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="88.140625" style="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="10.125" style="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.375" style="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="88.125" style="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="33">
+    <row r="1" spans="1:3" ht="16.5">
       <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
@@ -2737,7 +2826,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="33">
+    <row r="18" spans="1:3" ht="16.5">
       <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
@@ -2826,28 +2915,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="23" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12.875" style="23" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="16" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.140625" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.7109375" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.28515625" style="23" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="35.28515625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.5703125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="24" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.125" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.75" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.25" style="23" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="35.25" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="20.625" style="24" customWidth="1" collapsed="1"/>
     <col min="9" max="17" width="9" style="22"/>
     <col min="18" max="16384" width="9" style="22" collapsed="1"/>
   </cols>
@@ -2889,7 +2979,7 @@
         <v>79</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>92</v>
@@ -2909,10 +2999,10 @@
         <v>77</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>92</v>
@@ -2926,10 +3016,10 @@
         <v>77</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>92</v>
@@ -2946,13 +3036,13 @@
         <v>95</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>92</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>96</v>
+        <v>272</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>94</v>
@@ -2966,16 +3056,16 @@
         <v>77</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>194</v>
+        <v>273</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>94</v>
@@ -2989,16 +3079,16 @@
         <v>77</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>92</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>195</v>
+        <v>274</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>94</v>
@@ -3012,14 +3102,17 @@
         <v>77</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>187</v>
+        <v>276</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>92</v>
       </c>
+      <c r="F8" s="24" t="s">
+        <v>275</v>
+      </c>
       <c r="H8" s="24" t="s">
         <v>94</v>
       </c>
@@ -3032,10 +3125,10 @@
         <v>77</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>92</v>
@@ -3049,10 +3142,10 @@
         <v>77</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>92</v>
@@ -3069,10 +3162,10 @@
         <v>77</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>92</v>
@@ -3089,10 +3182,10 @@
         <v>77</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>92</v>
@@ -3109,10 +3202,10 @@
         <v>77</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>92</v>
@@ -3129,10 +3222,10 @@
         <v>77</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>92</v>
@@ -3149,10 +3242,10 @@
         <v>77</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>92</v>
@@ -3169,10 +3262,10 @@
         <v>77</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>92</v>
@@ -3189,10 +3282,10 @@
         <v>77</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>92</v>
@@ -3209,10 +3302,10 @@
         <v>77</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>92</v>
@@ -3229,10 +3322,10 @@
         <v>77</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>92</v>
@@ -3249,10 +3342,10 @@
         <v>77</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>92</v>
@@ -3269,10 +3362,10 @@
         <v>77</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>92</v>
@@ -3289,10 +3382,10 @@
         <v>77</v>
       </c>
       <c r="C22" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="23" t="s">
         <v>125</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>113</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>92</v>
@@ -3309,10 +3402,10 @@
         <v>77</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>92</v>
@@ -3329,10 +3422,10 @@
         <v>77</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E24" s="23" t="s">
         <v>92</v>
@@ -3349,7 +3442,7 @@
         <v>77</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>132</v>
@@ -3369,10 +3462,10 @@
         <v>77</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>135</v>
+        <v>269</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>92</v>
@@ -3392,10 +3485,10 @@
         <v>134</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>285</v>
+        <v>133</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>94</v>
@@ -3409,13 +3502,13 @@
         <v>77</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H28" s="24" t="s">
         <v>94</v>
@@ -3429,14 +3522,17 @@
         <v>77</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>92</v>
       </c>
+      <c r="F29" s="24" t="s">
+        <v>288</v>
+      </c>
       <c r="H29" s="24" t="s">
         <v>94</v>
       </c>
@@ -3449,13 +3545,13 @@
         <v>77</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>141</v>
+        <v>293</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>140</v>
+        <v>291</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="H30" s="24" t="s">
         <v>94</v>
@@ -3469,16 +3565,13 @@
         <v>77</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>143</v>
+        <v>295</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>142</v>
+        <v>296</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="H31" s="24" t="s">
         <v>94</v>
@@ -3492,10 +3585,10 @@
         <v>77</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>146</v>
+        <v>297</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>145</v>
+        <v>298</v>
       </c>
       <c r="E32" s="23" t="s">
         <v>92</v>
@@ -3512,10 +3605,10 @@
         <v>77</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E33" s="23" t="s">
         <v>92</v>
@@ -3532,13 +3625,16 @@
         <v>77</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>92</v>
+        <v>99</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>145</v>
       </c>
       <c r="H34" s="24" t="s">
         <v>94</v>
@@ -3552,16 +3648,16 @@
         <v>77</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="H35" s="24" t="s">
         <v>94</v>
@@ -3575,19 +3671,22 @@
         <v>77</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>155</v>
+        <v>147</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>303</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>94</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3598,17 +3697,14 @@
         <v>77</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="F37" s="24" t="s">
-        <v>158</v>
-      </c>
       <c r="H37" s="24" t="s">
         <v>94</v>
       </c>
@@ -3621,10 +3717,10 @@
         <v>77</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E38" s="23" t="s">
         <v>92</v>
@@ -3641,10 +3737,10 @@
         <v>77</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>162</v>
+        <v>277</v>
       </c>
       <c r="E39" s="23" t="s">
         <v>92</v>
@@ -3661,10 +3757,10 @@
         <v>77</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E40" s="23" t="s">
         <v>92</v>
@@ -3681,10 +3777,10 @@
         <v>77</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E41" s="23" t="s">
         <v>92</v>
@@ -3701,10 +3797,10 @@
         <v>77</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>92</v>
@@ -3721,10 +3817,10 @@
         <v>77</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>92</v>
@@ -3741,10 +3837,10 @@
         <v>77</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E44" s="23" t="s">
         <v>92</v>
@@ -3761,10 +3857,10 @@
         <v>77</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E45" s="23" t="s">
         <v>92</v>
@@ -3781,10 +3877,10 @@
         <v>77</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>92</v>
@@ -3801,10 +3897,10 @@
         <v>77</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E47" s="23" t="s">
         <v>92</v>
@@ -3821,10 +3917,10 @@
         <v>77</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>92</v>
@@ -3841,13 +3937,13 @@
         <v>77</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="H49" s="24" t="s">
         <v>94</v>
@@ -3861,44 +3957,33 @@
         <v>77</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="H50" s="24" t="s">
-        <v>94</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>228</v>
-      </c>
       <c r="D51" s="23" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="D52" s="23" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"参数表,信息表,历史表"</formula1>
@@ -3909,35 +3994,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P137"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A118" sqref="A118"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="10.28515625" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.85546875" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.42578125" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.85546875" style="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.7109375" style="23" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.85546875" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.5703125" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.42578125" style="23" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.140625" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="8.42578125" style="23" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15" style="23" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="16" style="23" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.85546875" style="23" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="9" style="22"/>
-    <col min="17" max="16384" width="9" style="22" collapsed="1"/>
+    <col min="1" max="2" width="10.25" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.875" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.375" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.875" style="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.75" style="23" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.875" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16" style="23" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.5" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="23" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.125" style="23" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="8.375" style="23" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15" style="23" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.875" style="23" customWidth="1" collapsed="1"/>
+    <col min="17" max="18" width="9" style="22"/>
+    <col min="19" max="16384" width="9" style="22" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="20" t="s">
         <v>52</v>
       </c>
@@ -3960,31 +4046,34 @@
         <v>35</v>
       </c>
       <c r="H1" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="L1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="23" t="s">
         <v>76</v>
       </c>
@@ -3995,28 +4084,28 @@
         <v>79</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" s="29">
         <v>1</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>190</v>
+        <v>58</v>
       </c>
       <c r="I2" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="J2" s="23">
+        <v>30</v>
+      </c>
+      <c r="K2" s="23" t="s">
         <v>60</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>58</v>
       </c>
       <c r="L2" s="23" t="s">
         <v>59</v>
@@ -4025,168 +4114,162 @@
         <v>58</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O2" s="23" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>98</v>
-      </c>
+      <c r="P2" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="E3" s="29">
         <v>2</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="J3" s="23">
+        <v>200</v>
+      </c>
+      <c r="K3" s="23" t="s">
         <v>59</v>
       </c>
       <c r="L3" s="23" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="N3" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="G4" s="23" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="G5" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="M5" s="23" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>180</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="G6" s="23" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="G7" s="23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="G8" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="G9" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="G10" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="G11" s="23" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="G8" s="23" t="s">
+    <row r="12" spans="1:16">
+      <c r="G12" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="O12" s="23" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="G9" s="23" t="s">
+    <row r="13" spans="1:16">
+      <c r="G13" s="23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="G14" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="G15" s="23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="G16" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="G17" s="23" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="G10" s="23" t="s">
+      <c r="O17" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="P17" s="23" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="G11" s="23" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="G12" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="M12" s="23" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="G13" s="23" t="s">
+    <row r="18" spans="1:16">
+      <c r="G18" s="23" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="G14" s="23" t="s">
+    <row r="19" spans="1:16">
+      <c r="G19" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="G20" s="23" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="G15" s="23" t="s">
+    <row r="21" spans="1:16">
+      <c r="G21" s="23" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="G16" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="M16" s="23" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="G17" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="M17" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="O17" s="23" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="G18" s="23" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="G19" s="23" t="s">
+    <row r="22" spans="1:16">
+      <c r="G22" s="23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="G23" s="23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="G24" s="23" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
-      <c r="G20" s="23" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="G21" s="23" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="G22" s="23" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="G23" s="23" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="G24" s="23" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:16">
       <c r="A25" s="23" t="s">
         <v>76</v>
       </c>
@@ -4194,64 +4277,67 @@
         <v>77</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E25" s="29">
         <v>1</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="I25" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="J25" s="23">
+        <v>30</v>
+      </c>
+      <c r="K25" s="23" t="s">
         <v>60</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="K25" s="23" t="s">
-        <v>58</v>
       </c>
       <c r="L25" s="23" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="M25" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="N25" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="G26" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="I26" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" s="23" t="s">
         <v>60</v>
-      </c>
-      <c r="J26" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="K26" s="23" t="s">
-        <v>58</v>
       </c>
       <c r="L26" s="23" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="M26" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="N26" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="G27" s="23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="G28" s="23" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="23" t="s">
         <v>76</v>
       </c>
@@ -4259,64 +4345,67 @@
         <v>77</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="E29" s="29">
         <v>1</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="H29" s="23" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="I29" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="J29" s="23">
+        <v>30</v>
+      </c>
+      <c r="K29" s="23" t="s">
         <v>60</v>
-      </c>
-      <c r="J29" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="K29" s="23" t="s">
-        <v>58</v>
       </c>
       <c r="L29" s="23" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="M29" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="N29" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="G30" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="I30" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="K30" s="23" t="s">
         <v>60</v>
-      </c>
-      <c r="J30" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="K30" s="23" t="s">
-        <v>58</v>
       </c>
       <c r="L30" s="23" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="M30" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="N30" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="G31" s="23" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="G32" s="23" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="23" t="s">
         <v>76</v>
       </c>
@@ -4327,153 +4416,153 @@
         <v>95</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E33" s="29">
         <v>1</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="I33" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="K33" s="23" t="s">
         <v>60</v>
-      </c>
-      <c r="J33" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="K33" s="23" t="s">
-        <v>58</v>
       </c>
       <c r="L33" s="23" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="N33" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="G34" s="23" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="G35" s="23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="G36" s="23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="G37" s="23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="G38" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="G39" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="G40" s="23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="G41" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="G42" s="23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="G43" s="23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="G44" s="23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="G45" s="23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="G46" s="23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="G47" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="G48" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="G49" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="G50" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="G51" s="23" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
-      <c r="G36" s="23" t="s">
+    <row r="52" spans="1:14">
+      <c r="G52" s="23" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
-      <c r="G37" s="23" t="s">
+    <row r="53" spans="1:14">
+      <c r="G53" s="23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="G54" s="23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="G55" s="23" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
-      <c r="G38" s="23" t="s">
+    <row r="56" spans="1:14">
+      <c r="G56" s="23" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
-      <c r="G39" s="23" t="s">
+    <row r="57" spans="1:14">
+      <c r="G57" s="23" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
-      <c r="G40" s="23" t="s">
+    <row r="58" spans="1:14">
+      <c r="G58" s="23" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
-      <c r="G41" s="23" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="G42" s="23" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="G43" s="23" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="G44" s="23" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="G45" s="23" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="G46" s="23" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="G47" s="23" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="G48" s="23" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="G49" s="23" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="G50" s="23" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="G51" s="23" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="G52" s="23" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="G53" s="23" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="G54" s="23" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="G55" s="23" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="G56" s="23" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="G57" s="23" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="G58" s="23" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:14">
       <c r="A59" s="23" t="s">
         <v>76</v>
       </c>
@@ -4481,52 +4570,52 @@
         <v>77</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E59" s="29">
         <v>1</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="D60" s="29"/>
       <c r="G60" s="23" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="D61" s="29"/>
       <c r="G61" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="L61" s="23" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>243</v>
+      </c>
+      <c r="N61" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="D62" s="29"/>
       <c r="G62" s="23" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="D63" s="29"/>
       <c r="G63" s="23" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="D64" s="29"/>
       <c r="G64" s="23" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="23" t="s">
         <v>76</v>
       </c>
@@ -4534,40 +4623,40 @@
         <v>77</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E65" s="29">
         <v>1</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="D66" s="29"/>
       <c r="G66" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="L66" s="23" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+        <v>248</v>
+      </c>
+      <c r="N66" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="D67" s="29"/>
       <c r="G67" s="23" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="D68" s="29"/>
       <c r="G68" s="23" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="23" t="s">
         <v>76</v>
       </c>
@@ -4575,31 +4664,31 @@
         <v>77</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>187</v>
+        <v>276</v>
       </c>
       <c r="E69" s="29">
         <v>1</v>
       </c>
       <c r="G69" s="23" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="D70" s="29"/>
       <c r="G70" s="23" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="D71" s="29"/>
       <c r="G71" s="23" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="23" t="s">
         <v>76</v>
       </c>
@@ -4607,34 +4696,34 @@
         <v>77</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="E72" s="29">
         <v>1</v>
       </c>
       <c r="G72" s="23" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="G73" s="23" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="G74" s="23" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="G75" s="23" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" s="23" t="s">
         <v>76</v>
       </c>
@@ -4642,16 +4731,16 @@
         <v>77</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E76" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:14">
       <c r="A77" s="23" t="s">
         <v>76</v>
       </c>
@@ -4659,16 +4748,16 @@
         <v>77</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E77" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:14">
       <c r="A78" s="23" t="s">
         <v>76</v>
       </c>
@@ -4676,16 +4765,16 @@
         <v>77</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E78" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:14">
       <c r="A79" s="23" t="s">
         <v>76</v>
       </c>
@@ -4693,16 +4782,16 @@
         <v>77</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E79" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:14">
       <c r="A80" s="23" t="s">
         <v>76</v>
       </c>
@@ -4710,10 +4799,10 @@
         <v>77</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E80" s="29">
         <v>1</v>
@@ -4727,10 +4816,10 @@
         <v>77</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E81" s="29">
         <v>1</v>
@@ -4744,10 +4833,10 @@
         <v>77</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E82" s="29">
         <v>1</v>
@@ -4761,10 +4850,10 @@
         <v>77</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E83" s="29">
         <v>1</v>
@@ -4778,10 +4867,10 @@
         <v>77</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E84" s="29">
         <v>1</v>
@@ -4795,10 +4884,10 @@
         <v>77</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E85" s="29">
         <v>1</v>
@@ -4812,10 +4901,10 @@
         <v>77</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E86" s="29">
         <v>1</v>
@@ -4829,10 +4918,10 @@
         <v>77</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E87" s="29">
         <v>1</v>
@@ -4846,57 +4935,48 @@
         <v>77</v>
       </c>
       <c r="C88" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D88" s="23" t="s">
         <v>125</v>
-      </c>
-      <c r="D88" s="23" t="s">
-        <v>113</v>
       </c>
       <c r="E88" s="29">
         <v>1</v>
       </c>
+      <c r="G88" s="23" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B89" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C89" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="D89" s="23" t="s">
-        <v>128</v>
-      </c>
       <c r="E89" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G89" s="23" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="E90" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G90" s="23" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="E91" s="29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G91" s="23" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="E92" s="29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G92" s="23" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4907,16 +4987,16 @@
         <v>77</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>131</v>
+        <v>279</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="E93" s="29">
         <v>1</v>
       </c>
       <c r="G93" s="23" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4924,7 +5004,7 @@
         <v>2</v>
       </c>
       <c r="G94" s="23" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4932,7 +5012,7 @@
         <v>3</v>
       </c>
       <c r="G95" s="23" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4940,139 +5020,139 @@
         <v>4</v>
       </c>
       <c r="G96" s="23" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B97" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C97" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D97" s="23" t="s">
+      <c r="E97" s="29">
+        <v>5</v>
+      </c>
+      <c r="G97" s="23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C98" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D98" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E98" s="29">
+        <v>1</v>
+      </c>
+      <c r="G98" s="23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="E99" s="29">
+        <v>2</v>
+      </c>
+      <c r="G99" s="23" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="E100" s="29">
+        <v>3</v>
+      </c>
+      <c r="G100" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="E101" s="29">
+        <v>4</v>
+      </c>
+      <c r="G101" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D102" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E97" s="29">
+      <c r="E102" s="29">
         <v>1</v>
       </c>
-      <c r="G97" s="23" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="G98" s="23" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="G99" s="23" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="G100" s="23" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B101" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C101" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D101" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="E101" s="29">
-        <v>1</v>
-      </c>
-      <c r="G101" s="23" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="E102" s="29">
-        <v>2</v>
-      </c>
       <c r="G102" s="23" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="E103" s="29">
+        <v>2</v>
+      </c>
+      <c r="G103" s="23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="E104" s="29">
         <v>3</v>
       </c>
-      <c r="G103" s="23" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B104" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C104" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D104" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="E104" s="29">
+      <c r="G104" s="23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D105" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="E105" s="29">
         <v>1</v>
       </c>
-      <c r="G104" s="23" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="E105" s="29">
-        <v>2</v>
-      </c>
       <c r="G105" s="23" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="E106" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G106" s="23" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="E107" s="29">
+        <v>3</v>
+      </c>
+      <c r="G107" s="23" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="E108" s="29">
         <v>4</v>
       </c>
-      <c r="G107" s="23" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B108" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C108" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="D108" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E108" s="29">
-        <v>1</v>
+      <c r="G108" s="23" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -5083,26 +5163,32 @@
         <v>77</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E109" s="29">
         <v>1</v>
       </c>
       <c r="G109" s="23" t="s">
-        <v>189</v>
+        <v>282</v>
       </c>
     </row>
     <row r="110" spans="1:7">
+      <c r="E110" s="29">
+        <v>2</v>
+      </c>
       <c r="G110" s="23" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="111" spans="1:7">
+      <c r="E111" s="29">
+        <v>3</v>
+      </c>
       <c r="G111" s="23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -5113,104 +5199,99 @@
         <v>77</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D112" s="23" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E112" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B113" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C113" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="D113" s="23" t="s">
-        <v>142</v>
-      </c>
+      <c r="G112" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="E113" s="29">
+        <v>2</v>
+      </c>
+      <c r="G113" s="23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="E114" s="29">
+        <v>3</v>
+      </c>
+      <c r="G114" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B115" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D115" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="E115" s="29">
         <v>1</v>
       </c>
-      <c r="G113" s="23" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="E114" s="29">
+      <c r="G115" s="23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="E116" s="29">
         <v>2</v>
       </c>
-      <c r="G114" s="23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="E115" s="29">
+      <c r="G116" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="E117" s="29">
         <v>3</v>
       </c>
-      <c r="G115" s="23" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="E116" s="29">
+      <c r="G117" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="N117" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="E118" s="29">
         <v>4</v>
       </c>
-      <c r="G116" s="23" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="E117" s="29">
-        <v>5</v>
-      </c>
-      <c r="G117" s="23" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B118" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C118" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="D118" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="E118" s="29">
+      <c r="G118" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B119" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="D119" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="E119" s="29">
         <v>1</v>
       </c>
-      <c r="G118" s="23" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="E119" s="29">
-        <v>2</v>
-      </c>
-      <c r="G119" s="23" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="E120" s="29">
-        <v>3</v>
-      </c>
-      <c r="G120" s="23" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="23" t="s">
         <v>76</v>
       </c>
@@ -5218,50 +5299,35 @@
         <v>77</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>148</v>
+        <v>295</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>147</v>
+        <v>296</v>
       </c>
       <c r="E121" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B122" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C122" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D122" s="23" t="s">
-        <v>149</v>
-      </c>
+      <c r="G121" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="E122" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B123" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C123" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="D123" s="23" t="s">
-        <v>151</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G122" s="23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="E123" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="G123" s="23" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="23" t="s">
         <v>76</v>
       </c>
@@ -5269,50 +5335,29 @@
         <v>77</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>153</v>
+        <v>297</v>
       </c>
       <c r="D124" s="23" t="s">
-        <v>152</v>
+        <v>298</v>
       </c>
       <c r="E124" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B125" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C125" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="D125" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="E125" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B126" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C126" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="D126" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="E126" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="G124" s="23" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="G125" s="23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="G126" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="23" t="s">
         <v>76</v>
       </c>
@@ -5320,16 +5365,16 @@
         <v>77</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="D127" s="23" t="s">
-        <v>162</v>
+        <v>294</v>
       </c>
       <c r="E127" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:14">
       <c r="A128" s="23" t="s">
         <v>76</v>
       </c>
@@ -5337,10 +5382,10 @@
         <v>77</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D128" s="23" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="E128" s="29">
         <v>1</v>
@@ -5354,10 +5399,10 @@
         <v>77</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="E129" s="29">
         <v>1</v>
@@ -5371,10 +5416,10 @@
         <v>77</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="E130" s="29">
         <v>1</v>
@@ -5388,10 +5433,10 @@
         <v>77</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="E131" s="29">
         <v>1</v>
@@ -5405,10 +5450,10 @@
         <v>77</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="E132" s="29">
         <v>1</v>
@@ -5422,10 +5467,10 @@
         <v>77</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="D133" s="23" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="E133" s="29">
         <v>1</v>
@@ -5439,10 +5484,10 @@
         <v>77</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="D134" s="23" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="E134" s="29">
         <v>1</v>
@@ -5456,10 +5501,10 @@
         <v>77</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="D135" s="23" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="E135" s="29">
         <v>1</v>
@@ -5473,10 +5518,10 @@
         <v>77</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D136" s="23" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E136" s="29">
         <v>1</v>
@@ -5490,37 +5535,106 @@
         <v>77</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="D137" s="23" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="E137" s="29">
         <v>1</v>
       </c>
     </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B138" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C138" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D138" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E138" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B139" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C139" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D139" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E139" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B140" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C140" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D140" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="E140" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B141" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C141" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D141" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E141" s="29">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5">
@@ -5560,10 +5674,10 @@
         <v>77</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -5581,10 +5695,10 @@
         <v>77</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
@@ -5648,6 +5762,7 @@
       <c r="I8" s="28"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/B01/t01.xlsx
+++ b/B01/t01.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="310">
   <si>
     <t>Version</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1071,12 +1071,28 @@
     <t>系统常量配置表</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
+  <si>
+    <t>渠道类型名称</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道类型编码</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道类型</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1346,7 +1362,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1360,7 +1376,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1434,6 +1450,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1468,6 +1485,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1643,14 +1661,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.625" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="16.625" style="2" customWidth="1" collapsed="1"/>
@@ -1664,7 +1682,7 @@
     <col min="10" max="16384" width="9" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1682,7 +1700,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1700,7 +1718,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1718,7 +1736,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1736,7 +1754,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1754,7 +1772,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1772,7 +1790,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1790,7 +1808,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1808,7 +1826,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75">
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1826,7 +1844,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="23.25">
+    <row r="10" spans="1:16" ht="23.25" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="32" t="s">
         <v>71</v>
@@ -1846,7 +1864,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="23.25">
+    <row r="11" spans="1:16" ht="23.25" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1864,7 +1882,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75">
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="6" t="s">
         <v>0</v>
@@ -1894,7 +1912,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75">
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1912,7 +1930,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75">
+    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1930,7 +1948,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75">
+    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1948,7 +1966,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75">
+    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1966,7 +1984,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75">
+    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1984,7 +2002,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75">
+    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -2002,7 +2020,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="15.75">
+    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -2020,7 +2038,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="15.75">
+    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -2038,7 +2056,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="15.75">
+    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="33" t="s">
         <v>72</v>
@@ -2058,7 +2076,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="15.75">
+    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="31" t="s">
         <v>6</v>
@@ -2078,7 +2096,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="31" t="s">
         <v>7</v>
@@ -2098,7 +2116,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="31" t="s">
         <v>8</v>
@@ -2118,7 +2136,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="31" t="s">
         <v>9</v>
@@ -2138,7 +2156,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="14.25">
+    <row r="26" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="30" t="s">
         <v>10</v>
@@ -2158,7 +2176,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="31" t="s">
         <v>11</v>
@@ -2178,7 +2196,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2196,7 +2214,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2214,7 +2232,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2232,7 +2250,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2250,7 +2268,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2268,7 +2286,7 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2286,7 +2304,7 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2304,7 +2322,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2322,7 +2340,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2340,7 +2358,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2358,7 +2376,7 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2376,7 +2394,7 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2394,7 +2412,7 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2412,7 +2430,7 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2430,7 +2448,7 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2448,7 +2466,7 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2466,7 +2484,7 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2484,7 +2502,7 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2502,7 +2520,7 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2520,7 +2538,7 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2538,7 +2556,7 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2556,7 +2574,7 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2574,7 +2592,7 @@
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2592,7 +2610,7 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2628,14 +2646,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.125" style="16" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="17.375" style="16" customWidth="1" collapsed="1"/>
@@ -2643,14 +2661,14 @@
     <col min="4" max="16384" width="9.125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
     </row>
-    <row r="2" spans="1:3" ht="16.5">
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
         <v>13</v>
       </c>
@@ -2661,7 +2679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5">
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
@@ -2672,7 +2690,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5">
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2683,7 +2701,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5">
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>16</v>
       </c>
@@ -2694,7 +2712,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5">
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
         <v>16</v>
       </c>
@@ -2705,7 +2723,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="19" customFormat="1" ht="16.5">
+    <row r="7" spans="1:3" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
         <v>16</v>
       </c>
@@ -2716,7 +2734,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="19" customFormat="1" ht="16.5">
+    <row r="8" spans="1:3" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
         <v>16</v>
       </c>
@@ -2727,7 +2745,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="19" customFormat="1" ht="16.5">
+    <row r="9" spans="1:3" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
         <v>82</v>
       </c>
@@ -2738,7 +2756,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="19" customFormat="1" ht="16.5">
+    <row r="10" spans="1:3" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
         <v>82</v>
       </c>
@@ -2749,7 +2767,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5">
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
         <v>25</v>
       </c>
@@ -2760,7 +2778,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5">
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
         <v>25</v>
       </c>
@@ -2771,7 +2789,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.5">
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
         <v>25</v>
       </c>
@@ -2782,7 +2800,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5">
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
         <v>25</v>
       </c>
@@ -2793,7 +2811,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5">
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
         <v>25</v>
       </c>
@@ -2804,7 +2822,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.5">
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
         <v>25</v>
       </c>
@@ -2815,7 +2833,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5">
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
         <v>25</v>
       </c>
@@ -2826,7 +2844,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5">
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
@@ -2837,7 +2855,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5">
+    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
         <v>25</v>
       </c>
@@ -2848,7 +2866,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5">
+    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
         <v>25</v>
       </c>
@@ -2859,7 +2877,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.5">
+    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
         <v>25</v>
       </c>
@@ -2870,7 +2888,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.5">
+    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
         <v>25</v>
       </c>
@@ -2881,7 +2899,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="33">
+    <row r="23" spans="1:3" ht="33" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
         <v>25</v>
       </c>
@@ -2892,7 +2910,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5">
+    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="18" t="s">
         <v>25</v>
       </c>
@@ -2903,7 +2921,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.5">
+    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
         <v>25</v>
       </c>
@@ -2921,14 +2939,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.875" style="23" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="16" style="23" bestFit="1" customWidth="1" collapsed="1"/>
@@ -2942,7 +2960,7 @@
     <col min="18" max="16384" width="9" style="22" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>52</v>
       </c>
@@ -2968,7 +2986,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
         <v>76</v>
       </c>
@@ -2991,7 +3009,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>76</v>
       </c>
@@ -3008,7 +3026,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
         <v>76</v>
       </c>
@@ -3025,7 +3043,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
         <v>76</v>
       </c>
@@ -3048,7 +3066,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
         <v>76</v>
       </c>
@@ -3071,7 +3089,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
         <v>76</v>
       </c>
@@ -3094,7 +3112,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
         <v>76</v>
       </c>
@@ -3117,7 +3135,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
         <v>76</v>
       </c>
@@ -3134,7 +3152,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
         <v>76</v>
       </c>
@@ -3154,7 +3172,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
         <v>76</v>
       </c>
@@ -3174,7 +3192,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
         <v>76</v>
       </c>
@@ -3194,7 +3212,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
         <v>76</v>
       </c>
@@ -3214,7 +3232,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
         <v>76</v>
       </c>
@@ -3234,7 +3252,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
         <v>76</v>
       </c>
@@ -3254,7 +3272,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
         <v>76</v>
       </c>
@@ -3274,7 +3292,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
         <v>76</v>
       </c>
@@ -3294,7 +3312,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
         <v>76</v>
       </c>
@@ -3314,7 +3332,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
         <v>76</v>
       </c>
@@ -3334,7 +3352,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
         <v>76</v>
       </c>
@@ -3354,7 +3372,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
         <v>76</v>
       </c>
@@ -3374,7 +3392,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
         <v>76</v>
       </c>
@@ -3394,7 +3412,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
         <v>76</v>
       </c>
@@ -3414,7 +3432,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
         <v>76</v>
       </c>
@@ -3434,7 +3452,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
         <v>76</v>
       </c>
@@ -3454,7 +3472,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
         <v>76</v>
       </c>
@@ -3474,7 +3492,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
         <v>76</v>
       </c>
@@ -3494,7 +3512,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
         <v>76</v>
       </c>
@@ -3514,7 +3532,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
         <v>76</v>
       </c>
@@ -3537,7 +3555,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
         <v>76</v>
       </c>
@@ -3557,7 +3575,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
         <v>76</v>
       </c>
@@ -3577,7 +3595,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
         <v>76</v>
       </c>
@@ -3597,7 +3615,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
         <v>76</v>
       </c>
@@ -3617,7 +3635,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
         <v>76</v>
       </c>
@@ -3640,7 +3658,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
         <v>76</v>
       </c>
@@ -3663,7 +3681,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="23" t="s">
         <v>76</v>
       </c>
@@ -3689,7 +3707,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="23" t="s">
         <v>76</v>
       </c>
@@ -3709,7 +3727,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="23" t="s">
         <v>76</v>
       </c>
@@ -3729,7 +3747,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="23" t="s">
         <v>76</v>
       </c>
@@ -3749,7 +3767,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="23" t="s">
         <v>76</v>
       </c>
@@ -3769,7 +3787,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="23" t="s">
         <v>76</v>
       </c>
@@ -3789,7 +3807,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="23" t="s">
         <v>76</v>
       </c>
@@ -3809,7 +3827,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="23" t="s">
         <v>76</v>
       </c>
@@ -3829,7 +3847,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="23" t="s">
         <v>76</v>
       </c>
@@ -3849,7 +3867,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
         <v>76</v>
       </c>
@@ -3869,7 +3887,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
         <v>76</v>
       </c>
@@ -3889,7 +3907,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="23" t="s">
         <v>76</v>
       </c>
@@ -3909,7 +3927,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="23" t="s">
         <v>76</v>
       </c>
@@ -3929,7 +3947,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="23" t="s">
         <v>76</v>
       </c>
@@ -3949,7 +3967,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="23" t="s">
         <v>76</v>
       </c>
@@ -3966,7 +3984,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D51" s="23" t="s">
         <v>213</v>
       </c>
@@ -3974,7 +3992,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D52" s="23" t="s">
         <v>305</v>
       </c>
@@ -3994,16 +4012,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R141"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="G95" sqref="G95:G97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="10.25" style="23" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="21.875" style="23" bestFit="1" customWidth="1" collapsed="1"/>
@@ -4023,7 +4041,7 @@
     <col min="19" max="16384" width="9" style="22" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>52</v>
       </c>
@@ -4073,7 +4091,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
         <v>76</v>
       </c>
@@ -4123,7 +4141,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E3" s="29">
         <v>2</v>
       </c>
@@ -4149,12 +4167,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G4" s="23" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G5" s="23" t="s">
         <v>180</v>
       </c>
@@ -4162,37 +4180,37 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G6" s="23" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G7" s="23" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G8" s="23" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G9" s="23" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G10" s="23" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G11" s="23" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G12" s="23" t="s">
         <v>214</v>
       </c>
@@ -4200,22 +4218,22 @@
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G13" s="23" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G14" s="23" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G15" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G16" s="23" t="s">
         <v>213</v>
       </c>
@@ -4223,7 +4241,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G17" s="23" t="s">
         <v>204</v>
       </c>
@@ -4234,42 +4252,42 @@
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G18" s="23" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G19" s="23" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G20" s="23" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G21" s="23" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G22" s="23" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G23" s="23" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G24" s="23" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
         <v>76</v>
       </c>
@@ -4310,7 +4328,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G26" s="23" t="s">
         <v>185</v>
       </c>
@@ -4327,17 +4345,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G27" s="23" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G28" s="23" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
         <v>76</v>
       </c>
@@ -4378,7 +4396,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G30" s="23" t="s">
         <v>193</v>
       </c>
@@ -4395,17 +4413,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G31" s="23" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G32" s="23" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
         <v>76</v>
       </c>
@@ -4437,132 +4455,132 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G34" s="23" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G35" s="23" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G36" s="23" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G37" s="23" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G38" s="23" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G39" s="23" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G40" s="23" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G41" s="23" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G42" s="23" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G43" s="23" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G44" s="23" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G45" s="23" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G46" s="23" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G47" s="23" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G48" s="23" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G49" s="23" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G50" s="23" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G51" s="23" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G52" s="23" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G53" s="23" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G54" s="23" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G55" s="23" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G56" s="23" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G57" s="23" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G58" s="23" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="23" t="s">
         <v>76</v>
       </c>
@@ -4582,13 +4600,13 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D60" s="29"/>
       <c r="G60" s="23" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D61" s="29"/>
       <c r="G61" s="23" t="s">
         <v>243</v>
@@ -4597,25 +4615,25 @@
         <v>205</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D62" s="29"/>
       <c r="G62" s="23" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D63" s="29"/>
       <c r="G63" s="23" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D64" s="29"/>
       <c r="G64" s="23" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="23" t="s">
         <v>76</v>
       </c>
@@ -4635,7 +4653,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D66" s="29"/>
       <c r="G66" s="23" t="s">
         <v>248</v>
@@ -4644,19 +4662,19 @@
         <v>205</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D67" s="29"/>
       <c r="G67" s="23" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D68" s="29"/>
       <c r="G68" s="23" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="23" t="s">
         <v>76</v>
       </c>
@@ -4676,19 +4694,19 @@
         <v>251</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D70" s="29"/>
       <c r="G70" s="23" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D71" s="29"/>
       <c r="G71" s="23" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="23" t="s">
         <v>76</v>
       </c>
@@ -4708,22 +4726,22 @@
         <v>251</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G73" s="23" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G74" s="23" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G75" s="23" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="23" t="s">
         <v>76</v>
       </c>
@@ -4740,7 +4758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="23" t="s">
         <v>76</v>
       </c>
@@ -4757,7 +4775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="23" t="s">
         <v>76</v>
       </c>
@@ -4774,7 +4792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="23" t="s">
         <v>76</v>
       </c>
@@ -4791,7 +4809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="23" t="s">
         <v>76</v>
       </c>
@@ -4808,7 +4826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="23" t="s">
         <v>76</v>
       </c>
@@ -4825,7 +4843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="23" t="s">
         <v>76</v>
       </c>
@@ -4842,7 +4860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="23" t="s">
         <v>76</v>
       </c>
@@ -4859,7 +4877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="23" t="s">
         <v>76</v>
       </c>
@@ -4876,7 +4894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="23" t="s">
         <v>76</v>
       </c>
@@ -4893,7 +4911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="23" t="s">
         <v>76</v>
       </c>
@@ -4910,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="23" t="s">
         <v>76</v>
       </c>
@@ -4927,7 +4945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="23" t="s">
         <v>76</v>
       </c>
@@ -4947,7 +4965,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E89" s="29">
         <v>2</v>
       </c>
@@ -4955,7 +4973,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E90" s="29">
         <v>3</v>
       </c>
@@ -4963,7 +4981,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E91" s="29">
         <v>4</v>
       </c>
@@ -4971,7 +4989,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E92" s="29">
         <v>5</v>
       </c>
@@ -4979,7 +4997,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="23" t="s">
         <v>76</v>
       </c>
@@ -4999,7 +5017,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E94" s="29">
         <v>2</v>
       </c>
@@ -5007,7 +5025,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E95" s="29">
         <v>3</v>
       </c>
@@ -5015,7 +5033,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E96" s="29">
         <v>4</v>
       </c>
@@ -5023,7 +5041,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E97" s="29">
         <v>5</v>
       </c>
@@ -5031,7 +5049,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="23" t="s">
         <v>76</v>
       </c>
@@ -5051,7 +5069,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E99" s="29">
         <v>2</v>
       </c>
@@ -5059,7 +5077,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E100" s="29">
         <v>3</v>
       </c>
@@ -5067,7 +5085,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E101" s="29">
         <v>4</v>
       </c>
@@ -5075,7 +5093,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="23" t="s">
         <v>76</v>
       </c>
@@ -5095,7 +5113,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E103" s="29">
         <v>2</v>
       </c>
@@ -5103,7 +5121,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E104" s="29">
         <v>3</v>
       </c>
@@ -5111,7 +5129,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="23" t="s">
         <v>76</v>
       </c>
@@ -5131,7 +5149,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E106" s="29">
         <v>2</v>
       </c>
@@ -5139,7 +5157,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E107" s="29">
         <v>3</v>
       </c>
@@ -5147,7 +5165,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E108" s="29">
         <v>4</v>
       </c>
@@ -5155,7 +5173,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="23" t="s">
         <v>76</v>
       </c>
@@ -5175,7 +5193,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E110" s="29">
         <v>2</v>
       </c>
@@ -5183,7 +5201,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E111" s="29">
         <v>3</v>
       </c>
@@ -5191,7 +5209,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="23" t="s">
         <v>76</v>
       </c>
@@ -5211,7 +5229,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E113" s="29">
         <v>2</v>
       </c>
@@ -5219,7 +5237,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E114" s="29">
         <v>3</v>
       </c>
@@ -5227,7 +5245,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="23" t="s">
         <v>76</v>
       </c>
@@ -5247,7 +5265,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E116" s="29">
         <v>2</v>
       </c>
@@ -5255,7 +5273,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E117" s="29">
         <v>3</v>
       </c>
@@ -5266,7 +5284,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E118" s="29">
         <v>4</v>
       </c>
@@ -5274,7 +5292,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="23" t="s">
         <v>76</v>
       </c>
@@ -5291,7 +5309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="23" t="s">
         <v>76</v>
       </c>
@@ -5311,7 +5329,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E122" s="29">
         <v>2</v>
       </c>
@@ -5319,7 +5337,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E123" s="29">
         <v>3</v>
       </c>
@@ -5327,7 +5345,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" s="23" t="s">
         <v>76</v>
       </c>
@@ -5347,17 +5365,17 @@
         <v>301</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G125" s="23" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G126" s="23" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="23" t="s">
         <v>76</v>
       </c>
@@ -5374,7 +5392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="23" t="s">
         <v>76</v>
       </c>
@@ -5391,7 +5409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="23" t="s">
         <v>76</v>
       </c>
@@ -5408,7 +5426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="23" t="s">
         <v>76</v>
       </c>
@@ -5425,7 +5443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="23" t="s">
         <v>76</v>
       </c>
@@ -5442,7 +5460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="23" t="s">
         <v>76</v>
       </c>
@@ -5459,7 +5477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="23" t="s">
         <v>76</v>
       </c>
@@ -5476,7 +5494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="23" t="s">
         <v>76</v>
       </c>
@@ -5493,7 +5511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="23" t="s">
         <v>76</v>
       </c>
@@ -5510,7 +5528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="23" t="s">
         <v>76</v>
       </c>
@@ -5527,7 +5545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="23" t="s">
         <v>76</v>
       </c>
@@ -5544,7 +5562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="23" t="s">
         <v>76</v>
       </c>
@@ -5560,55 +5578,71 @@
       <c r="E138" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B139" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C139" s="23" t="s">
+      <c r="G138" s="23" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G139" s="23" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G140" s="23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B141" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C141" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="D139" s="23" t="s">
+      <c r="D141" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="E139" s="29">
+      <c r="E141" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B140" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C140" s="23" t="s">
+      <c r="G141" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B143" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C143" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D140" s="23" t="s">
+      <c r="D143" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="E140" s="29">
+      <c r="E143" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B141" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C141" s="23" t="s">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B144" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C144" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="D141" s="23" t="s">
+      <c r="D144" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="E141" s="29">
+      <c r="E144" s="29">
         <v>1</v>
       </c>
     </row>
@@ -5619,14 +5653,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
@@ -5637,7 +5671,7 @@
     <col min="9" max="9" width="4.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>85</v>
       </c>
@@ -5666,7 +5700,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
         <v>76</v>
       </c>
@@ -5687,7 +5721,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>76</v>
       </c>
@@ -5706,7 +5740,7 @@
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -5717,7 +5751,7 @@
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -5728,7 +5762,7 @@
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -5739,7 +5773,7 @@
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="28"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -5750,7 +5784,7 @@
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>

--- a/B01/t01.xlsx
+++ b/B01/t01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="340">
   <si>
     <t>Version</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1072,38 +1072,125 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>渠道类型名称</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>渠道类型编码</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>状态</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
+    <t>渠道类型名称</t>
+  </si>
+  <si>
+    <t>渠道内容类型名称</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>创建人</t>
+  </si>
+  <si>
+    <t>渠道类型服务提供商</t>
+  </si>
+  <si>
+    <t>渠道内容名称</t>
+  </si>
+  <si>
     <t>渠道类型</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人编码</t>
+  </si>
+  <si>
+    <t>联系人名称</t>
+  </si>
+  <si>
+    <t>如果为平台用户填写</t>
+  </si>
+  <si>
+    <t>联系方式</t>
+  </si>
+  <si>
+    <t>渠道内容发送信息</t>
+  </si>
+  <si>
+    <t>发送时间</t>
+  </si>
+  <si>
+    <t>记录平台发送给联系人所有信息</t>
+  </si>
+  <si>
+    <t>T99_EDUCATION_TYPE</t>
+  </si>
+  <si>
+    <t>T99_CONFIGURATION</t>
+  </si>
+  <si>
+    <t>T01_CHEL_INFO_HIS</t>
+  </si>
+  <si>
+    <t>模块编码</t>
+  </si>
+  <si>
+    <t>模块名称</t>
+  </si>
+  <si>
+    <t>菜单编码</t>
+  </si>
+  <si>
+    <t>菜单名称</t>
+  </si>
+  <si>
+    <t>所属模块编码</t>
+  </si>
+  <si>
+    <t>角色编码</t>
+  </si>
+  <si>
+    <t>角色名称</t>
+  </si>
+  <si>
+    <t>上级模块编码</t>
+  </si>
+  <si>
+    <t>模块级次</t>
+  </si>
+  <si>
+    <t>上级菜单编码</t>
+  </si>
+  <si>
+    <t>菜单级次</t>
+  </si>
+  <si>
+    <t>联系方式类型编码</t>
+  </si>
+  <si>
+    <t>联系方式类型名称</t>
+  </si>
+  <si>
+    <t>分配金额</t>
+  </si>
+  <si>
+    <t>所属公司编码</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1193,7 +1280,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1362,7 +1449,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1376,7 +1463,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1668,21 +1755,21 @@
       <selection activeCell="B21" sqref="B21:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.625" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="17.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.5703125" style="2" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.875" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.75" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.875" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.375" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.140625" style="2" customWidth="1" collapsed="1"/>
     <col min="10" max="16384" width="9" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1700,7 +1787,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1718,7 +1805,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1736,7 +1823,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1754,7 +1841,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1772,7 +1859,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1790,7 +1877,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1808,7 +1895,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1826,7 +1913,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="15.75">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1844,7 +1931,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="23.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="23.25">
       <c r="A10" s="3"/>
       <c r="B10" s="32" t="s">
         <v>71</v>
@@ -1864,7 +1951,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="23.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" ht="23.25">
       <c r="A11" s="3"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1882,7 +1969,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" ht="15.75">
       <c r="A12" s="3"/>
       <c r="B12" s="6" t="s">
         <v>0</v>
@@ -1912,7 +1999,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" ht="15.75">
       <c r="A13" s="3"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1930,7 +2017,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" ht="15.75">
       <c r="A14" s="3"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1948,7 +2035,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" ht="15.75">
       <c r="A15" s="3"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1966,7 +2053,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="15.75">
       <c r="A16" s="3"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1984,7 +2071,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" ht="15.75">
       <c r="A17" s="3"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2002,7 +2089,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" ht="15.75">
       <c r="A18" s="3"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -2020,7 +2107,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15.75">
       <c r="A19" s="3"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -2038,7 +2125,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15.75">
       <c r="A20" s="3"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -2056,7 +2143,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" ht="15.75">
       <c r="A21" s="3"/>
       <c r="B21" s="33" t="s">
         <v>72</v>
@@ -2076,7 +2163,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" ht="15.75">
       <c r="A22" s="3"/>
       <c r="B22" s="31" t="s">
         <v>6</v>
@@ -2096,7 +2183,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16">
       <c r="A23" s="1"/>
       <c r="B23" s="31" t="s">
         <v>7</v>
@@ -2116,7 +2203,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16">
       <c r="A24" s="1"/>
       <c r="B24" s="31" t="s">
         <v>8</v>
@@ -2136,7 +2223,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16">
       <c r="A25" s="1"/>
       <c r="B25" s="31" t="s">
         <v>9</v>
@@ -2156,7 +2243,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16">
       <c r="A26" s="1"/>
       <c r="B26" s="30" t="s">
         <v>10</v>
@@ -2176,7 +2263,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16">
       <c r="A27" s="1"/>
       <c r="B27" s="31" t="s">
         <v>11</v>
@@ -2196,7 +2283,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2214,7 +2301,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2232,7 +2319,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2250,7 +2337,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2268,7 +2355,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2286,7 +2373,7 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2304,7 +2391,7 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2322,7 +2409,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2340,7 +2427,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2358,7 +2445,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2376,7 +2463,7 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2394,7 +2481,7 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2412,7 +2499,7 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2430,7 +2517,7 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2448,7 +2535,7 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2466,7 +2553,7 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2484,7 +2571,7 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2502,7 +2589,7 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2520,7 +2607,7 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:16">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2538,7 +2625,7 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2556,7 +2643,7 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2574,7 +2661,7 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:16">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2592,7 +2679,7 @@
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2610,7 +2697,7 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2653,22 +2740,22 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="16" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.375" style="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="88.125" style="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.125" style="16"/>
+    <col min="1" max="1" width="10.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.42578125" style="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="88.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="33">
       <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
     </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="16.5">
       <c r="A2" s="17" t="s">
         <v>13</v>
       </c>
@@ -2679,7 +2766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="16.5">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
@@ -2690,7 +2777,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="16.5">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2701,7 +2788,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="16.5">
       <c r="A5" s="18" t="s">
         <v>16</v>
       </c>
@@ -2712,7 +2799,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="16.5">
       <c r="A6" s="18" t="s">
         <v>16</v>
       </c>
@@ -2723,7 +2810,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" s="19" customFormat="1" ht="16.5">
       <c r="A7" s="18" t="s">
         <v>16</v>
       </c>
@@ -2734,7 +2821,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" s="19" customFormat="1" ht="16.5">
       <c r="A8" s="18" t="s">
         <v>16</v>
       </c>
@@ -2745,7 +2832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" s="19" customFormat="1" ht="16.5">
       <c r="A9" s="18" t="s">
         <v>82</v>
       </c>
@@ -2756,7 +2843,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" s="19" customFormat="1" ht="16.5">
       <c r="A10" s="18" t="s">
         <v>82</v>
       </c>
@@ -2767,7 +2854,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="16.5">
       <c r="A11" s="18" t="s">
         <v>25</v>
       </c>
@@ -2778,7 +2865,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="16.5">
       <c r="A12" s="18" t="s">
         <v>25</v>
       </c>
@@ -2789,7 +2876,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="16.5">
       <c r="A13" s="18" t="s">
         <v>25</v>
       </c>
@@ -2800,7 +2887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="16.5">
       <c r="A14" s="18" t="s">
         <v>25</v>
       </c>
@@ -2811,7 +2898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="16.5">
       <c r="A15" s="18" t="s">
         <v>25</v>
       </c>
@@ -2822,7 +2909,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="16.5">
       <c r="A16" s="18" t="s">
         <v>25</v>
       </c>
@@ -2833,7 +2920,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="16.5">
       <c r="A17" s="18" t="s">
         <v>25</v>
       </c>
@@ -2844,7 +2931,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="33">
       <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
@@ -2855,7 +2942,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="16.5">
       <c r="A19" s="18" t="s">
         <v>25</v>
       </c>
@@ -2866,7 +2953,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="16.5">
       <c r="A20" s="18" t="s">
         <v>25</v>
       </c>
@@ -2877,7 +2964,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="16.5">
       <c r="A21" s="18" t="s">
         <v>25</v>
       </c>
@@ -2888,7 +2975,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="16.5">
       <c r="A22" s="18" t="s">
         <v>25</v>
       </c>
@@ -2899,7 +2986,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="33" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="33">
       <c r="A23" s="18" t="s">
         <v>25</v>
       </c>
@@ -2910,7 +2997,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="16.5">
       <c r="A24" s="18" t="s">
         <v>25</v>
       </c>
@@ -2921,7 +3008,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="16.5">
       <c r="A25" s="18" t="s">
         <v>25</v>
       </c>
@@ -2940,27 +3027,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="23" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12.85546875" style="23" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="16" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.125" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.75" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.25" style="23" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="35.25" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="20.625" style="24" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.140625" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.7109375" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.28515625" style="23" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="35.28515625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.5703125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="24" customWidth="1" collapsed="1"/>
     <col min="9" max="17" width="9" style="22"/>
     <col min="18" max="16384" width="9" style="22" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="20" t="s">
         <v>52</v>
       </c>
@@ -2986,7 +3073,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" s="23" t="s">
         <v>76</v>
       </c>
@@ -3009,7 +3096,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="A3" s="23" t="s">
         <v>76</v>
       </c>
@@ -3026,7 +3113,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4" s="23" t="s">
         <v>76</v>
       </c>
@@ -3043,7 +3130,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="23" t="s">
         <v>76</v>
       </c>
@@ -3066,7 +3153,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="23" t="s">
         <v>76</v>
       </c>
@@ -3089,7 +3176,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="23" t="s">
         <v>76</v>
       </c>
@@ -3112,7 +3199,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="23" t="s">
         <v>76</v>
       </c>
@@ -3135,7 +3222,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" s="23" t="s">
         <v>76</v>
       </c>
@@ -3152,7 +3239,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8">
       <c r="A10" s="23" t="s">
         <v>76</v>
       </c>
@@ -3172,7 +3259,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8">
       <c r="A11" s="23" t="s">
         <v>76</v>
       </c>
@@ -3192,7 +3279,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="23" t="s">
         <v>76</v>
       </c>
@@ -3212,7 +3299,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="23" t="s">
         <v>76</v>
       </c>
@@ -3232,7 +3319,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" s="23" t="s">
         <v>76</v>
       </c>
@@ -3252,7 +3339,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" s="23" t="s">
         <v>76</v>
       </c>
@@ -3272,7 +3359,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" s="23" t="s">
         <v>76</v>
       </c>
@@ -3292,7 +3379,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8">
       <c r="A17" s="23" t="s">
         <v>76</v>
       </c>
@@ -3312,7 +3399,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8">
       <c r="A18" s="23" t="s">
         <v>76</v>
       </c>
@@ -3332,7 +3419,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8">
       <c r="A19" s="23" t="s">
         <v>76</v>
       </c>
@@ -3352,7 +3439,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8">
       <c r="A20" s="23" t="s">
         <v>76</v>
       </c>
@@ -3372,7 +3459,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8">
       <c r="A21" s="23" t="s">
         <v>76</v>
       </c>
@@ -3392,7 +3479,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8">
       <c r="A22" s="23" t="s">
         <v>76</v>
       </c>
@@ -3412,7 +3499,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8">
       <c r="A23" s="23" t="s">
         <v>76</v>
       </c>
@@ -3432,7 +3519,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8">
       <c r="A24" s="23" t="s">
         <v>76</v>
       </c>
@@ -3452,7 +3539,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8">
       <c r="A25" s="23" t="s">
         <v>76</v>
       </c>
@@ -3472,7 +3559,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8">
       <c r="A26" s="23" t="s">
         <v>76</v>
       </c>
@@ -3492,7 +3579,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8">
       <c r="A27" s="23" t="s">
         <v>76</v>
       </c>
@@ -3512,7 +3599,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8">
       <c r="A28" s="23" t="s">
         <v>76</v>
       </c>
@@ -3532,7 +3619,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8">
       <c r="A29" s="23" t="s">
         <v>76</v>
       </c>
@@ -3555,7 +3642,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8">
       <c r="A30" s="23" t="s">
         <v>76</v>
       </c>
@@ -3575,7 +3662,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8">
       <c r="A31" s="23" t="s">
         <v>76</v>
       </c>
@@ -3595,7 +3682,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8">
       <c r="A32" s="23" t="s">
         <v>76</v>
       </c>
@@ -3615,7 +3702,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8">
       <c r="A33" s="23" t="s">
         <v>76</v>
       </c>
@@ -3635,7 +3722,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8">
       <c r="A34" s="23" t="s">
         <v>76</v>
       </c>
@@ -3658,7 +3745,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8">
       <c r="A35" s="23" t="s">
         <v>76</v>
       </c>
@@ -3681,7 +3768,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8">
       <c r="A36" s="23" t="s">
         <v>76</v>
       </c>
@@ -3707,7 +3794,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8">
       <c r="A37" s="23" t="s">
         <v>76</v>
       </c>
@@ -3727,7 +3814,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8">
       <c r="A38" s="23" t="s">
         <v>76</v>
       </c>
@@ -3747,7 +3834,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8">
       <c r="A39" s="23" t="s">
         <v>76</v>
       </c>
@@ -3767,7 +3854,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8">
       <c r="A40" s="23" t="s">
         <v>76</v>
       </c>
@@ -3787,7 +3874,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8">
       <c r="A41" s="23" t="s">
         <v>76</v>
       </c>
@@ -3807,7 +3894,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8">
       <c r="A42" s="23" t="s">
         <v>76</v>
       </c>
@@ -3827,7 +3914,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8">
       <c r="A43" s="23" t="s">
         <v>76</v>
       </c>
@@ -3847,7 +3934,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8">
       <c r="A44" s="23" t="s">
         <v>76</v>
       </c>
@@ -3867,7 +3954,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8">
       <c r="A45" s="23" t="s">
         <v>76</v>
       </c>
@@ -3887,7 +3974,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8">
       <c r="A46" s="23" t="s">
         <v>76</v>
       </c>
@@ -3907,7 +3994,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8">
       <c r="A47" s="23" t="s">
         <v>76</v>
       </c>
@@ -3927,7 +4014,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8">
       <c r="A48" s="23" t="s">
         <v>76</v>
       </c>
@@ -3947,7 +4034,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8">
       <c r="A49" s="23" t="s">
         <v>76</v>
       </c>
@@ -3967,7 +4054,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8">
       <c r="A50" s="23" t="s">
         <v>76</v>
       </c>
@@ -3984,7 +4071,16 @@
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8">
+      <c r="A51" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>322</v>
+      </c>
       <c r="D51" s="23" t="s">
         <v>213</v>
       </c>
@@ -3992,12 +4088,38 @@
         <v>209</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8">
+      <c r="A52" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>323</v>
+      </c>
       <c r="D52" s="23" t="s">
         <v>305</v>
       </c>
       <c r="E52" s="23" t="s">
         <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4013,35 +4135,36 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R144"/>
+  <dimension ref="A1:R200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G95" sqref="G95:G97"/>
+      <selection pane="bottomLeft" activeCell="G134" sqref="G134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="10.25" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.875" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.375" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.875" style="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.75" style="23" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.875" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16" style="23" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.5" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.625" style="23" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="23" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.125" style="23" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="8.375" style="23" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.28515625" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.85546875" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.42578125" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.85546875" style="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.7109375" style="23" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.85546875" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.7109375" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.42578125" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.5703125" style="23" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="23" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.140625" style="23" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="8.42578125" style="23" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="15" style="23" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17.875" style="23" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.85546875" style="23" customWidth="1" collapsed="1"/>
     <col min="17" max="18" width="9" style="22"/>
     <col min="19" max="16384" width="9" style="22" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16">
       <c r="A1" s="20" t="s">
         <v>52</v>
       </c>
@@ -4091,7 +4214,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16">
       <c r="A2" s="23" t="s">
         <v>76</v>
       </c>
@@ -4141,7 +4264,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16">
       <c r="E3" s="29">
         <v>2</v>
       </c>
@@ -4167,12 +4290,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16">
       <c r="G4" s="23" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16">
       <c r="G5" s="23" t="s">
         <v>180</v>
       </c>
@@ -4180,37 +4303,37 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16">
       <c r="G6" s="23" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16">
       <c r="G7" s="23" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16">
       <c r="G8" s="23" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16">
       <c r="G9" s="23" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16">
       <c r="G10" s="23" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16">
       <c r="G11" s="23" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16">
       <c r="G12" s="23" t="s">
         <v>214</v>
       </c>
@@ -4218,22 +4341,22 @@
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16">
       <c r="G13" s="23" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16">
       <c r="G14" s="23" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16">
       <c r="G15" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16">
       <c r="G16" s="23" t="s">
         <v>213</v>
       </c>
@@ -4241,7 +4364,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16">
       <c r="G17" s="23" t="s">
         <v>204</v>
       </c>
@@ -4252,42 +4375,42 @@
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16">
       <c r="G18" s="23" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16">
       <c r="G19" s="23" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16">
       <c r="G20" s="23" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16">
       <c r="G21" s="23" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16">
       <c r="G22" s="23" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16">
       <c r="G23" s="23" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16">
       <c r="G24" s="23" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16">
       <c r="A25" s="23" t="s">
         <v>76</v>
       </c>
@@ -4328,7 +4451,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16">
       <c r="G26" s="23" t="s">
         <v>185</v>
       </c>
@@ -4345,17 +4468,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16">
       <c r="G27" s="23" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16">
       <c r="G28" s="23" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16">
       <c r="A29" s="23" t="s">
         <v>76</v>
       </c>
@@ -4396,7 +4519,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16">
       <c r="G30" s="23" t="s">
         <v>193</v>
       </c>
@@ -4413,17 +4536,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16">
       <c r="G31" s="23" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16">
       <c r="G32" s="23" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14">
       <c r="A33" s="23" t="s">
         <v>76</v>
       </c>
@@ -4455,132 +4578,132 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14">
       <c r="G34" s="23" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14">
       <c r="G35" s="23" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14">
       <c r="G36" s="23" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14">
       <c r="G37" s="23" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14">
       <c r="G38" s="23" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14">
       <c r="G39" s="23" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14">
       <c r="G40" s="23" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14">
       <c r="G41" s="23" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14">
       <c r="G42" s="23" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14">
       <c r="G43" s="23" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14">
       <c r="G44" s="23" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14">
       <c r="G45" s="23" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14">
       <c r="G46" s="23" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14">
       <c r="G47" s="23" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14">
       <c r="G48" s="23" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14">
       <c r="G49" s="23" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14">
       <c r="G50" s="23" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14">
       <c r="G51" s="23" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14">
       <c r="G52" s="23" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14">
       <c r="G53" s="23" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14">
       <c r="G54" s="23" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14">
       <c r="G55" s="23" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14">
       <c r="G56" s="23" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14">
       <c r="G57" s="23" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14">
       <c r="G58" s="23" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14">
       <c r="A59" s="23" t="s">
         <v>76</v>
       </c>
@@ -4600,13 +4723,13 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14">
       <c r="D60" s="29"/>
       <c r="G60" s="23" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14">
       <c r="D61" s="29"/>
       <c r="G61" s="23" t="s">
         <v>243</v>
@@ -4615,25 +4738,25 @@
         <v>205</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14">
       <c r="D62" s="29"/>
       <c r="G62" s="23" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14">
       <c r="D63" s="29"/>
       <c r="G63" s="23" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14">
       <c r="D64" s="29"/>
       <c r="G64" s="23" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14">
       <c r="A65" s="23" t="s">
         <v>76</v>
       </c>
@@ -4653,7 +4776,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14">
       <c r="D66" s="29"/>
       <c r="G66" s="23" t="s">
         <v>248</v>
@@ -4662,19 +4785,19 @@
         <v>205</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14">
       <c r="D67" s="29"/>
       <c r="G67" s="23" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14">
       <c r="D68" s="29"/>
       <c r="G68" s="23" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14">
       <c r="A69" s="23" t="s">
         <v>76</v>
       </c>
@@ -4694,19 +4817,19 @@
         <v>251</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14">
       <c r="D70" s="29"/>
       <c r="G70" s="23" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14">
       <c r="D71" s="29"/>
       <c r="G71" s="23" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14">
       <c r="A72" s="23" t="s">
         <v>76</v>
       </c>
@@ -4726,22 +4849,22 @@
         <v>251</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14">
       <c r="G73" s="23" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14">
       <c r="G74" s="23" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14">
       <c r="G75" s="23" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14">
       <c r="A76" s="23" t="s">
         <v>76</v>
       </c>
@@ -4758,7 +4881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14">
       <c r="A77" s="23" t="s">
         <v>76</v>
       </c>
@@ -4775,7 +4898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14">
       <c r="A78" s="23" t="s">
         <v>76</v>
       </c>
@@ -4792,7 +4915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14">
       <c r="A79" s="23" t="s">
         <v>76</v>
       </c>
@@ -4809,7 +4932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14">
       <c r="A80" s="23" t="s">
         <v>76</v>
       </c>
@@ -4826,7 +4949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7">
       <c r="A81" s="23" t="s">
         <v>76</v>
       </c>
@@ -4843,7 +4966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7">
       <c r="A82" s="23" t="s">
         <v>76</v>
       </c>
@@ -4860,7 +4983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7">
       <c r="A83" s="23" t="s">
         <v>76</v>
       </c>
@@ -4877,7 +5000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7">
       <c r="A84" s="23" t="s">
         <v>76</v>
       </c>
@@ -4894,7 +5017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7">
       <c r="A85" s="23" t="s">
         <v>76</v>
       </c>
@@ -4911,7 +5034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7">
       <c r="A86" s="23" t="s">
         <v>76</v>
       </c>
@@ -4928,7 +5051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7">
       <c r="A87" s="23" t="s">
         <v>76</v>
       </c>
@@ -4945,7 +5068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7">
       <c r="A88" s="23" t="s">
         <v>76</v>
       </c>
@@ -4965,7 +5088,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7">
       <c r="E89" s="29">
         <v>2</v>
       </c>
@@ -4973,7 +5096,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7">
       <c r="E90" s="29">
         <v>3</v>
       </c>
@@ -4981,7 +5104,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7">
       <c r="E91" s="29">
         <v>4</v>
       </c>
@@ -4989,7 +5112,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7">
       <c r="E92" s="29">
         <v>5</v>
       </c>
@@ -4997,7 +5120,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7">
       <c r="A93" s="23" t="s">
         <v>76</v>
       </c>
@@ -5017,7 +5140,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7">
       <c r="E94" s="29">
         <v>2</v>
       </c>
@@ -5025,7 +5148,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7">
       <c r="E95" s="29">
         <v>3</v>
       </c>
@@ -5033,7 +5156,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7">
       <c r="E96" s="29">
         <v>4</v>
       </c>
@@ -5041,7 +5164,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7">
       <c r="E97" s="29">
         <v>5</v>
       </c>
@@ -5049,7 +5172,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7">
       <c r="A98" s="23" t="s">
         <v>76</v>
       </c>
@@ -5069,7 +5192,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7">
       <c r="E99" s="29">
         <v>2</v>
       </c>
@@ -5077,7 +5200,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7">
       <c r="E100" s="29">
         <v>3</v>
       </c>
@@ -5085,7 +5208,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7">
       <c r="E101" s="29">
         <v>4</v>
       </c>
@@ -5093,7 +5216,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7">
       <c r="A102" s="23" t="s">
         <v>76</v>
       </c>
@@ -5113,7 +5236,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7">
       <c r="E103" s="29">
         <v>2</v>
       </c>
@@ -5121,7 +5244,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7">
       <c r="E104" s="29">
         <v>3</v>
       </c>
@@ -5129,389 +5252,319 @@
         <v>268</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B105" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C105" s="23" t="s">
+    <row r="105" spans="1:7">
+      <c r="E105" s="29">
+        <v>4</v>
+      </c>
+      <c r="G105" s="23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B106" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C106" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="D105" s="23" t="s">
+      <c r="D106" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="E105" s="29">
+      <c r="E106" s="29">
         <v>1</v>
       </c>
-      <c r="G105" s="23" t="s">
+      <c r="G106" s="23" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E106" s="29">
+    <row r="107" spans="1:7">
+      <c r="E107" s="29">
         <v>2</v>
       </c>
-      <c r="G106" s="23" t="s">
+      <c r="G107" s="23" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E107" s="29">
+    <row r="108" spans="1:7">
+      <c r="E108" s="29">
         <v>3</v>
       </c>
-      <c r="G107" s="23" t="s">
+      <c r="G108" s="23" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E108" s="29">
+    <row r="109" spans="1:7">
+      <c r="E109" s="29">
         <v>4</v>
       </c>
-      <c r="G108" s="23" t="s">
+      <c r="G109" s="23" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B109" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C109" s="23" t="s">
+    <row r="110" spans="1:7">
+      <c r="A110" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B110" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C110" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D109" s="23" t="s">
+      <c r="D110" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="E109" s="29">
+      <c r="E110" s="29">
         <v>1</v>
       </c>
-      <c r="G109" s="23" t="s">
+      <c r="G110" s="23" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E110" s="29">
+    <row r="111" spans="1:7">
+      <c r="E111" s="29">
         <v>2</v>
       </c>
-      <c r="G110" s="23" t="s">
+      <c r="G111" s="23" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E111" s="29">
+    <row r="112" spans="1:7">
+      <c r="E112" s="29">
         <v>3</v>
       </c>
-      <c r="G111" s="23" t="s">
+      <c r="G112" s="23" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B112" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C112" s="23" t="s">
+    <row r="113" spans="1:14">
+      <c r="A113" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C113" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D112" s="23" t="s">
+      <c r="D113" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="E112" s="29">
+      <c r="E113" s="29">
         <v>1</v>
       </c>
-      <c r="G112" s="23" t="s">
+      <c r="G113" s="23" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E113" s="29">
+    <row r="114" spans="1:14">
+      <c r="E114" s="29">
         <v>2</v>
       </c>
-      <c r="G113" s="23" t="s">
+      <c r="G114" s="23" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E114" s="29">
+    <row r="115" spans="1:14">
+      <c r="E115" s="29">
         <v>3</v>
       </c>
-      <c r="G114" s="23" t="s">
+      <c r="G115" s="23" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A115" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B115" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C115" s="23" t="s">
+    <row r="116" spans="1:14">
+      <c r="A116" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B116" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C116" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="D115" s="23" t="s">
+      <c r="D116" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="E115" s="29">
+      <c r="E116" s="29">
         <v>1</v>
       </c>
-      <c r="G115" s="23" t="s">
+      <c r="G116" s="23" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E116" s="29">
+    <row r="117" spans="1:14">
+      <c r="E117" s="29">
         <v>2</v>
       </c>
-      <c r="G116" s="23" t="s">
+      <c r="G117" s="23" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E117" s="29">
+    <row r="118" spans="1:14">
+      <c r="E118" s="29">
         <v>3</v>
       </c>
-      <c r="G117" s="23" t="s">
+      <c r="G118" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="N117" s="23" t="s">
+      <c r="N118" s="23" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E118" s="29">
+    <row r="119" spans="1:14">
+      <c r="E119" s="29">
         <v>4</v>
       </c>
-      <c r="G118" s="23" t="s">
+      <c r="G119" s="23" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A119" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B119" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C119" s="23" t="s">
+    <row r="120" spans="1:14">
+      <c r="A120" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B120" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C120" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="D119" s="23" t="s">
+      <c r="D120" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="E119" s="29">
+      <c r="E120" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A121" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B121" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C121" s="23" t="s">
+      <c r="G120" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="G121" s="23" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="G122" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C123" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="D121" s="23" t="s">
+      <c r="D123" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="E121" s="29">
+      <c r="E123" s="29">
         <v>1</v>
       </c>
-      <c r="G121" s="23" t="s">
+      <c r="G123" s="23" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E122" s="29">
+    <row r="124" spans="1:14">
+      <c r="E124" s="29">
         <v>2</v>
       </c>
-      <c r="G122" s="23" t="s">
+      <c r="G124" s="23" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E123" s="29">
+    <row r="125" spans="1:14">
+      <c r="E125" s="29">
         <v>3</v>
       </c>
-      <c r="G123" s="23" t="s">
+      <c r="G125" s="23" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A124" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B124" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C124" s="23" t="s">
+    <row r="126" spans="1:14">
+      <c r="A126" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B126" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C126" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="D124" s="23" t="s">
+      <c r="D126" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="E124" s="29">
+      <c r="E126" s="29">
         <v>1</v>
       </c>
-      <c r="G124" s="23" t="s">
+      <c r="G126" s="23" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G125" s="23" t="s">
+    <row r="127" spans="1:14">
+      <c r="G127" s="23" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="G126" s="23" t="s">
+    <row r="128" spans="1:14">
+      <c r="G128" s="23" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A127" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B127" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C127" s="23" t="s">
+    <row r="129" spans="1:7">
+      <c r="A129" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B129" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C129" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="D127" s="23" t="s">
+      <c r="D129" s="23" t="s">
         <v>294</v>
-      </c>
-      <c r="E127" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A128" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B128" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C128" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="D128" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="E128" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B129" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C129" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D129" s="23" t="s">
-        <v>141</v>
       </c>
       <c r="E129" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B130" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C130" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D130" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="E130" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B131" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C131" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="D131" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="E131" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B132" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C132" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="D132" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="E132" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B133" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C133" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="D133" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="E133" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B134" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C134" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="D134" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="E134" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G129" s="23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="G130" s="23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="G131" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="G132" s="23" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="G133" s="23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="G134" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="23" t="s">
         <v>76</v>
       </c>
@@ -5519,16 +5572,16 @@
         <v>77</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D135" s="23" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="E135" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7">
       <c r="A136" s="23" t="s">
         <v>76</v>
       </c>
@@ -5536,16 +5589,16 @@
         <v>77</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="D136" s="23" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="E136" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7">
       <c r="A137" s="23" t="s">
         <v>76</v>
       </c>
@@ -5553,16 +5606,16 @@
         <v>77</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="D137" s="23" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E137" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7">
       <c r="A138" s="23" t="s">
         <v>76</v>
       </c>
@@ -5570,80 +5623,494 @@
         <v>77</v>
       </c>
       <c r="C138" s="23" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D138" s="23" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E138" s="29">
         <v>1</v>
       </c>
-      <c r="G138" s="23" t="s">
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B139" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C139" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D139" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E139" s="29">
+        <v>1</v>
+      </c>
+      <c r="G139" s="23" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="G140" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="G141" s="23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="G142" s="23" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="G143" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="G144" s="23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="G145" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B146" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C146" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D146" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="E146" s="29">
+        <v>1</v>
+      </c>
+      <c r="G146" s="23" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="G147" s="23" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="G148" s="23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="G149" s="23" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="G150" s="23" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="G151" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="G152" s="23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="G153" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B154" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C154" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D154" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="E154" s="29">
+        <v>1</v>
+      </c>
+      <c r="G154" s="23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="G155" s="23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="G156" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="G157" s="23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="G158" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B159" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C159" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D159" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="E159" s="29">
+        <v>1</v>
+      </c>
+      <c r="G159" s="23" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="G160" s="23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="G161" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="G162" s="23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="G163" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B164" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C164" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D164" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E164" s="29">
+        <v>1</v>
+      </c>
+      <c r="G164" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="G165" s="23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="G166" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="G167" s="23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="G168" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B169" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C169" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D169" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="E169" s="29">
+        <v>1</v>
+      </c>
+      <c r="G169" s="23" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="G170" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="G171" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="G172" s="23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="G173" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B174" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C174" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D174" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E174" s="29">
+        <v>1</v>
+      </c>
+      <c r="G174" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="G175" s="23" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="G176" s="23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="G177" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="G178" s="23" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="G179" s="23" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G139" s="23" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G140" s="23" t="s">
+    <row r="180" spans="1:8">
+      <c r="A180" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B180" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C180" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D180" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E180" s="29">
+        <v>1</v>
+      </c>
+      <c r="G180" s="23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="G181" s="23" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B141" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C141" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D141" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="E141" s="29">
+    <row r="182" spans="1:8">
+      <c r="G182" s="23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="G183" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="G184" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B185" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C185" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D185" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="E185" s="29">
         <v>1</v>
       </c>
-      <c r="G141" s="23" t="s">
+      <c r="G185" s="23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="G186" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="G187" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="G188" s="23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="G189" s="23" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A143" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B143" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C143" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="D143" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="E143" s="29">
+    <row r="190" spans="1:8">
+      <c r="A190" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B190" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C190" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D190" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E190" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B144" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C144" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="D144" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="E144" s="29">
+      <c r="G190" s="23" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="G191" s="23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="G192" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H192" s="23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="G193" s="23" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B194" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C194" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="D194" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="E194" s="29">
         <v>1</v>
+      </c>
+      <c r="G194" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="H194" s="23" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="G195" s="23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="G196" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="G197" s="23" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="G198" s="23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="G199" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="G200" s="23" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -5657,21 +6124,21 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="25" t="s">
         <v>85</v>
       </c>
@@ -5700,7 +6167,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="23" t="s">
         <v>76</v>
       </c>
@@ -5721,7 +6188,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="23" t="s">
         <v>76</v>
       </c>
@@ -5740,29 +6207,45 @@
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+    <row r="4" spans="1:9" ht="16.5">
+      <c r="A4" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>213</v>
+      </c>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+    <row r="5" spans="1:9" ht="16.5">
+      <c r="A5" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>305</v>
+      </c>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -5773,7 +6256,7 @@
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="28"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -5784,7 +6267,7 @@
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>

--- a/B01/t01.xlsx
+++ b/B01/t01.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="3"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="349">
   <si>
     <t>Version</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1174,23 +1174,59 @@
   <si>
     <t>所属公司编码</t>
   </si>
+  <si>
+    <t>返佣信息</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>T01_FEE_COST</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史表</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历编码</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历路径</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位要求信息</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历进度更新时间</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位编码</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1280,7 +1316,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1463,7 +1499,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1537,7 +1573,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1572,7 +1607,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1748,24 +1782,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="17.625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.625" style="2" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.875" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.375" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.75" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.875" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.375" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.125" style="2" customWidth="1" collapsed="1"/>
     <col min="10" max="16384" width="9" style="2" collapsed="1"/>
   </cols>
   <sheetData>
@@ -2243,7 +2277,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" ht="14.25">
       <c r="A26" s="1"/>
       <c r="B26" s="30" t="s">
         <v>10</v>
@@ -2733,22 +2767,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="16" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.42578125" style="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="88.140625" style="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="10.125" style="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.375" style="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="88.125" style="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="33">
+    <row r="1" spans="1:3" ht="16.5">
       <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
@@ -2931,7 +2965,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="33">
+    <row r="18" spans="1:3" ht="16.5">
       <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
@@ -3026,23 +3060,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:C52"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="23" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12.875" style="23" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="16" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.140625" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.7109375" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.28515625" style="23" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="35.28515625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.5703125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="24" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.125" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.75" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.25" style="23" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="35.25" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="20.625" style="24" customWidth="1" collapsed="1"/>
     <col min="9" max="17" width="9" style="22"/>
     <col min="18" max="16384" width="9" style="22" collapsed="1"/>
   </cols>
@@ -3730,13 +3764,13 @@
         <v>77</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>143</v>
+        <v>341</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>140</v>
+        <v>340</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>99</v>
+        <v>342</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>145</v>
@@ -4070,6 +4104,9 @@
       <c r="E50" s="23" t="s">
         <v>209</v>
       </c>
+      <c r="H50" s="24" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="23" t="s">
@@ -4087,6 +4124,9 @@
       <c r="E51" s="23" t="s">
         <v>209</v>
       </c>
+      <c r="H51" s="24" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="23" t="s">
@@ -4104,6 +4144,9 @@
       <c r="E52" s="23" t="s">
         <v>209</v>
       </c>
+      <c r="H52" s="24" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="23" t="s">
@@ -4120,6 +4163,14 @@
       </c>
       <c r="E53" s="23" t="s">
         <v>99</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="D54" s="23" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -4134,32 +4185,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R200"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R205"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G134" sqref="G134"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.85546875" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.42578125" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.85546875" style="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.7109375" style="23" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.85546875" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.7109375" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.42578125" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.5703125" style="23" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="23" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.140625" style="23" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="8.42578125" style="23" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.25" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.375" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.875" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.375" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.875" style="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.75" style="23" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.875" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.75" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.375" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="23" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.125" style="23" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="8.375" style="23" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="15" style="23" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17.85546875" style="23" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.875" style="23" customWidth="1" collapsed="1"/>
     <col min="17" max="18" width="9" style="22"/>
     <col min="19" max="16384" width="9" style="22" collapsed="1"/>
   </cols>
@@ -4830,55 +4881,44 @@
       </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" s="23" t="s">
+      <c r="D72" s="29"/>
+      <c r="G72" s="23" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="D72" s="23" t="s">
+      <c r="D73" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="E72" s="29">
+      <c r="E73" s="29">
         <v>1</v>
       </c>
-      <c r="G72" s="23" t="s">
+      <c r="G73" s="23" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="G73" s="23" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="G74" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="G75" s="23" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="G76" s="23" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C76" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D76" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E76" s="29">
-        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4889,81 +4929,21 @@
         <v>77</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E77" s="29">
         <v>1</v>
       </c>
+      <c r="G77" s="23" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C78" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D78" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E78" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B79" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="D79" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E79" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="A80" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B80" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C80" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D80" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E80" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B81" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C81" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="D81" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="E81" s="29">
-        <v>1</v>
+      <c r="G78" s="23" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -4974,10 +4954,10 @@
         <v>77</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E82" s="29">
         <v>1</v>
@@ -4991,10 +4971,10 @@
         <v>77</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E83" s="29">
         <v>1</v>
@@ -5008,10 +4988,10 @@
         <v>77</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E84" s="29">
         <v>1</v>
@@ -5025,10 +5005,10 @@
         <v>77</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E85" s="29">
         <v>1</v>
@@ -5042,10 +5022,10 @@
         <v>77</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E86" s="29">
         <v>1</v>
@@ -5059,10 +5039,10 @@
         <v>77</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E87" s="29">
         <v>1</v>
@@ -5076,48 +5056,81 @@
         <v>77</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E88" s="29">
         <v>1</v>
       </c>
-      <c r="G88" s="23" t="s">
-        <v>251</v>
-      </c>
     </row>
     <row r="89" spans="1:7">
+      <c r="A89" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D89" s="23" t="s">
+        <v>108</v>
+      </c>
       <c r="E89" s="29">
-        <v>2</v>
-      </c>
-      <c r="G89" s="23" t="s">
-        <v>259</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:7">
+      <c r="A90" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D90" s="23" t="s">
+        <v>109</v>
+      </c>
       <c r="E90" s="29">
-        <v>3</v>
-      </c>
-      <c r="G90" s="23" t="s">
-        <v>247</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:7">
+      <c r="A91" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B91" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D91" s="23" t="s">
+        <v>110</v>
+      </c>
       <c r="E91" s="29">
-        <v>4</v>
-      </c>
-      <c r="G91" s="23" t="s">
-        <v>260</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:7">
+      <c r="A92" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D92" s="23" t="s">
+        <v>111</v>
+      </c>
       <c r="E92" s="29">
-        <v>5</v>
-      </c>
-      <c r="G92" s="23" t="s">
-        <v>281</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -5128,16 +5141,16 @@
         <v>77</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>279</v>
+        <v>126</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>280</v>
+        <v>125</v>
       </c>
       <c r="E93" s="29">
         <v>1</v>
       </c>
       <c r="G93" s="23" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -5145,7 +5158,7 @@
         <v>2</v>
       </c>
       <c r="G94" s="23" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -5153,7 +5166,7 @@
         <v>3</v>
       </c>
       <c r="G95" s="23" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -5161,7 +5174,7 @@
         <v>4</v>
       </c>
       <c r="G96" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -5169,7 +5182,7 @@
         <v>5</v>
       </c>
       <c r="G97" s="23" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -5180,16 +5193,16 @@
         <v>77</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>130</v>
+        <v>279</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>129</v>
+        <v>280</v>
       </c>
       <c r="E98" s="29">
         <v>1</v>
       </c>
       <c r="G98" s="23" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -5197,7 +5210,7 @@
         <v>2</v>
       </c>
       <c r="G99" s="23" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -5205,7 +5218,7 @@
         <v>3</v>
       </c>
       <c r="G100" s="23" t="s">
-        <v>265</v>
+        <v>348</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -5213,553 +5226,562 @@
         <v>4</v>
       </c>
       <c r="G101" s="23" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B102" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C102" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="D102" s="23" t="s">
-        <v>132</v>
-      </c>
       <c r="E102" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B103" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C103" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D103" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E103" s="29">
         <v>1</v>
       </c>
-      <c r="G102" s="23" t="s">
+      <c r="G103" s="23" t="s">
         <v>259</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="E103" s="29">
-        <v>2</v>
-      </c>
-      <c r="G103" s="23" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="E104" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G104" s="23" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="E105" s="29">
+        <v>3</v>
+      </c>
+      <c r="G105" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="E106" s="29">
         <v>4</v>
       </c>
-      <c r="G105" s="23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B106" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C106" s="23" t="s">
+      <c r="G106" s="23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C107" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="D106" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="E106" s="29">
+      <c r="D107" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E107" s="29">
         <v>1</v>
       </c>
-      <c r="G106" s="23" t="s">
+      <c r="G107" s="23" t="s">
         <v>259</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="E107" s="29">
-        <v>2</v>
-      </c>
-      <c r="G107" s="23" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="E108" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G108" s="23" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="E109" s="29">
+        <v>3</v>
+      </c>
+      <c r="G109" s="23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="E110" s="29">
         <v>4</v>
       </c>
-      <c r="G109" s="23" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B110" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C110" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D110" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="E110" s="29">
+      <c r="G110" s="23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B111" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C111" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D111" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="E111" s="29">
         <v>1</v>
       </c>
-      <c r="G110" s="23" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="E111" s="29">
-        <v>2</v>
-      </c>
       <c r="G111" s="23" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="E112" s="29">
+        <v>2</v>
+      </c>
+      <c r="G112" s="23" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="E113" s="29">
         <v>3</v>
       </c>
-      <c r="G112" s="23" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14">
-      <c r="A113" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B113" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C113" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="D113" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="E113" s="29">
-        <v>1</v>
-      </c>
       <c r="G113" s="23" t="s">
-        <v>177</v>
+        <v>257</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="E114" s="29">
+        <v>4</v>
+      </c>
+      <c r="G114" s="23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B115" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D115" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E115" s="29">
+        <v>1</v>
+      </c>
+      <c r="G115" s="23" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="E116" s="29">
         <v>2</v>
       </c>
-      <c r="G114" s="23" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14">
-      <c r="E115" s="29">
-        <v>3</v>
-      </c>
-      <c r="G115" s="23" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
-      <c r="A116" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B116" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C116" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="D116" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="E116" s="29">
-        <v>1</v>
-      </c>
       <c r="G116" s="23" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
     </row>
     <row r="117" spans="1:14">
       <c r="E117" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G117" s="23" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="118" spans="1:14">
+      <c r="A118" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C118" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D118" s="23" t="s">
+        <v>135</v>
+      </c>
       <c r="E118" s="29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G118" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="N118" s="23" t="s">
-        <v>292</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119" spans="1:14">
       <c r="E119" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G119" s="23" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="120" spans="1:14">
-      <c r="A120" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B120" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C120" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="D120" s="23" t="s">
+      <c r="E120" s="29">
+        <v>3</v>
+      </c>
+      <c r="G120" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B121" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D121" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="E121" s="29">
+        <v>1</v>
+      </c>
+      <c r="G121" s="23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="E122" s="29">
+        <v>2</v>
+      </c>
+      <c r="G122" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="E123" s="29">
+        <v>3</v>
+      </c>
+      <c r="G123" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="E120" s="29">
-        <v>1</v>
-      </c>
-      <c r="G120" s="23" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
-      <c r="G121" s="23" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14">
-      <c r="G122" s="23" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14">
-      <c r="A123" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B123" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C123" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="D123" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="E123" s="29">
-        <v>1</v>
-      </c>
-      <c r="G123" s="23" t="s">
-        <v>299</v>
+      <c r="N123" s="23" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="E124" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G124" s="23" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="125" spans="1:14">
+      <c r="A125" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B125" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="D125" s="23" t="s">
+        <v>291</v>
+      </c>
       <c r="E125" s="29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G125" s="23" t="s">
-        <v>271</v>
+        <v>336</v>
       </c>
     </row>
     <row r="126" spans="1:14">
-      <c r="A126" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B126" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C126" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="D126" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="E126" s="29">
-        <v>1</v>
-      </c>
       <c r="G126" s="23" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
     </row>
     <row r="127" spans="1:14">
       <c r="G127" s="23" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="128" spans="1:14">
+      <c r="A128" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B128" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C128" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="D128" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="E128" s="29">
+        <v>1</v>
+      </c>
       <c r="G128" s="23" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B129" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C129" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="D129" s="23" t="s">
-        <v>294</v>
-      </c>
       <c r="E129" s="29">
+        <v>2</v>
+      </c>
+      <c r="G129" s="23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="E130" s="29">
+        <v>3</v>
+      </c>
+      <c r="G130" s="23" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B131" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C131" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="D131" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="E131" s="29">
         <v>1</v>
       </c>
-      <c r="G129" s="23" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="G130" s="23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
       <c r="G131" s="23" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="G132" s="23" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="G133" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B134" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C134" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D134" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="E134" s="29">
+        <v>1</v>
+      </c>
+      <c r="G134" s="23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="G135" s="23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="G136" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="G137" s="23" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="G138" s="23" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
-      <c r="G134" s="23" t="s">
+    <row r="139" spans="1:7">
+      <c r="G139" s="23" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B135" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C135" s="23" t="s">
+    <row r="140" spans="1:7">
+      <c r="A140" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B140" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C140" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="D135" s="23" t="s">
+      <c r="D140" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="E135" s="29">
+      <c r="E140" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B136" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C136" s="23" t="s">
+    <row r="141" spans="1:7">
+      <c r="A141" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B141" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C141" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D136" s="23" t="s">
+      <c r="D141" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="E136" s="29">
+      <c r="E141" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B137" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C137" s="23" t="s">
+    <row r="142" spans="1:7">
+      <c r="A142" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B142" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C142" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="D137" s="23" t="s">
+      <c r="D142" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="E137" s="29">
+      <c r="E142" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
-      <c r="A138" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B138" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C138" s="23" t="s">
+    <row r="143" spans="1:7">
+      <c r="A143" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B143" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C143" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="D138" s="23" t="s">
+      <c r="D143" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E138" s="29">
+      <c r="E143" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B139" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C139" s="23" t="s">
+    <row r="144" spans="1:7">
+      <c r="A144" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B144" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C144" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="D139" s="23" t="s">
+      <c r="D144" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="E139" s="29">
+      <c r="E144" s="29">
         <v>1</v>
       </c>
-      <c r="G139" s="23" t="s">
+      <c r="G144" s="23" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="G140" s="23" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="G141" s="23" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="G142" s="23" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="G143" s="23" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="G144" s="23" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="G145" s="23" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B146" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C146" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="D146" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="E146" s="29">
-        <v>1</v>
-      </c>
       <c r="G146" s="23" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="G147" s="23" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="G148" s="23" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="G149" s="23" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="G150" s="23" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
     </row>
     <row r="151" spans="1:7">
+      <c r="A151" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B151" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C151" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D151" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="E151" s="29">
+        <v>1</v>
+      </c>
       <c r="G151" s="23" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="G152" s="23" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="G153" s="23" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B154" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C154" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="D154" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="E154" s="29">
-        <v>1</v>
-      </c>
       <c r="G154" s="23" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="G155" s="23" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5785,21 +5807,21 @@
         <v>77</v>
       </c>
       <c r="C159" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D159" s="23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E159" s="29">
         <v>1</v>
       </c>
       <c r="G159" s="23" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="G160" s="23" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5825,16 +5847,16 @@
         <v>77</v>
       </c>
       <c r="C164" s="23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D164" s="23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E164" s="29">
         <v>1</v>
       </c>
       <c r="G164" s="23" t="s">
-        <v>177</v>
+        <v>327</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5865,21 +5887,21 @@
         <v>77</v>
       </c>
       <c r="C169" s="23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D169" s="23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E169" s="29">
         <v>1</v>
       </c>
       <c r="G169" s="23" t="s">
-        <v>327</v>
+        <v>177</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="G170" s="23" t="s">
-        <v>177</v>
+        <v>330</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5905,124 +5927,124 @@
         <v>77</v>
       </c>
       <c r="C174" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D174" s="23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E174" s="29">
         <v>1</v>
       </c>
       <c r="G174" s="23" t="s">
-        <v>261</v>
+        <v>327</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="G175" s="23" t="s">
-        <v>307</v>
+        <v>177</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="G176" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="G177" s="23" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
-      <c r="G177" s="23" t="s">
+    <row r="178" spans="1:7">
+      <c r="G178" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B179" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C179" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D179" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E179" s="29">
+        <v>1</v>
+      </c>
+      <c r="G179" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="G180" s="23" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="G181" s="23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="G182" s="23" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
-      <c r="G178" s="23" t="s">
+    <row r="183" spans="1:7">
+      <c r="G183" s="23" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
-      <c r="G179" s="23" t="s">
+    <row r="184" spans="1:7">
+      <c r="G184" s="23" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
-      <c r="A180" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B180" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C180" s="23" t="s">
+    <row r="185" spans="1:7">
+      <c r="A185" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B185" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C185" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="D180" s="23" t="s">
+      <c r="D185" s="23" t="s">
         <v>166</v>
-      </c>
-      <c r="E180" s="29">
-        <v>1</v>
-      </c>
-      <c r="G180" s="23" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="G181" s="23" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="G182" s="23" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="G183" s="23" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="G184" s="23" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
-      <c r="A185" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B185" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C185" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="D185" s="23" t="s">
-        <v>169</v>
       </c>
       <c r="E185" s="29">
         <v>1</v>
       </c>
       <c r="G185" s="23" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="G186" s="23" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="G187" s="23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="G188" s="23" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
-      <c r="G188" s="23" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:7">
       <c r="G189" s="23" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:7">
       <c r="A190" s="23" t="s">
         <v>76</v>
       </c>
@@ -6030,86 +6052,126 @@
         <v>77</v>
       </c>
       <c r="C190" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D190" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E190" s="29">
         <v>1</v>
       </c>
       <c r="G190" s="23" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="G191" s="23" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="G192" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="H192" s="23" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="G193" s="23" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="194" spans="1:8">
-      <c r="A194" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B194" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C194" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="D194" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="E194" s="29">
+      <c r="G194" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B195" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C195" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D195" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E195" s="29">
         <v>1</v>
       </c>
-      <c r="G194" s="23" t="s">
+      <c r="G195" s="23" t="s">
         <v>314</v>
-      </c>
-      <c r="H194" s="23" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
-      <c r="G195" s="23" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="G196" s="23" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="G197" s="23" t="s">
-        <v>318</v>
+        <v>315</v>
+      </c>
+      <c r="H197" s="23" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="G198" s="23" t="s">
-        <v>263</v>
+        <v>318</v>
       </c>
     </row>
     <row r="199" spans="1:8">
+      <c r="A199" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B199" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C199" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="D199" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="E199" s="29">
+        <v>1</v>
+      </c>
       <c r="G199" s="23" t="s">
-        <v>313</v>
+        <v>314</v>
+      </c>
+      <c r="H199" s="23" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="G200" s="23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="G201" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="G202" s="23" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="G203" s="23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="G204" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="G205" s="23" t="s">
         <v>320</v>
       </c>
     </row>
@@ -6120,22 +6182,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5">

--- a/B01/t01.xlsx
+++ b/B01/t01.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,15 @@
     <sheet name="字段信息" sheetId="4" r:id="rId4"/>
     <sheet name="代码信息" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">字段信息!$A$1:$R$176</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="474">
   <si>
     <t>Version</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -492,9 +495,6 @@
     <t>T01_RESUME_OTHER</t>
   </si>
   <si>
-    <t>T01_RESUME_HUNTER</t>
-  </si>
-  <si>
     <t>简历职位推荐信息</t>
   </si>
   <si>
@@ -750,9 +750,6 @@
     <t>参数表</t>
   </si>
   <si>
-    <t>中文名称</t>
-  </si>
-  <si>
     <t>证件类型代码</t>
   </si>
   <si>
@@ -774,9 +771,6 @@
     <t>体重（kg）</t>
   </si>
   <si>
-    <t>是否激活</t>
-  </si>
-  <si>
     <t>组织机构代码</t>
   </si>
   <si>
@@ -849,24 +843,9 @@
     <t>联系邮政编码</t>
   </si>
   <si>
-    <t>关系类型</t>
-  </si>
-  <si>
-    <t>关系开始时间</t>
-  </si>
-  <si>
-    <t>关系结束时间</t>
-  </si>
-  <si>
-    <t>关系描述</t>
-  </si>
-  <si>
     <t>推荐人编码</t>
   </si>
   <si>
-    <t>关联人类型</t>
-  </si>
-  <si>
     <t>关联人编码</t>
   </si>
   <si>
@@ -916,9 +895,6 @@
   </si>
   <si>
     <t>通知面试数目</t>
-  </si>
-  <si>
-    <t>入职数目</t>
   </si>
   <si>
     <t>职位名称</t>
@@ -1004,10 +980,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>联系方式</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>联系人姓名</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -1016,10 +988,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>Y</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>T01_JOB_CONTACTER_TYPE</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -1097,9 +1065,6 @@
     <t>渠道内容名称</t>
   </si>
   <si>
-    <t>渠道类型</t>
-  </si>
-  <si>
     <t>联系人编码</t>
   </si>
   <si>
@@ -1167,9 +1132,6 @@
   </si>
   <si>
     <t>联系方式类型名称</t>
-  </si>
-  <si>
-    <t>分配金额</t>
   </si>
   <si>
     <t>所属公司编码</t>
@@ -1207,26 +1169,439 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>职位编码</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <t>返佣金额</t>
+  </si>
+  <si>
+    <t>返佣时间</t>
+  </si>
+  <si>
+    <t>合作人编码</t>
+  </si>
+  <si>
+    <t>支付方式</t>
+  </si>
+  <si>
+    <t>推荐人支付方式</t>
+  </si>
+  <si>
+    <t>推荐人支付账号</t>
+  </si>
+  <si>
+    <t>合作人支付方式</t>
+  </si>
+  <si>
+    <t>合作人账号</t>
+  </si>
+  <si>
+    <t>用户类型</t>
+  </si>
+  <si>
+    <t>支付账号</t>
+  </si>
+  <si>
+    <t>推荐人分配金额</t>
+  </si>
+  <si>
+    <t>合作人分配金额</t>
+  </si>
+  <si>
+    <t>计算时间</t>
+  </si>
+  <si>
+    <t>公司支付方式</t>
+  </si>
+  <si>
+    <t>公司支付金额</t>
+  </si>
+  <si>
+    <t>佣金收入金额</t>
+  </si>
+  <si>
+    <t>支付时间</t>
+  </si>
+  <si>
+    <t>公司支付账号</t>
+  </si>
+  <si>
+    <t>所属公司名称</t>
+  </si>
+  <si>
+    <t>推荐人名称</t>
+  </si>
+  <si>
+    <t>合作人名称</t>
+  </si>
+  <si>
+    <t>评价结果</t>
+  </si>
+  <si>
+    <t>评价人编码</t>
+  </si>
+  <si>
+    <t>评价时间</t>
+  </si>
+  <si>
+    <t>评价人数</t>
+  </si>
+  <si>
+    <t>最高评价结果</t>
+  </si>
+  <si>
+    <t>最低评价结果</t>
+  </si>
+  <si>
+    <t>汇总时间</t>
+  </si>
+  <si>
+    <t>如果是平台用户填写</t>
+  </si>
+  <si>
+    <t>删除时间</t>
+  </si>
+  <si>
+    <t>职位状态</t>
+  </si>
+  <si>
+    <t>收藏状态</t>
+  </si>
+  <si>
+    <t>职位投递信息</t>
+  </si>
+  <si>
+    <t>T01_JOB_SEND</t>
+  </si>
+  <si>
+    <t>投递时间</t>
+  </si>
+  <si>
+    <t>待定</t>
+  </si>
+  <si>
+    <t>T01_USER_RESUME</t>
+  </si>
+  <si>
+    <t>用户简历关系信息</t>
+  </si>
+  <si>
+    <t>修改人名称</t>
+  </si>
+  <si>
+    <t>修改原因</t>
+  </si>
+  <si>
+    <t>注销时间</t>
+  </si>
+  <si>
+    <t>上次登录时间</t>
+  </si>
+  <si>
+    <t>密码状态</t>
+  </si>
+  <si>
+    <t>上次密码修改时间</t>
+  </si>
+  <si>
+    <t>用户公司关系类型</t>
+  </si>
+  <si>
+    <t>用户公司关系类型编码</t>
+  </si>
+  <si>
+    <t>T01_USER_CMPY_TYPE</t>
+  </si>
+  <si>
+    <t>关系类型编码</t>
+  </si>
+  <si>
+    <t>关系类型名称</t>
+  </si>
+  <si>
+    <t>关系状态</t>
+  </si>
+  <si>
+    <t>关系类型状态</t>
+  </si>
+  <si>
+    <t>用户关联人类型</t>
+  </si>
+  <si>
+    <t>T01_USER_PERSON_TYPE</t>
+  </si>
+  <si>
+    <t>关联人类型编码</t>
+  </si>
+  <si>
+    <t>关联人类型名称</t>
+  </si>
+  <si>
+    <t>简历类型</t>
+  </si>
+  <si>
+    <t>T01_RESUME</t>
+  </si>
+  <si>
+    <t>T01_RESUME_TYPE</t>
+  </si>
+  <si>
+    <t>简历类型信息</t>
+  </si>
+  <si>
+    <t>简历类型编码</t>
+  </si>
+  <si>
+    <t>简历类型名称</t>
+  </si>
+  <si>
+    <t>简历进度更新时间</t>
+  </si>
+  <si>
+    <t>上次简历进度更新时间</t>
+  </si>
+  <si>
+    <t>简历最新进度代码</t>
+  </si>
+  <si>
+    <t>成功入职数目</t>
+  </si>
+  <si>
+    <t>提供OFFER数目</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>T01_JOB_INDUSTRY</t>
+  </si>
+  <si>
+    <t>T01_JOB_BASIC</t>
+  </si>
+  <si>
+    <t>职位基本信息</t>
+  </si>
+  <si>
+    <t>职位详细信息</t>
+  </si>
+  <si>
+    <t>T01_JOB_DETAIL</t>
+  </si>
+  <si>
+    <t>Channel_Type_Id</t>
+  </si>
+  <si>
+    <t>Channel_Type_Name</t>
+  </si>
+  <si>
+    <t>Contact_Name</t>
+  </si>
+  <si>
+    <t>Contact_Info</t>
+  </si>
+  <si>
+    <t>Channel_Info_Id</t>
+  </si>
+  <si>
+    <t>Channel_Info_Name</t>
+  </si>
+  <si>
+    <t>Send_Time</t>
+  </si>
+  <si>
+    <t>创建人名称</t>
+  </si>
+  <si>
+    <t>创建人编码</t>
+  </si>
+  <si>
+    <t>Create_Id</t>
+  </si>
+  <si>
+    <t>Create_Name</t>
+  </si>
+  <si>
+    <t>平台用户编码</t>
+  </si>
+  <si>
+    <t>平台用户名称</t>
+  </si>
+  <si>
+    <t>Create_Time</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Channel_Info_Type_Id</t>
+  </si>
+  <si>
+    <t>Channel_Info_Type_Name</t>
+  </si>
+  <si>
+    <t>Channel_Provider</t>
+  </si>
+  <si>
+    <t>Menu_Id</t>
+  </si>
+  <si>
+    <t>Menu_Name</t>
+  </si>
+  <si>
+    <t>Role_Id</t>
+  </si>
+  <si>
+    <t>Role_Name</t>
+  </si>
+  <si>
+    <t>Menu_Father_Id</t>
+  </si>
+  <si>
+    <t>上级菜单名称</t>
+  </si>
+  <si>
+    <t>Menu_Father_Name</t>
+  </si>
+  <si>
+    <t>Menu_Level</t>
+  </si>
+  <si>
+    <t>Module_Id</t>
+  </si>
+  <si>
+    <t>Module_Name</t>
+  </si>
+  <si>
+    <t>上级模块名称</t>
+  </si>
+  <si>
+    <t>Module_Father_Id</t>
+  </si>
+  <si>
+    <t>Module_Father_Name</t>
+  </si>
+  <si>
+    <t>Module_Level</t>
+  </si>
+  <si>
+    <t>昵称</t>
+  </si>
+  <si>
+    <t>Nickname</t>
+  </si>
+  <si>
+    <t>用户中文名称</t>
+  </si>
+  <si>
+    <t>用户英文名称</t>
+  </si>
+  <si>
+    <t>Acct_Name_En</t>
+  </si>
+  <si>
+    <t>T01_USER_DETAIL</t>
+  </si>
+  <si>
+    <t>用户详细信息</t>
+  </si>
+  <si>
+    <t>Acct_Name_Cn</t>
+  </si>
+  <si>
+    <t>存储用户要求存储的名称：中文名称、英文名称或昵称</t>
+  </si>
+  <si>
+    <t>用户激活信息</t>
+  </si>
+  <si>
+    <t>用户状态</t>
+  </si>
+  <si>
+    <t>注册时间</t>
+  </si>
+  <si>
+    <t>Register_Time</t>
+  </si>
+  <si>
+    <t>Introduce_Id</t>
+  </si>
+  <si>
+    <t>Introduce_Name</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Birth_Date</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Cert_Type</t>
+  </si>
+  <si>
+    <t>Cert_Id</t>
+  </si>
+  <si>
+    <t>Phone_No</t>
+  </si>
+  <si>
+    <t>Mobile_No</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>激活联系方式</t>
+  </si>
+  <si>
+    <t>激活时间</t>
+  </si>
+  <si>
+    <t>激活IP</t>
+  </si>
+  <si>
+    <t>激活地点</t>
+  </si>
+  <si>
+    <t>T01_USER_ACTIVATION</t>
+  </si>
+  <si>
+    <t>激活方式类型</t>
+  </si>
+  <si>
+    <t>激活方式类型编码</t>
+  </si>
+  <si>
+    <t>激活方式类型名称</t>
+  </si>
+  <si>
+    <t>T99_JOB_CONTACTER_TYPE</t>
+  </si>
+  <si>
+    <t>T99_USER_CMPY_TYPE</t>
+  </si>
+  <si>
+    <t>T99_USER_PERSON_TYPE</t>
+  </si>
+  <si>
+    <t>T99_ACTIVATION_TYPE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1316,7 +1691,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1390,7 +1765,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1483,6 +1858,7 @@
     <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1499,7 +1875,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1573,6 +1949,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1607,6 +1984,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1782,24 +2160,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.625" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="17.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.5703125" style="2" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.875" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.75" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.875" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.375" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.140625" style="2" customWidth="1" collapsed="1"/>
     <col min="10" max="16384" width="9" style="2" collapsed="1"/>
   </cols>
   <sheetData>
@@ -2277,7 +2655,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="14.25">
+    <row r="26" spans="1:16">
       <c r="A26" s="1"/>
       <c r="B26" s="30" t="s">
         <v>10</v>
@@ -2767,22 +3145,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="16" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.375" style="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="88.125" style="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.125" style="16"/>
+    <col min="1" max="1" width="10.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.42578125" style="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="88.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5">
+    <row r="1" spans="1:3" ht="33">
       <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
@@ -2965,7 +3343,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5">
+    <row r="18" spans="1:3" ht="33">
       <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
@@ -3060,23 +3438,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="23" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12.85546875" style="23" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="16" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.125" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.75" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.25" style="23" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="35.25" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="20.625" style="24" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.28515625" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.7109375" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.28515625" style="23" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="35.28515625" style="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.5703125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="24" customWidth="1" collapsed="1"/>
     <col min="9" max="17" width="9" style="22"/>
     <col min="18" max="16384" width="9" style="22" collapsed="1"/>
   </cols>
@@ -3138,14 +3516,17 @@
         <v>77</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>183</v>
+        <v>444</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>184</v>
+        <v>445</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>92</v>
       </c>
+      <c r="H3" s="24" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="23" t="s">
@@ -3155,14 +3536,17 @@
         <v>77</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>191</v>
+        <v>466</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>192</v>
+        <v>448</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>92</v>
       </c>
+      <c r="H4" s="24" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="23" t="s">
@@ -3172,16 +3556,13 @@
         <v>77</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>95</v>
+        <v>473</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>98</v>
+        <v>467</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>272</v>
+        <v>208</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>94</v>
@@ -3195,16 +3576,13 @@
         <v>77</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>273</v>
+        <v>92</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>94</v>
@@ -3218,17 +3596,14 @@
         <v>77</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>274</v>
-      </c>
       <c r="H7" s="24" t="s">
         <v>94</v>
       </c>
@@ -3241,16 +3616,16 @@
         <v>77</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>276</v>
+        <v>98</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>92</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>94</v>
@@ -3264,13 +3639,19 @@
         <v>77</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>254</v>
+        <v>96</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>92</v>
+        <v>99</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3281,13 +3662,13 @@
         <v>77</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>112</v>
+        <v>471</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>100</v>
+        <v>379</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>92</v>
+        <v>208</v>
       </c>
       <c r="H10" s="24" t="s">
         <v>94</v>
@@ -3301,14 +3682,17 @@
         <v>77</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>92</v>
       </c>
+      <c r="F11" s="24" t="s">
+        <v>265</v>
+      </c>
       <c r="H11" s="24" t="s">
         <v>94</v>
       </c>
@@ -3321,13 +3705,13 @@
         <v>77</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>114</v>
+        <v>472</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>102</v>
+        <v>386</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>92</v>
+        <v>208</v>
       </c>
       <c r="H12" s="24" t="s">
         <v>94</v>
@@ -3341,10 +3725,10 @@
         <v>77</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>115</v>
+        <v>371</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>103</v>
+        <v>372</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>92</v>
@@ -3361,14 +3745,17 @@
         <v>77</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>116</v>
+        <v>391</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>104</v>
+        <v>267</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>92</v>
       </c>
+      <c r="F14" s="24" t="s">
+        <v>266</v>
+      </c>
       <c r="H14" s="24" t="s">
         <v>94</v>
       </c>
@@ -3381,13 +3768,13 @@
         <v>77</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>117</v>
+        <v>392</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>105</v>
+        <v>393</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>92</v>
+        <v>208</v>
       </c>
       <c r="H15" s="24" t="s">
         <v>94</v>
@@ -3401,16 +3788,16 @@
         <v>77</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>118</v>
+        <v>246</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>106</v>
+        <v>247</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>92</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>94</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3421,10 +3808,10 @@
         <v>77</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>92</v>
@@ -3441,10 +3828,10 @@
         <v>77</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>92</v>
@@ -3461,10 +3848,10 @@
         <v>77</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>92</v>
@@ -3481,10 +3868,10 @@
         <v>77</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>92</v>
@@ -3501,10 +3888,10 @@
         <v>77</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>92</v>
@@ -3521,10 +3908,10 @@
         <v>77</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>92</v>
@@ -3541,10 +3928,10 @@
         <v>77</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>92</v>
@@ -3561,10 +3948,10 @@
         <v>77</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E24" s="23" t="s">
         <v>92</v>
@@ -3581,10 +3968,10 @@
         <v>77</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>92</v>
@@ -3601,10 +3988,10 @@
         <v>77</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>269</v>
+        <v>109</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>92</v>
@@ -3621,13 +4008,13 @@
         <v>77</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>94</v>
@@ -3641,10 +4028,10 @@
         <v>77</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>92</v>
@@ -3661,17 +4048,14 @@
         <v>77</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>287</v>
+        <v>124</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="F29" s="24" t="s">
-        <v>288</v>
-      </c>
       <c r="H29" s="24" t="s">
         <v>94</v>
       </c>
@@ -3684,13 +4068,13 @@
         <v>77</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>291</v>
+        <v>126</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="H30" s="24" t="s">
         <v>94</v>
@@ -3704,10 +4088,10 @@
         <v>77</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>295</v>
+        <v>129</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>296</v>
+        <v>128</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>92</v>
@@ -3724,10 +4108,10 @@
         <v>77</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>297</v>
+        <v>130</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>298</v>
+        <v>131</v>
       </c>
       <c r="E32" s="23" t="s">
         <v>92</v>
@@ -3744,10 +4128,10 @@
         <v>77</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>139</v>
+        <v>403</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>138</v>
+        <v>404</v>
       </c>
       <c r="E33" s="23" t="s">
         <v>92</v>
@@ -3764,16 +4148,13 @@
         <v>77</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>341</v>
+        <v>406</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>340</v>
+        <v>405</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="H34" s="24" t="s">
         <v>94</v>
@@ -3787,19 +4168,16 @@
         <v>77</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>142</v>
+        <v>402</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>141</v>
+        <v>260</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>94</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3810,22 +4188,16 @@
         <v>77</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>303</v>
+        <v>99</v>
       </c>
       <c r="H36" s="24" t="s">
-        <v>304</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3836,10 +4208,10 @@
         <v>77</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>92</v>
@@ -3856,16 +4228,16 @@
         <v>77</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>152</v>
+        <v>368</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>151</v>
+        <v>367</v>
       </c>
       <c r="E38" s="23" t="s">
         <v>92</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>94</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3876,14 +4248,17 @@
         <v>77</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E39" s="23" t="s">
         <v>92</v>
       </c>
+      <c r="F39" s="24" t="s">
+        <v>279</v>
+      </c>
       <c r="H39" s="24" t="s">
         <v>94</v>
       </c>
@@ -3896,13 +4271,13 @@
         <v>77</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>156</v>
+        <v>470</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>155</v>
+        <v>281</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>92</v>
+        <v>208</v>
       </c>
       <c r="H40" s="24" t="s">
         <v>94</v>
@@ -3916,10 +4291,10 @@
         <v>77</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>158</v>
+        <v>284</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>157</v>
+        <v>285</v>
       </c>
       <c r="E41" s="23" t="s">
         <v>92</v>
@@ -3936,10 +4311,10 @@
         <v>77</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>160</v>
+        <v>286</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>159</v>
+        <v>287</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>92</v>
@@ -3956,10 +4331,10 @@
         <v>77</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>92</v>
@@ -3976,13 +4351,16 @@
         <v>77</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>164</v>
+        <v>328</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>163</v>
+        <v>327</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>92</v>
+        <v>329</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>144</v>
       </c>
       <c r="H44" s="24" t="s">
         <v>94</v>
@@ -3996,13 +4374,16 @@
         <v>77</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>92</v>
+        <v>99</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>143</v>
       </c>
       <c r="H45" s="24" t="s">
         <v>94</v>
@@ -4016,16 +4397,22 @@
         <v>77</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>92</v>
       </c>
+      <c r="F46" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>292</v>
+      </c>
       <c r="H46" s="24" t="s">
-        <v>94</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -4036,10 +4423,10 @@
         <v>77</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E47" s="23" t="s">
         <v>92</v>
@@ -4056,10 +4443,10 @@
         <v>77</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>92</v>
@@ -4076,13 +4463,13 @@
         <v>77</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="H49" s="24" t="s">
         <v>94</v>
@@ -4096,13 +4483,13 @@
         <v>77</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="H50" s="24" t="s">
         <v>94</v>
@@ -4116,13 +4503,13 @@
         <v>77</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>322</v>
+        <v>157</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="H51" s="24" t="s">
         <v>94</v>
@@ -4136,13 +4523,13 @@
         <v>77</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>323</v>
+        <v>159</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>305</v>
+        <v>158</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="H52" s="24" t="s">
         <v>94</v>
@@ -4156,21 +4543,221 @@
         <v>77</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>324</v>
+        <v>161</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>319</v>
+        <v>160</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H53" s="24" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:8">
+      <c r="A54" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>163</v>
+      </c>
       <c r="D54" s="23" t="s">
-        <v>346</v>
+        <v>162</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H54" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H56" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H57" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H58" s="24" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="H60" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="H61" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="H62" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="H63" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="D64" s="23" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -4185,32 +4772,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R205"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R377"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.25" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.375" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.875" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.375" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.875" style="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.75" style="23" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.875" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.75" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.375" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.625" style="23" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="23" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.125" style="23" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="8.375" style="23" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.7109375" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.28515625" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.42578125" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.85546875" style="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.28515625" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.85546875" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.7109375" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10" style="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.5703125" style="23" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="23" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.140625" style="23" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="8.42578125" style="23" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="15" style="23" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17.875" style="23" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.85546875" style="23" customWidth="1" collapsed="1"/>
     <col min="17" max="18" width="9" style="22"/>
     <col min="19" max="16384" width="9" style="22" collapsed="1"/>
   </cols>
@@ -4244,7 +4831,7 @@
         <v>63</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="K1" s="20" t="s">
         <v>64</v>
@@ -4282,16 +4869,16 @@
         <v>1</v>
       </c>
       <c r="F2" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>176</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>177</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>58</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="J2" s="23">
         <v>30</v>
@@ -4320,735 +4907,943 @@
         <v>2</v>
       </c>
       <c r="F3" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="H3" s="23" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="E4" s="29">
+        <v>3</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="E5" s="29">
+        <v>4</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="E6" s="29">
+        <v>5</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="I3" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="J3" s="23">
+    </row>
+    <row r="7" spans="1:16">
+      <c r="E7" s="29">
+        <v>6</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="E8" s="29">
+        <v>7</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="E9" s="29">
+        <v>8</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="E10" s="29">
+        <v>9</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="E11" s="29">
+        <v>10</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="E12" s="29">
+        <v>11</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="E13" s="29">
+        <v>1</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="E14" s="29">
+        <v>2</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="J14" s="23">
         <v>200</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K14" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L14" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N14" s="23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="G4" s="23" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="G5" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="O5" s="23" t="s">
+    <row r="15" spans="1:16">
+      <c r="E15" s="29">
+        <v>3</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="E16" s="29">
+        <v>4</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="E17" s="29">
+        <v>8</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="E18" s="29">
+        <v>9</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="E19" s="29">
+        <v>10</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="E20" s="29">
+        <v>11</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="E21" s="29">
+        <v>14</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="E22" s="29">
+        <v>15</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="E23" s="29">
+        <v>16</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="O23" s="23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="E24" s="29">
+        <v>17</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="O24" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="P24" s="23" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="G6" s="23" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="G7" s="23" t="s">
+    <row r="25" spans="1:16">
+      <c r="E25" s="29">
+        <v>18</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="E26" s="29">
+        <v>19</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="E27" s="29">
+        <v>20</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="E28" s="29">
+        <v>21</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="E29" s="29">
+        <v>22</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="E30" s="29">
+        <v>1</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="E31" s="29">
+        <v>2</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="E32" s="29">
+        <v>3</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="E33" s="29">
+        <v>4</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="E34" s="29">
+        <v>5</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="E35" s="29">
+        <v>6</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="E36" s="29">
+        <v>7</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="E37" s="29">
+        <v>1</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="E38" s="29">
+        <v>2</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="E39" s="29">
+        <v>3</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="23" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="G8" s="23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="G9" s="23" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="G10" s="23" t="s">
+      <c r="D40" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" s="29">
+        <v>1</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="J40" s="23">
+        <v>30</v>
+      </c>
+      <c r="K40" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="L40" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="M40" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="N40" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="E41" s="29">
+        <v>2</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="E42" s="29">
+        <v>3</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="K42" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="L42" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="M42" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="N42" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="E43" s="29">
+        <v>4</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="E44" s="29">
+        <v>5</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="E45" s="29">
+        <v>6</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="E46" s="29">
+        <v>7</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="23" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="G11" s="23" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="G12" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="O12" s="23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="G13" s="23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="G14" s="23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="G15" s="23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="G16" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="O16" s="23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="G17" s="23" t="s">
+      <c r="D47" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="E47" s="29">
+        <v>1</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="I47" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="J47" s="23">
+        <v>30</v>
+      </c>
+      <c r="K47" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="L47" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="M47" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="N47" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="E48" s="29">
+        <v>2</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="E49" s="29">
+        <v>3</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="E50" s="29">
+        <v>4</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="E51" s="29">
+        <v>5</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="E52" s="29">
+        <v>6</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="E53" s="29">
+        <v>7</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="29">
+        <v>1</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="K54" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="L54" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="M54" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="N54" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="E55" s="29">
+        <v>2</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="E56" s="29">
+        <v>3</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="E57" s="29">
+        <v>4</v>
+      </c>
+      <c r="G57" s="23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="E58" s="29">
+        <v>5</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="E59" s="29">
+        <v>6</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="E60" s="29">
+        <v>7</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="E61" s="29">
+        <v>8</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="E62" s="29">
+        <v>9</v>
+      </c>
+      <c r="G62" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="E63" s="29">
+        <v>10</v>
+      </c>
+      <c r="G63" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="E64" s="29">
+        <v>11</v>
+      </c>
+      <c r="G64" s="23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="E65" s="29">
+        <v>12</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="E66" s="29">
+        <v>13</v>
+      </c>
+      <c r="G66" s="23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="E67" s="29">
+        <v>14</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="E68" s="29">
+        <v>15</v>
+      </c>
+      <c r="G68" s="23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="E69" s="29">
+        <v>16</v>
+      </c>
+      <c r="G69" s="23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="E70" s="29">
+        <v>17</v>
+      </c>
+      <c r="G70" s="23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="E71" s="29">
+        <v>18</v>
+      </c>
+      <c r="G71" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="E72" s="29">
+        <v>19</v>
+      </c>
+      <c r="G72" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="E73" s="29">
+        <v>20</v>
+      </c>
+      <c r="G73" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="E74" s="29">
+        <v>21</v>
+      </c>
+      <c r="G74" s="23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="E75" s="29">
+        <v>22</v>
+      </c>
+      <c r="G75" s="23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="E76" s="29">
+        <v>23</v>
+      </c>
+      <c r="G76" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="E77" s="29">
+        <v>24</v>
+      </c>
+      <c r="G77" s="23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="E78" s="29">
+        <v>25</v>
+      </c>
+      <c r="G78" s="23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="E79" s="29">
+        <v>26</v>
+      </c>
+      <c r="G79" s="23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="E80" s="29">
+        <v>1</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G80" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="E81" s="29">
+        <v>2</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G81" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="D82" s="29"/>
+      <c r="E82" s="29">
+        <v>3</v>
+      </c>
+      <c r="G82" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="D83" s="29"/>
+      <c r="E83" s="29">
+        <v>4</v>
+      </c>
+      <c r="G83" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="D84" s="29"/>
+      <c r="E84" s="29">
+        <v>5</v>
+      </c>
+      <c r="G84" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="N84" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="O17" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="P17" s="23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="G18" s="23" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="G19" s="23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="G20" s="23" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="G21" s="23" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="G22" s="23" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="G23" s="23" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="G24" s="23" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="E25" s="29">
-        <v>1</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="J25" s="23">
-        <v>30</v>
-      </c>
-      <c r="K25" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="L25" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="M25" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="N25" s="23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="G26" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="K26" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="L26" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="M26" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="N26" s="23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="G27" s="23" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="G28" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="E29" s="29">
-        <v>1</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="I29" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="J29" s="23">
-        <v>30</v>
-      </c>
-      <c r="K29" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="L29" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="M29" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="N29" s="23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="G30" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="K30" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="L30" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="M30" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="N30" s="23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="G31" s="23" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="G32" s="23" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="29">
-        <v>1</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="K33" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="L33" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="M33" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="N33" s="23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="G34" s="23" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="G35" s="23" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="G36" s="23" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="G37" s="23" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="G38" s="23" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="G39" s="23" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="G40" s="23" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="G41" s="23" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="G42" s="23" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="G43" s="23" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="G44" s="23" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="G45" s="23" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="G46" s="23" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="G47" s="23" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="G48" s="23" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="G49" s="23" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="G50" s="23" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="G51" s="23" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="G52" s="23" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="G53" s="23" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="G54" s="23" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="G55" s="23" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="G56" s="23" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="G57" s="23" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="G58" s="23" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="E59" s="29">
-        <v>1</v>
-      </c>
-      <c r="G59" s="23" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="D60" s="29"/>
-      <c r="G60" s="23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="D61" s="29"/>
-      <c r="G61" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="N61" s="23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="D62" s="29"/>
-      <c r="G62" s="23" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="D63" s="29"/>
-      <c r="G63" s="23" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="D64" s="29"/>
-      <c r="G64" s="23" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="E65" s="29">
-        <v>1</v>
-      </c>
-      <c r="G65" s="23" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="D66" s="29"/>
-      <c r="G66" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="N66" s="23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="D67" s="29"/>
-      <c r="G67" s="23" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="D68" s="29"/>
-      <c r="G68" s="23" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="E69" s="29">
-        <v>1</v>
-      </c>
-      <c r="G69" s="23" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="D70" s="29"/>
-      <c r="G70" s="23" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="D71" s="29"/>
-      <c r="G71" s="23" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="D72" s="29"/>
-      <c r="G72" s="23" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="D73" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="E73" s="29">
-        <v>1</v>
-      </c>
-      <c r="G73" s="23" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="G74" s="23" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="G75" s="23" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="G76" s="23" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C77" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D77" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E77" s="29">
-        <v>1</v>
-      </c>
-      <c r="G77" s="23" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="G78" s="23" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B82" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C82" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D82" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E82" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B83" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C83" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D83" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E83" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B84" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C84" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="D84" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E84" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B85" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C85" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D85" s="23" t="s">
-        <v>104</v>
-      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="D85" s="29"/>
       <c r="E85" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B86" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C86" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="D86" s="23" t="s">
-        <v>105</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G85" s="23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="D86" s="29"/>
       <c r="E86" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B87" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C87" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D87" s="23" t="s">
-        <v>106</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G86" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="D87" s="29"/>
       <c r="E87" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="G87" s="23" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="23" t="s">
         <v>76</v>
       </c>
@@ -5056,84 +5851,55 @@
         <v>77</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>119</v>
+        <v>381</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>107</v>
+        <v>379</v>
       </c>
       <c r="E88" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B89" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C89" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D89" s="23" t="s">
-        <v>108</v>
-      </c>
+      <c r="G88" s="23" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="D89" s="29"/>
       <c r="E89" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B90" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C90" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="D90" s="23" t="s">
-        <v>109</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G89" s="23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="D90" s="29"/>
       <c r="E90" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B91" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C91" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D91" s="23" t="s">
-        <v>110</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G90" s="23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="D91" s="29"/>
       <c r="E91" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B92" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C92" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D92" s="23" t="s">
-        <v>111</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G91" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="D92" s="29"/>
       <c r="E92" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G92" s="23" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="23" t="s">
         <v>76</v>
       </c>
@@ -5141,48 +5907,60 @@
         <v>77</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E93" s="29">
         <v>1</v>
       </c>
+      <c r="F93" s="23" t="s">
+        <v>175</v>
+      </c>
       <c r="G93" s="23" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="E94" s="29">
         <v>2</v>
       </c>
+      <c r="F94" s="23" t="s">
+        <v>177</v>
+      </c>
       <c r="G94" s="23" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="D95" s="29"/>
       <c r="E95" s="29">
         <v>3</v>
       </c>
       <c r="G95" s="23" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>388</v>
+      </c>
+      <c r="N95" s="23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="D96" s="29"/>
       <c r="E96" s="29">
         <v>4</v>
       </c>
       <c r="G96" s="23" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" spans="1:7">
+      <c r="D97" s="29"/>
       <c r="E97" s="29">
         <v>5</v>
       </c>
       <c r="G97" s="23" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -5193,46 +5971,53 @@
         <v>77</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>279</v>
+        <v>387</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>280</v>
+        <v>386</v>
       </c>
       <c r="E98" s="29">
         <v>1</v>
       </c>
       <c r="G98" s="23" t="s">
-        <v>278</v>
+        <v>388</v>
       </c>
     </row>
     <row r="99" spans="1:7">
+      <c r="D99" s="29"/>
       <c r="E99" s="29">
         <v>2</v>
       </c>
       <c r="G99" s="23" t="s">
-        <v>281</v>
+        <v>389</v>
       </c>
     </row>
     <row r="100" spans="1:7">
+      <c r="D100" s="29"/>
       <c r="E100" s="29">
         <v>3</v>
       </c>
       <c r="G100" s="23" t="s">
-        <v>348</v>
+        <v>300</v>
       </c>
     </row>
     <row r="101" spans="1:7">
+      <c r="D101" s="29"/>
       <c r="E101" s="29">
         <v>4</v>
       </c>
       <c r="G101" s="23" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
     </row>
     <row r="102" spans="1:7">
+      <c r="D102" s="29"/>
       <c r="E102" s="29">
         <v>5</v>
       </c>
+      <c r="G102" s="23" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="23" t="s">
@@ -5242,24 +6027,30 @@
         <v>77</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>130</v>
+        <v>371</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>129</v>
+        <v>372</v>
       </c>
       <c r="E103" s="29">
         <v>1</v>
       </c>
+      <c r="F103" s="23" t="s">
+        <v>175</v>
+      </c>
       <c r="G103" s="23" t="s">
-        <v>259</v>
+        <v>176</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="E104" s="29">
         <v>2</v>
       </c>
+      <c r="F104" s="23" t="s">
+        <v>177</v>
+      </c>
       <c r="G104" s="23" t="s">
-        <v>264</v>
+        <v>178</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -5267,7 +6058,7 @@
         <v>3</v>
       </c>
       <c r="G105" s="23" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -5275,170 +6066,152 @@
         <v>4</v>
       </c>
       <c r="G106" s="23" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B107" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C107" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="D107" s="23" t="s">
-        <v>132</v>
-      </c>
       <c r="E107" s="29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G107" s="23" t="s">
-        <v>259</v>
+        <v>390</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="E108" s="29">
+        <v>6</v>
+      </c>
+      <c r="G108" s="23" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="D109" s="29"/>
+      <c r="E109" s="29">
+        <v>7</v>
+      </c>
+      <c r="G109" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B110" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="D110" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="E110" s="29">
+        <v>1</v>
+      </c>
+      <c r="G110" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="D111" s="29"/>
+      <c r="E111" s="29">
         <v>2</v>
       </c>
-      <c r="G108" s="23" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="E109" s="29">
+      <c r="G111" s="23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="D112" s="29"/>
+      <c r="E112" s="29">
         <v>3</v>
       </c>
-      <c r="G109" s="23" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="E110" s="29">
+      <c r="G112" s="23" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="D113" s="29"/>
+      <c r="E113" s="29">
         <v>4</v>
       </c>
-      <c r="G110" s="23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B111" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C111" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="D111" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="E111" s="29">
+      <c r="G113" s="23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="D114" s="29"/>
+      <c r="E114" s="29">
+        <v>5</v>
+      </c>
+      <c r="G114" s="23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="D115" s="29"/>
+      <c r="E115" s="29">
+        <v>6</v>
+      </c>
+      <c r="G115" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B116" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="D116" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E116" s="29">
         <v>1</v>
       </c>
-      <c r="G111" s="23" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="E112" s="29">
+      <c r="G116" s="23" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="E117" s="29">
         <v>2</v>
       </c>
-      <c r="G112" s="23" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14">
-      <c r="E113" s="29">
+      <c r="G117" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="E118" s="29">
         <v>3</v>
       </c>
-      <c r="G113" s="23" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14">
-      <c r="E114" s="29">
+      <c r="G118" s="23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="E119" s="29">
         <v>4</v>
       </c>
-      <c r="G114" s="23" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14">
-      <c r="A115" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B115" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C115" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D115" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="E115" s="29">
-        <v>1</v>
-      </c>
-      <c r="G115" s="23" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
-      <c r="E116" s="29">
-        <v>2</v>
-      </c>
-      <c r="G116" s="23" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14">
-      <c r="E117" s="29">
-        <v>3</v>
-      </c>
-      <c r="G117" s="23" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14">
-      <c r="A118" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B118" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C118" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="D118" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="E118" s="29">
-        <v>1</v>
-      </c>
-      <c r="G118" s="23" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14">
-      <c r="E119" s="29">
-        <v>2</v>
-      </c>
       <c r="G119" s="23" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="E120" s="29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G120" s="23" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="23" t="s">
         <v>76</v>
       </c>
@@ -5446,46 +6219,43 @@
         <v>77</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="E121" s="29">
         <v>1</v>
       </c>
       <c r="G121" s="23" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="E122" s="29">
         <v>2</v>
       </c>
       <c r="G122" s="23" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="E123" s="29">
         <v>3</v>
       </c>
       <c r="G123" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="N123" s="23" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="E124" s="29">
         <v>4</v>
       </c>
       <c r="G124" s="23" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="23" t="s">
         <v>76</v>
       </c>
@@ -5493,62 +6263,56 @@
         <v>77</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>293</v>
+        <v>112</v>
       </c>
       <c r="D125" s="23" t="s">
-        <v>291</v>
+        <v>100</v>
       </c>
       <c r="E125" s="29">
         <v>1</v>
       </c>
       <c r="G125" s="23" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="E126" s="29">
+        <v>2</v>
+      </c>
       <c r="G126" s="23" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14">
-      <c r="G127" s="23" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14">
-      <c r="A128" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B128" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C128" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="D128" s="23" t="s">
-        <v>296</v>
-      </c>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="E127" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="E128" s="29">
-        <v>1</v>
-      </c>
-      <c r="G128" s="23" t="s">
-        <v>299</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="E129" s="29">
-        <v>2</v>
-      </c>
-      <c r="G129" s="23" t="s">
-        <v>300</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:7">
+      <c r="A130" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B130" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C130" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D130" s="23" t="s">
+        <v>101</v>
+      </c>
       <c r="E130" s="29">
-        <v>3</v>
-      </c>
-      <c r="G130" s="23" t="s">
-        <v>271</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5559,26 +6323,47 @@
         <v>77</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>297</v>
+        <v>114</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>298</v>
+        <v>102</v>
       </c>
       <c r="E131" s="29">
         <v>1</v>
       </c>
-      <c r="G131" s="23" t="s">
-        <v>301</v>
-      </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="G132" s="23" t="s">
-        <v>302</v>
+      <c r="A132" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B132" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C132" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D132" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E132" s="29">
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="G133" s="23" t="s">
-        <v>299</v>
+      <c r="A133" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B133" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C133" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D133" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E133" s="29">
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5589,41 +6374,98 @@
         <v>77</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="D134" s="23" t="s">
-        <v>294</v>
+        <v>105</v>
       </c>
       <c r="E134" s="29">
         <v>1</v>
       </c>
-      <c r="G134" s="23" t="s">
-        <v>259</v>
-      </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="G135" s="23" t="s">
-        <v>339</v>
+      <c r="A135" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B135" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C135" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D135" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E135" s="29">
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="G136" s="23" t="s">
-        <v>299</v>
+      <c r="A136" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B136" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C136" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D136" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E136" s="29">
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="G137" s="23" t="s">
-        <v>301</v>
+      <c r="A137" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B137" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C137" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D137" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E137" s="29">
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="G138" s="23" t="s">
-        <v>338</v>
+      <c r="A138" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B138" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C138" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D138" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E138" s="29">
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="G139" s="23" t="s">
-        <v>309</v>
+      <c r="A139" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B139" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C139" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D139" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E139" s="29">
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5634,10 +6476,10 @@
         <v>77</v>
       </c>
       <c r="C140" s="23" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="D140" s="23" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="E140" s="29">
         <v>1</v>
@@ -5651,553 +6493,2622 @@
         <v>77</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="D141" s="23" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="E141" s="29">
         <v>1</v>
       </c>
+      <c r="G141" s="23" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B142" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C142" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D142" s="23" t="s">
-        <v>148</v>
-      </c>
       <c r="E142" s="29">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G142" s="23" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B143" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C143" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="D143" s="23" t="s">
-        <v>151</v>
-      </c>
       <c r="E143" s="29">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="G143" s="23" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B144" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C144" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="D144" s="23" t="s">
-        <v>153</v>
-      </c>
       <c r="E144" s="29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G144" s="23" t="s">
-        <v>325</v>
+        <v>258</v>
       </c>
     </row>
     <row r="145" spans="1:7">
+      <c r="E145" s="29">
+        <v>5</v>
+      </c>
       <c r="G145" s="23" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="146" spans="1:7">
+      <c r="E146" s="29">
+        <v>6</v>
+      </c>
       <c r="G146" s="23" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
     </row>
     <row r="147" spans="1:7">
+      <c r="E147" s="29">
+        <v>7</v>
+      </c>
       <c r="G147" s="23" t="s">
-        <v>333</v>
+        <v>240</v>
       </c>
     </row>
     <row r="148" spans="1:7">
+      <c r="E148" s="29">
+        <v>8</v>
+      </c>
       <c r="G148" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="E149" s="29">
+        <v>9</v>
+      </c>
+      <c r="G149" s="23" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="E150" s="29">
+        <v>10</v>
+      </c>
+      <c r="G150" s="23" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="E151" s="29">
+        <v>11</v>
+      </c>
+      <c r="G151" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="E152" s="29">
+        <v>12</v>
+      </c>
+      <c r="G152" s="23" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B153" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C153" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="D153" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="E153" s="29">
+        <v>1</v>
+      </c>
+      <c r="G153" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="E154" s="29">
+        <v>2</v>
+      </c>
+      <c r="G154" s="23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="E155" s="29">
+        <v>3</v>
+      </c>
+      <c r="G155" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="E156" s="29">
+        <v>4</v>
+      </c>
+      <c r="G156" s="23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="E157" s="29">
+        <v>5</v>
+      </c>
+      <c r="G157" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="E158" s="29">
+        <v>6</v>
+      </c>
+      <c r="G158" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="E159" s="29">
+        <v>7</v>
+      </c>
+      <c r="G159" s="23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="E160" s="29">
+        <v>8</v>
+      </c>
+      <c r="G160" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="E161" s="29">
+        <v>9</v>
+      </c>
+      <c r="G161" s="23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="E162" s="29">
+        <v>10</v>
+      </c>
+      <c r="G162" s="23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B163" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C163" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D163" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E163" s="29">
+        <v>1</v>
+      </c>
+      <c r="G163" s="23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="E164" s="29">
+        <v>2</v>
+      </c>
+      <c r="G164" s="23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="E165" s="29">
+        <v>3</v>
+      </c>
+      <c r="G165" s="23" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="E166" s="29">
+        <v>4</v>
+      </c>
+      <c r="G166" s="23" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="E167" s="29">
+        <v>5</v>
+      </c>
+      <c r="G167" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="E168" s="29">
+        <v>6</v>
+      </c>
+      <c r="G168" s="23" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="E169" s="29">
+        <v>7</v>
+      </c>
+      <c r="G169" s="23" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B170" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C170" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D170" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E170" s="29">
+        <v>1</v>
+      </c>
+      <c r="G170" s="23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="E171" s="29">
+        <v>2</v>
+      </c>
+      <c r="G171" s="23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="E172" s="29">
+        <v>3</v>
+      </c>
+      <c r="G172" s="23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="E173" s="29">
+        <v>4</v>
+      </c>
+      <c r="G173" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="E174" s="29">
+        <v>5</v>
+      </c>
+      <c r="G174" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="E175" s="29">
+        <v>6</v>
+      </c>
+      <c r="G175" s="23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B176" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C176" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="D176" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="E176" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B178" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C178" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="D178" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="E178" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B180" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C180" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D180" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="E180" s="29">
+        <v>1</v>
+      </c>
+      <c r="G180" s="23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="E181" s="29">
+        <v>2</v>
+      </c>
+      <c r="G181" s="23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="E182" s="29">
+        <v>3</v>
+      </c>
+      <c r="G182" s="23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="E183" s="29">
+        <v>4</v>
+      </c>
+      <c r="G183" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B184" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C184" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D184" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E184" s="29">
+        <v>1</v>
+      </c>
+      <c r="G184" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="E185" s="29">
+        <v>2</v>
+      </c>
+      <c r="G185" s="23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="E186" s="29">
+        <v>3</v>
+      </c>
+      <c r="G186" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="E187" s="29">
+        <v>4</v>
+      </c>
+      <c r="G187" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="E188" s="29">
+        <v>5</v>
+      </c>
+      <c r="G188" s="23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="E189" s="29">
+        <v>6</v>
+      </c>
+      <c r="G189" s="23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="E190" s="29">
+        <v>7</v>
+      </c>
+      <c r="G190" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="E191" s="29">
+        <v>8</v>
+      </c>
+      <c r="G191" s="23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B192" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C192" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D192" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E192" s="29">
+        <v>1</v>
+      </c>
+      <c r="F192" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G192" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="E193" s="29">
+        <v>2</v>
+      </c>
+      <c r="F193" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G193" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="E194" s="29">
+        <v>3</v>
+      </c>
+      <c r="G194" s="23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="E195" s="29">
+        <v>4</v>
+      </c>
+      <c r="G195" s="23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="E196" s="29">
+        <v>5</v>
+      </c>
+      <c r="G196" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="E197" s="29">
+        <v>6</v>
+      </c>
+      <c r="G197" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="E198" s="29">
+        <v>7</v>
+      </c>
+      <c r="G198" s="23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="E199" s="29">
+        <v>8</v>
+      </c>
+      <c r="G199" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="E200" s="29">
+        <v>9</v>
+      </c>
+      <c r="G200" s="23" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="E201" s="29">
+        <v>10</v>
+      </c>
+      <c r="G201" s="23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B202" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C202" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="D202" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="E202" s="29">
+        <v>1</v>
+      </c>
+      <c r="G202" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="E203" s="29">
+        <v>2</v>
+      </c>
+      <c r="G203" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="E204" s="29">
+        <v>3</v>
+      </c>
+      <c r="G204" s="23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="E205" s="29">
+        <v>4</v>
+      </c>
+      <c r="G205" s="23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="E206" s="29">
+        <v>5</v>
+      </c>
+      <c r="G206" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="E207" s="29">
+        <v>6</v>
+      </c>
+      <c r="G207" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="E208" s="29">
+        <v>7</v>
+      </c>
+      <c r="G208" s="23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="E209" s="29">
+        <v>8</v>
+      </c>
+      <c r="G209" s="23" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B210" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C210" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D210" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="E210" s="29">
+        <v>1</v>
+      </c>
+      <c r="G210" s="23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="E211" s="29">
+        <v>2</v>
+      </c>
+      <c r="G211" s="23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="E212" s="29">
+        <v>3</v>
+      </c>
+      <c r="G212" s="23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="E213" s="29">
+        <v>4</v>
+      </c>
+      <c r="G213" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="H213" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="E214" s="29">
+        <v>5</v>
+      </c>
+      <c r="G214" s="23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="E215" s="29">
+        <v>6</v>
+      </c>
+      <c r="G215" s="23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="E216" s="29">
+        <v>7</v>
+      </c>
+      <c r="G216" s="23" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="E217" s="29">
+        <v>8</v>
+      </c>
+      <c r="G217" s="23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="E218" s="29">
+        <v>9</v>
+      </c>
+      <c r="G218" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B219" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C219" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="D219" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="E219" s="29">
+        <v>1</v>
+      </c>
+      <c r="G219" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="E220" s="29">
+        <v>2</v>
+      </c>
+      <c r="G220" s="23" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="E221" s="29">
+        <v>3</v>
+      </c>
+      <c r="G221" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B222" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C222" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="D222" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="E222" s="29">
+        <v>1</v>
+      </c>
+      <c r="G222" s="23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="E223" s="29">
+        <v>2</v>
+      </c>
+      <c r="G223" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="E224" s="29">
+        <v>3</v>
+      </c>
+      <c r="G224" s="23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="E225" s="29">
+        <v>4</v>
+      </c>
+      <c r="G225" s="23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="E226" s="29">
+        <v>5</v>
+      </c>
+      <c r="G226" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B227" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C227" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="D227" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="E227" s="29">
+        <v>1</v>
+      </c>
+      <c r="G227" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="E228" s="29">
+        <v>2</v>
+      </c>
+      <c r="G228" s="23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="E229" s="29">
+        <v>3</v>
+      </c>
+      <c r="G229" s="23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="E230" s="29">
+        <v>4</v>
+      </c>
+      <c r="G230" s="23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="E231" s="29">
+        <v>5</v>
+      </c>
+      <c r="G231" s="23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="E232" s="29">
+        <v>6</v>
+      </c>
+      <c r="G232" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B233" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C233" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D233" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="E233" s="29">
+        <v>1</v>
+      </c>
+      <c r="G233" s="23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="E234" s="29">
+        <v>2</v>
+      </c>
+      <c r="G234" s="23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="E235" s="29">
+        <v>3</v>
+      </c>
+      <c r="G235" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="E236" s="29">
+        <v>4</v>
+      </c>
+      <c r="G236" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="E237" s="29">
+        <v>5</v>
+      </c>
+      <c r="G237" s="23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="E238" s="29">
+        <v>6</v>
+      </c>
+      <c r="G238" s="23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="E239" s="29">
+        <v>7</v>
+      </c>
+      <c r="G239" s="23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="E240" s="29">
+        <v>8</v>
+      </c>
+      <c r="G240" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="E241" s="29">
+        <v>9</v>
+      </c>
+      <c r="G241" s="23" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="E242" s="29">
+        <v>10</v>
+      </c>
+      <c r="G242" s="23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="E243" s="29">
+        <v>11</v>
+      </c>
+      <c r="G243" s="23" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="E244" s="29">
+        <v>12</v>
+      </c>
+      <c r="G244" s="23" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="E245" s="29">
+        <v>13</v>
+      </c>
+      <c r="G245" s="23" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="E246" s="29">
+        <v>14</v>
+      </c>
+      <c r="G246" s="23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="E247" s="29">
+        <v>15</v>
+      </c>
+      <c r="G247" s="23" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="E248" s="29">
+        <v>16</v>
+      </c>
+      <c r="G248" s="23" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="E249" s="29">
+        <v>17</v>
+      </c>
+      <c r="G249" s="23" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="E250" s="29">
+        <v>18</v>
+      </c>
+      <c r="G250" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B251" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C251" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D251" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E251" s="29">
+        <v>1</v>
+      </c>
+      <c r="G251" s="23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="E252" s="29">
+        <v>2</v>
+      </c>
+      <c r="G252" s="23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="E253" s="29">
+        <v>3</v>
+      </c>
+      <c r="G253" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="E254" s="29">
+        <v>4</v>
+      </c>
+      <c r="G254" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="E255" s="29">
+        <v>5</v>
+      </c>
+      <c r="G255" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="E256" s="29">
+        <v>6</v>
+      </c>
+      <c r="G256" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="E257" s="29">
+        <v>7</v>
+      </c>
+      <c r="G257" s="23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="E258" s="29">
+        <v>8</v>
+      </c>
+      <c r="G258" s="23" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="E259" s="29">
+        <v>9</v>
+      </c>
+      <c r="G259" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="E260" s="29">
+        <v>10</v>
+      </c>
+      <c r="G260" s="23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="E261" s="29">
+        <v>11</v>
+      </c>
+      <c r="G261" s="23" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="E262" s="29">
+        <v>12</v>
+      </c>
+      <c r="G262" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B263" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C263" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D263" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E263" s="29">
+        <v>1</v>
+      </c>
+      <c r="G263" s="23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="E264" s="29">
+        <v>2</v>
+      </c>
+      <c r="G264" s="23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="E265" s="29">
+        <v>3</v>
+      </c>
+      <c r="G265" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="E266" s="29">
+        <v>4</v>
+      </c>
+      <c r="G266" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="E267" s="29">
+        <v>5</v>
+      </c>
+      <c r="G267" s="23" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="E268" s="29">
+        <v>6</v>
+      </c>
+      <c r="G268" s="23" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="E269" s="29">
+        <v>7</v>
+      </c>
+      <c r="G269" s="23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="E270" s="29">
+        <v>8</v>
+      </c>
+      <c r="G270" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="E271" s="29">
+        <v>9</v>
+      </c>
+      <c r="G271" s="23" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B272" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C272" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D272" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E272" s="29">
+        <v>1</v>
+      </c>
+      <c r="G272" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="E273" s="29">
+        <v>2</v>
+      </c>
+      <c r="G273" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="E274" s="29">
+        <v>3</v>
+      </c>
+      <c r="G274" s="23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="E275" s="29">
+        <v>4</v>
+      </c>
+      <c r="G275" s="23" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="E276" s="29">
+        <v>5</v>
+      </c>
+      <c r="G276" s="23" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="E277" s="29">
+        <v>6</v>
+      </c>
+      <c r="G277" s="23" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="E278" s="29">
+        <v>7</v>
+      </c>
+      <c r="G278" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B279" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C279" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D279" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="E279" s="29">
+        <v>1</v>
+      </c>
+      <c r="G279" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="E280" s="29">
+        <v>2</v>
+      </c>
+      <c r="G280" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="E281" s="29">
+        <v>3</v>
+      </c>
+      <c r="G281" s="23" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="E282" s="29">
+        <v>4</v>
+      </c>
+      <c r="G282" s="23" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="E283" s="29">
+        <v>5</v>
+      </c>
+      <c r="G283" s="23" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="E284" s="29">
+        <v>6</v>
+      </c>
+      <c r="G284" s="23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="E285" s="29">
+        <v>7</v>
+      </c>
+      <c r="G285" s="23" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B286" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C286" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D286" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E286" s="29">
+        <v>1</v>
+      </c>
+      <c r="F286" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="G286" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="E287" s="29">
+        <v>2</v>
+      </c>
+      <c r="F287" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="G287" s="23" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="E288" s="29">
+        <v>3</v>
+      </c>
+      <c r="F288" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="G288" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="E289" s="29">
+        <v>4</v>
+      </c>
+      <c r="F289" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="G289" s="23" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="E290" s="29">
+        <v>5</v>
+      </c>
+      <c r="F290" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="G290" s="23" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="E291" s="29">
+        <v>6</v>
+      </c>
+      <c r="F291" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="G291" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="H291" s="23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="E292" s="29">
+        <v>7</v>
+      </c>
+      <c r="F292" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="G292" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="H292" s="23" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="E293" s="29">
+        <v>8</v>
+      </c>
+      <c r="F293" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="G293" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="E294" s="29">
+        <v>9</v>
+      </c>
+      <c r="F294" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G294" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B295" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C295" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D295" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="E295" s="29">
+        <v>1</v>
+      </c>
+      <c r="F295" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="G295" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="E296" s="29">
+        <v>2</v>
+      </c>
+      <c r="F296" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="G296" s="23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="E297" s="29">
+        <v>3</v>
+      </c>
+      <c r="F297" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="G297" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="E298" s="29">
+        <v>4</v>
+      </c>
+      <c r="F298" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="G298" s="23" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="E299" s="29">
+        <v>5</v>
+      </c>
+      <c r="F299" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="G299" s="23" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="E300" s="29">
+        <v>6</v>
+      </c>
+      <c r="F300" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="G300" s="23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="E301" s="29">
+        <v>7</v>
+      </c>
+      <c r="F301" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="G301" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="H301" s="23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="E302" s="29">
+        <v>8</v>
+      </c>
+      <c r="F302" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="G302" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="H302" s="23" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="E303" s="29">
+        <v>9</v>
+      </c>
+      <c r="F303" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="G303" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="E304" s="29">
+        <v>10</v>
+      </c>
+      <c r="F304" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G304" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B305" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C305" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D305" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E305" s="29">
+        <v>1</v>
+      </c>
+      <c r="F305" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="G305" s="23" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="E306" s="29">
+        <v>2</v>
+      </c>
+      <c r="F306" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="G306" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="E307" s="29">
+        <v>3</v>
+      </c>
+      <c r="F307" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="G307" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="H307" s="23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="E308" s="29">
+        <v>4</v>
+      </c>
+      <c r="F308" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="G308" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="H308" s="23" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="E309" s="29">
+        <v>5</v>
+      </c>
+      <c r="F309" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="G309" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="E310" s="29">
+        <v>6</v>
+      </c>
+      <c r="F310" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G310" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B311" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C311" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D311" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="E311" s="29">
+        <v>1</v>
+      </c>
+      <c r="F311" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="G311" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="E312" s="29">
+        <v>2</v>
+      </c>
+      <c r="F312" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="G312" s="23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
+      <c r="E313" s="29">
+        <v>3</v>
+      </c>
+      <c r="F313" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="G313" s="23" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="E314" s="29">
+        <v>4</v>
+      </c>
+      <c r="F314" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="G314" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="E315" s="29">
+        <v>5</v>
+      </c>
+      <c r="F315" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="G315" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="H315" s="23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="E316" s="29">
+        <v>6</v>
+      </c>
+      <c r="F316" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="G316" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="H316" s="23" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="E317" s="29">
+        <v>7</v>
+      </c>
+      <c r="F317" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="G317" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="E318" s="29">
+        <v>8</v>
+      </c>
+      <c r="F318" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G318" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
+      <c r="A319" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B319" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C319" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D319" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="E319" s="29">
+        <v>1</v>
+      </c>
+      <c r="F319" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G319" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
+      <c r="E320" s="29">
+        <v>2</v>
+      </c>
+      <c r="F320" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G320" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="E321" s="29">
+        <v>3</v>
+      </c>
+      <c r="F321" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="G321" s="23" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
+      <c r="E322" s="29">
+        <v>4</v>
+      </c>
+      <c r="F322" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="G322" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
+      <c r="E323" s="29">
+        <v>5</v>
+      </c>
+      <c r="F323" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="G323" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="H323" s="23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
+      <c r="E324" s="29">
+        <v>6</v>
+      </c>
+      <c r="F324" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="G324" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="H324" s="23" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
+      <c r="E325" s="29">
+        <v>7</v>
+      </c>
+      <c r="F325" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="G325" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
+      <c r="E326" s="29">
+        <v>8</v>
+      </c>
+      <c r="F326" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G326" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
+      <c r="A327" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B327" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C327" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D327" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="E327" s="29">
+        <v>1</v>
+      </c>
+      <c r="F327" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="G327" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
+      <c r="E328" s="29">
+        <v>2</v>
+      </c>
+      <c r="F328" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="G328" s="23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="E329" s="29">
+        <v>3</v>
+      </c>
+      <c r="F329" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G329" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="E330" s="29">
+        <v>4</v>
+      </c>
+      <c r="F330" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G330" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="E331" s="29">
+        <v>5</v>
+      </c>
+      <c r="F331" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="G331" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="H331" s="23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="E332" s="29">
+        <v>6</v>
+      </c>
+      <c r="F332" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="G332" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="H332" s="23" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="E333" s="29">
+        <v>7</v>
+      </c>
+      <c r="F333" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="G333" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="E334" s="29">
+        <v>8</v>
+      </c>
+      <c r="F334" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G334" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
+      <c r="A335" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B335" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C335" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D335" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="E335" s="29">
+        <v>1</v>
+      </c>
+      <c r="F335" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="G335" s="23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="E336" s="29">
+        <v>2</v>
+      </c>
+      <c r="F336" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="G336" s="23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="E337" s="29">
+        <v>3</v>
+      </c>
+      <c r="F337" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="G337" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="H337" s="23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="E338" s="29">
+        <v>4</v>
+      </c>
+      <c r="F338" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="G338" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="H338" s="23" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
+      <c r="E339" s="29">
+        <v>5</v>
+      </c>
+      <c r="F339" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="G339" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
+      <c r="E340" s="29">
+        <v>6</v>
+      </c>
+      <c r="F340" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="G340" s="23" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="E341" s="29">
+        <v>7</v>
+      </c>
+      <c r="F341" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G341" s="23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
+      <c r="A342" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B342" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C342" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D342" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E342" s="29">
+        <v>1</v>
+      </c>
+      <c r="F342" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="G342" s="23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
+      <c r="E343" s="29">
+        <v>2</v>
+      </c>
+      <c r="F343" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="G343" s="23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="E344" s="29">
+        <v>3</v>
+      </c>
+      <c r="F344" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="G344" s="23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
+      <c r="E345" s="29">
+        <v>4</v>
+      </c>
+      <c r="F345" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="G345" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="H345" s="23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
+      <c r="E346" s="29">
+        <v>5</v>
+      </c>
+      <c r="F346" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="G346" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="H346" s="23" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
+      <c r="E347" s="29">
+        <v>6</v>
+      </c>
+      <c r="F347" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="G347" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
+      <c r="E348" s="29">
+        <v>7</v>
+      </c>
+      <c r="F348" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G348" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
+      <c r="A349" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B349" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C349" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D349" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="E349" s="29">
+        <v>1</v>
+      </c>
+      <c r="F349" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="G349" s="23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
+      <c r="E350" s="29">
+        <v>2</v>
+      </c>
+      <c r="F350" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="G350" s="23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
+      <c r="E351" s="29">
+        <v>3</v>
+      </c>
+      <c r="F351" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="G351" s="23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
+      <c r="E352" s="29">
+        <v>4</v>
+      </c>
+      <c r="F352" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="G352" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="H352" s="23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
+      <c r="E353" s="29">
+        <v>5</v>
+      </c>
+      <c r="F353" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="G353" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="H353" s="23" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
+      <c r="E354" s="29">
+        <v>6</v>
+      </c>
+      <c r="F354" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="G354" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
+      <c r="E355" s="29">
+        <v>7</v>
+      </c>
+      <c r="F355" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G355" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
+      <c r="A356" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B356" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C356" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D356" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E356" s="29">
+        <v>1</v>
+      </c>
+      <c r="F356" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="G356" s="23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
+      <c r="E357" s="29">
+        <v>2</v>
+      </c>
+      <c r="F357" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="G357" s="23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
+      <c r="E358" s="29">
+        <v>3</v>
+      </c>
+      <c r="F358" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="G358" s="23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
+      <c r="E359" s="29">
+        <v>4</v>
+      </c>
+      <c r="F359" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G359" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="H359" s="23" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
+      <c r="E360" s="29">
+        <v>5</v>
+      </c>
+      <c r="F360" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="G360" s="23" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
+      <c r="E361" s="29">
+        <v>6</v>
+      </c>
+      <c r="F361" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="G361" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="H361" s="23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
+      <c r="E362" s="29">
+        <v>7</v>
+      </c>
+      <c r="F362" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="G362" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="H362" s="23" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
+      <c r="E363" s="29">
+        <v>8</v>
+      </c>
+      <c r="F363" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="G363" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
+      <c r="A364" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B364" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C364" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="D364" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="E364" s="29">
+        <v>1</v>
+      </c>
+      <c r="F364" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="G364" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="H364" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
+      <c r="E365" s="29">
+        <v>2</v>
+      </c>
+      <c r="F365" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="G365" s="23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
+      <c r="E366" s="29">
+        <v>3</v>
+      </c>
+      <c r="F366" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="G366" s="23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
+      <c r="E367" s="29">
+        <v>4</v>
+      </c>
+      <c r="F367" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G367" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="H367" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
+      <c r="E368" s="29">
+        <v>5</v>
+      </c>
+      <c r="F368" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="G368" s="23" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="E369" s="29">
+        <v>6</v>
+      </c>
+      <c r="F369" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="G369" s="23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="E370" s="29">
+        <v>7</v>
+      </c>
+      <c r="F370" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="G370" s="23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
+      <c r="E371" s="29">
+        <v>8</v>
+      </c>
+      <c r="F371" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="G371" s="23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
+      <c r="E372" s="29">
+        <v>9</v>
+      </c>
+      <c r="F372" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="G372" s="23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
+      <c r="E373" s="29">
+        <v>10</v>
+      </c>
+      <c r="F373" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="G373" s="23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
+      <c r="A374" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B374" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C374" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D374" s="23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
+      <c r="A375" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B375" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C375" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D375" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
+      <c r="A376" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B376" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C376" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="D376" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
+      <c r="A377" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B377" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C377" s="23" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="G149" s="23" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="G150" s="23" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="A151" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B151" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C151" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="D151" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="E151" s="29">
-        <v>1</v>
-      </c>
-      <c r="G151" s="23" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="G152" s="23" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="G153" s="23" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="G154" s="23" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="G155" s="23" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="G156" s="23" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="G157" s="23" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="G158" s="23" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B159" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C159" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="D159" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="E159" s="29">
-        <v>1</v>
-      </c>
-      <c r="G159" s="23" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="G160" s="23" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="G161" s="23" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="G162" s="23" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="G163" s="23" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B164" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C164" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="D164" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="E164" s="29">
-        <v>1</v>
-      </c>
-      <c r="G164" s="23" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="G165" s="23" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="G166" s="23" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="G167" s="23" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="G168" s="23" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B169" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C169" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="D169" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="E169" s="29">
-        <v>1</v>
-      </c>
-      <c r="G169" s="23" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="G170" s="23" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="G171" s="23" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="G172" s="23" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="G173" s="23" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B174" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C174" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="D174" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="E174" s="29">
-        <v>1</v>
-      </c>
-      <c r="G174" s="23" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="G175" s="23" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="G176" s="23" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="G177" s="23" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="G178" s="23" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
-      <c r="A179" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B179" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C179" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="D179" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="E179" s="29">
-        <v>1</v>
-      </c>
-      <c r="G179" s="23" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
-      <c r="G180" s="23" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
-      <c r="G181" s="23" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
-      <c r="G182" s="23" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
-      <c r="G183" s="23" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="G184" s="23" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B185" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C185" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D185" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="E185" s="29">
-        <v>1</v>
-      </c>
-      <c r="G185" s="23" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="G186" s="23" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="G187" s="23" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="G188" s="23" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="G189" s="23" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B190" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C190" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="D190" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="E190" s="29">
-        <v>1</v>
-      </c>
-      <c r="G190" s="23" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="G191" s="23" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
-      <c r="G192" s="23" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
-      <c r="G193" s="23" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
-      <c r="G194" s="23" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
-      <c r="A195" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B195" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C195" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="D195" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="E195" s="29">
-        <v>1</v>
-      </c>
-      <c r="G195" s="23" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="G196" s="23" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
-      <c r="G197" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="H197" s="23" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
-      <c r="G198" s="23" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
-      <c r="A199" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B199" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C199" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="D199" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="E199" s="29">
-        <v>1</v>
-      </c>
-      <c r="G199" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="H199" s="23" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
-      <c r="G200" s="23" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
-      <c r="G201" s="23" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
-      <c r="G202" s="23" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
-      <c r="G203" s="23" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
-      <c r="G204" s="23" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="G205" s="23" t="s">
-        <v>320</v>
+      <c r="D377" s="23" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R176"/>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5">
@@ -6237,10 +9148,10 @@
         <v>77</v>
       </c>
       <c r="C2" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>207</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>208</v>
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -6258,10 +9169,10 @@
         <v>77</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
@@ -6277,10 +9188,10 @@
         <v>77</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
@@ -6296,10 +9207,10 @@
         <v>77</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
@@ -6308,10 +9219,18 @@
       <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9" ht="16.5">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="A6" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>281</v>
+      </c>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
@@ -6319,10 +9238,18 @@
       <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:9" ht="16.5">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="A7" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>379</v>
+      </c>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
@@ -6330,16 +9257,131 @@
       <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" ht="16.5">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="A8" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>386</v>
+      </c>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
     </row>
+    <row r="9" spans="1:9" ht="16.5">
+      <c r="A9" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/B01/t01.xlsx
+++ b/B01/t01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3957" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="1025">
   <si>
     <t>Version</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2408,10 +2408,6 @@
     <t>Cert_Type_Name</t>
   </si>
   <si>
-    <t>Acct_Name</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>行业类型</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -3400,6 +3396,12 @@
   </si>
   <si>
     <t>期望年薪（月薪）</t>
+  </si>
+  <si>
+    <t>Cert_Id</t>
+  </si>
+  <si>
+    <t>证件编码</t>
   </si>
 </sst>
 </file>
@@ -5001,7 +5003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -5349,7 +5351,7 @@
         <v>78</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>91</v>
@@ -5469,7 +5471,7 @@
         <v>76</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>97</v>
@@ -5492,7 +5494,7 @@
         <v>76</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>171</v>
@@ -5544,7 +5546,7 @@
         <v>91</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H11" s="24" t="s">
         <v>93</v>
@@ -5578,10 +5580,10 @@
         <v>76</v>
       </c>
       <c r="C13" s="33" t="s">
+        <v>709</v>
+      </c>
+      <c r="D13" s="33" t="s">
         <v>710</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>711</v>
       </c>
       <c r="E13" s="33" t="s">
         <v>91</v>
@@ -5642,7 +5644,7 @@
         <v>76</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>484</v>
@@ -6082,7 +6084,7 @@
         <v>76</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D38" s="23" t="s">
         <v>315</v>
@@ -6162,16 +6164,16 @@
         <v>76</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>91</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H42" s="24" t="s">
         <v>341</v>
@@ -6277,7 +6279,7 @@
         <v>91</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H47" s="24" t="s">
         <v>93</v>
@@ -6291,16 +6293,16 @@
         <v>76</v>
       </c>
       <c r="C48" s="23" t="s">
+        <v>766</v>
+      </c>
+      <c r="D48" s="23" t="s">
         <v>767</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>768</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>91</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H48" s="24" t="s">
         <v>93</v>
@@ -6314,16 +6316,16 @@
         <v>76</v>
       </c>
       <c r="C49" s="23" t="s">
+        <v>769</v>
+      </c>
+      <c r="D49" s="23" t="s">
         <v>770</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>771</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>91</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H49" s="24" t="s">
         <v>93</v>
@@ -6337,16 +6339,16 @@
         <v>76</v>
       </c>
       <c r="C50" s="23" t="s">
+        <v>772</v>
+      </c>
+      <c r="D50" s="23" t="s">
         <v>773</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>774</v>
       </c>
       <c r="E50" s="23" t="s">
         <v>91</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H50" s="24" t="s">
         <v>93</v>
@@ -6692,10 +6694,10 @@
         <v>76</v>
       </c>
       <c r="C67" s="23" t="s">
+        <v>965</v>
+      </c>
+      <c r="D67" s="23" t="s">
         <v>966</v>
-      </c>
-      <c r="D67" s="23" t="s">
-        <v>967</v>
       </c>
       <c r="E67" s="23" t="s">
         <v>203</v>
@@ -6752,7 +6754,7 @@
         <v>76</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D70" s="23" t="s">
         <v>465</v>
@@ -7032,10 +7034,10 @@
         <v>76</v>
       </c>
       <c r="C84" s="23" t="s">
+        <v>731</v>
+      </c>
+      <c r="D84" s="23" t="s">
         <v>732</v>
-      </c>
-      <c r="D84" s="23" t="s">
-        <v>733</v>
       </c>
       <c r="E84" s="23" t="s">
         <v>91</v>
@@ -7052,16 +7054,16 @@
         <v>76</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E85" s="23" t="s">
         <v>203</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H85" s="24" t="s">
         <v>93</v>
@@ -7075,7 +7077,7 @@
         <v>76</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D86" s="23" t="s">
         <v>321</v>
@@ -7095,16 +7097,16 @@
         <v>76</v>
       </c>
       <c r="C87" s="23" t="s">
+        <v>781</v>
+      </c>
+      <c r="D87" s="23" t="s">
         <v>782</v>
-      </c>
-      <c r="D87" s="23" t="s">
-        <v>783</v>
       </c>
       <c r="E87" s="23" t="s">
         <v>203</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -7115,10 +7117,10 @@
         <v>76</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E88" s="23" t="s">
         <v>203</v>
@@ -7135,16 +7137,16 @@
         <v>76</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E89" s="23" t="s">
         <v>203</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H89" s="24" t="s">
         <v>93</v>
@@ -7158,10 +7160,10 @@
         <v>76</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E90" s="23" t="s">
         <v>203</v>
@@ -7178,10 +7180,10 @@
         <v>76</v>
       </c>
       <c r="C91" s="23" t="s">
+        <v>928</v>
+      </c>
+      <c r="D91" s="23" t="s">
         <v>929</v>
-      </c>
-      <c r="D91" s="23" t="s">
-        <v>930</v>
       </c>
       <c r="E91" s="23" t="s">
         <v>203</v>
@@ -7198,10 +7200,10 @@
         <v>76</v>
       </c>
       <c r="C92" s="23" t="s">
+        <v>971</v>
+      </c>
+      <c r="D92" s="23" t="s">
         <v>972</v>
-      </c>
-      <c r="D92" s="23" t="s">
-        <v>973</v>
       </c>
       <c r="E92" s="23" t="s">
         <v>203</v>
@@ -7218,16 +7220,16 @@
         <v>76</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E93" s="23" t="s">
         <v>203</v>
       </c>
       <c r="F93" s="24" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H93" s="24" t="s">
         <v>93</v>
@@ -7241,10 +7243,10 @@
         <v>76</v>
       </c>
       <c r="C94" s="23" t="s">
+        <v>998</v>
+      </c>
+      <c r="D94" s="23" t="s">
         <v>999</v>
-      </c>
-      <c r="D94" s="23" t="s">
-        <v>1000</v>
       </c>
       <c r="E94" s="23" t="s">
         <v>203</v>
@@ -7261,10 +7263,10 @@
         <v>76</v>
       </c>
       <c r="C95" s="23" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D95" s="23" t="s">
         <v>1005</v>
-      </c>
-      <c r="D95" s="23" t="s">
-        <v>1006</v>
       </c>
       <c r="E95" s="23" t="s">
         <v>203</v>
@@ -7281,10 +7283,10 @@
         <v>76</v>
       </c>
       <c r="C96" s="23" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D96" s="23" t="s">
         <v>1011</v>
-      </c>
-      <c r="D96" s="23" t="s">
-        <v>1012</v>
       </c>
       <c r="E96" s="23" t="s">
         <v>203</v>
@@ -7301,10 +7303,10 @@
         <v>76</v>
       </c>
       <c r="C97" s="23" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D97" s="23" t="s">
         <v>1017</v>
-      </c>
-      <c r="D97" s="23" t="s">
-        <v>1018</v>
       </c>
       <c r="E97" s="23" t="s">
         <v>203</v>
@@ -7329,10 +7331,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S778"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E183" sqref="E183"/>
+      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -7389,7 +7391,7 @@
         <v>263</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="L1" s="20" t="s">
         <v>63</v>
@@ -7459,7 +7461,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>704</v>
+        <v>176</v>
       </c>
       <c r="G3" s="23" t="s">
         <v>177</v>
@@ -7468,7 +7470,7 @@
         <v>411</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J3" s="23">
         <v>200</v>
@@ -7485,7 +7487,7 @@
         <v>195</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -7499,7 +7501,7 @@
         <v>206</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J5" s="23">
         <v>6</v>
@@ -7519,7 +7521,7 @@
         <v>552</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J6" s="23">
         <v>2</v>
@@ -7533,19 +7535,16 @@
         <v>6</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>702</v>
+        <v>1023</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>552</v>
+        <v>1024</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J7" s="23">
         <v>2</v>
-      </c>
-      <c r="O7" s="23" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -7559,7 +7558,7 @@
         <v>414</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -7573,7 +7572,7 @@
         <v>178</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J9" s="23">
         <v>50</v>
@@ -7613,7 +7612,7 @@
         <v>383</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J11" s="23">
         <v>200</v>
@@ -7630,7 +7629,7 @@
         <v>413</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J12" s="23">
         <v>1</v>
@@ -7730,7 +7729,7 @@
         <v>185</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J17" s="23">
         <v>30</v>
@@ -7747,7 +7746,7 @@
         <v>184</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J18" s="23">
         <v>30</v>
@@ -7764,7 +7763,7 @@
         <v>186</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J19" s="23">
         <v>50</v>
@@ -7781,7 +7780,7 @@
         <v>194</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J20" s="23">
         <v>6</v>
@@ -7801,7 +7800,7 @@
         <v>196</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J21" s="23">
         <v>2</v>
@@ -7821,7 +7820,7 @@
         <v>197</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J22" s="23">
         <v>1</v>
@@ -7838,7 +7837,7 @@
         <v>461</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J23" s="23">
         <v>6</v>
@@ -7861,7 +7860,7 @@
         <v>462</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J24" s="23">
         <v>6</v>
@@ -7875,13 +7874,13 @@
         <v>18</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G25" s="23" t="s">
         <v>200</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J25" s="23">
         <v>200</v>
@@ -7898,13 +7897,13 @@
         <v>19</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G26" s="23" t="s">
         <v>207</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J26" s="23">
         <v>6</v>
@@ -7918,13 +7917,13 @@
         <v>20</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G27" s="23" t="s">
         <v>198</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J27" s="23">
         <v>200</v>
@@ -7935,13 +7934,13 @@
         <v>21</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G28" s="23" t="s">
         <v>208</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="J28" s="23">
         <v>10</v>
@@ -7955,13 +7954,13 @@
         <v>22</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G29" s="23" t="s">
         <v>209</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="J29" s="23">
         <v>10</v>
@@ -7975,13 +7974,13 @@
         <v>23</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G30" s="23" t="s">
         <v>199</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J30" s="23">
         <v>2</v>
@@ -7998,10 +7997,10 @@
         <v>667</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J31" s="23">
         <v>6</v>
@@ -8018,10 +8017,10 @@
         <v>668</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J32" s="23">
         <v>30</v>
@@ -8070,7 +8069,7 @@
         <v>177</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J34" s="23">
         <v>200</v>
@@ -8081,13 +8080,13 @@
         <v>3</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G35" s="23" t="s">
         <v>428</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J35" s="23">
         <v>2</v>
@@ -8101,13 +8100,13 @@
         <v>4</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J36" s="23">
         <v>2</v>
@@ -8127,7 +8126,7 @@
         <v>422</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J37" s="23">
         <v>100</v>
@@ -8138,13 +8137,13 @@
         <v>6</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G38" s="23" t="s">
         <v>423</v>
       </c>
       <c r="I38" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -8152,7 +8151,7 @@
         <v>7</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G39" s="23" t="s">
         <v>424</v>
@@ -8169,13 +8168,13 @@
         <v>8</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G40" s="23" t="s">
         <v>425</v>
       </c>
       <c r="I40" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J40" s="23">
         <v>200</v>
@@ -8198,13 +8197,13 @@
         <v>1</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G41" s="23" t="s">
         <v>428</v>
       </c>
       <c r="I41" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J41" s="23">
         <v>2</v>
@@ -8218,13 +8217,13 @@
         <v>2</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G42" s="23" t="s">
         <v>429</v>
       </c>
       <c r="I42" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J42" s="23">
         <v>30</v>
@@ -8244,7 +8243,7 @@
         <v>382</v>
       </c>
       <c r="I43" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J43" s="23">
         <v>30</v>
@@ -8264,7 +8263,7 @@
         <v>383</v>
       </c>
       <c r="I44" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J44" s="23">
         <v>200</v>
@@ -8281,7 +8280,7 @@
         <v>284</v>
       </c>
       <c r="I45" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -8295,7 +8294,7 @@
         <v>283</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J46" s="23">
         <v>1</v>
@@ -8344,7 +8343,7 @@
         <v>177</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J48" s="23">
         <v>200</v>
@@ -8361,7 +8360,7 @@
         <v>181</v>
       </c>
       <c r="I49" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="L49" s="40" t="s">
         <v>59</v>
@@ -8378,7 +8377,7 @@
         <v>182</v>
       </c>
       <c r="I50" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J50" s="23">
         <v>200</v>
@@ -8412,7 +8411,7 @@
         <v>347</v>
       </c>
       <c r="I52" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -8426,7 +8425,7 @@
         <v>346</v>
       </c>
       <c r="I53" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -8472,7 +8471,7 @@
         <v>177</v>
       </c>
       <c r="I55" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J55" s="23">
         <v>200</v>
@@ -8489,7 +8488,7 @@
         <v>190</v>
       </c>
       <c r="I56" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J56" s="23">
         <v>50</v>
@@ -8506,7 +8505,7 @@
         <v>191</v>
       </c>
       <c r="I57" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J57" s="23">
         <v>50</v>
@@ -8523,7 +8522,7 @@
         <v>189</v>
       </c>
       <c r="I58" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -8537,7 +8536,7 @@
         <v>349</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -8551,7 +8550,7 @@
         <v>348</v>
       </c>
       <c r="I60" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J60" s="23">
         <v>1</v>
@@ -8580,7 +8579,7 @@
         <v>192</v>
       </c>
       <c r="I61" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J61" s="23">
         <v>30</v>
@@ -8600,7 +8599,7 @@
         <v>193</v>
       </c>
       <c r="I62" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J62" s="23">
         <v>200</v>
@@ -8611,13 +8610,13 @@
         <v>3</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G63" s="23" t="s">
         <v>210</v>
       </c>
       <c r="I63" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J63" s="23">
         <v>30</v>
@@ -8628,13 +8627,13 @@
         <v>4</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="G64" s="23" t="s">
         <v>211</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J64" s="23">
         <v>6</v>
@@ -8648,13 +8647,13 @@
         <v>5</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G65" s="23" t="s">
         <v>212</v>
       </c>
       <c r="I65" s="23" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J65" s="23">
         <v>20</v>
@@ -8668,13 +8667,13 @@
         <v>6</v>
       </c>
       <c r="F66" s="23" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G66" s="23" t="s">
         <v>213</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J66" s="23">
         <v>100</v>
@@ -8685,13 +8684,13 @@
         <v>7</v>
       </c>
       <c r="F67" s="23" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G67" s="23" t="s">
         <v>214</v>
       </c>
       <c r="I67" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J67" s="23">
         <v>100</v>
@@ -8702,13 +8701,13 @@
         <v>8</v>
       </c>
       <c r="F68" s="23" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G68" s="23" t="s">
         <v>215</v>
       </c>
       <c r="I68" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J68" s="23">
         <v>200</v>
@@ -8719,13 +8718,13 @@
         <v>9</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G69" s="23" t="s">
         <v>216</v>
       </c>
       <c r="I69" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J69" s="23">
         <v>30</v>
@@ -8736,13 +8735,13 @@
         <v>10</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G70" s="23" t="s">
         <v>217</v>
       </c>
       <c r="I70" s="23" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="71" spans="5:15">
@@ -8756,7 +8755,7 @@
         <v>218</v>
       </c>
       <c r="I71" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J71" s="23">
         <v>6</v>
@@ -8770,13 +8769,13 @@
         <v>12</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G72" s="23" t="s">
         <v>219</v>
       </c>
       <c r="I72" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J72" s="23">
         <v>6</v>
@@ -8790,13 +8789,13 @@
         <v>13</v>
       </c>
       <c r="F73" s="23" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G73" s="23" t="s">
         <v>220</v>
       </c>
       <c r="I73" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J73" s="23">
         <v>5</v>
@@ -8807,13 +8806,13 @@
         <v>14</v>
       </c>
       <c r="F74" s="23" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G74" s="23" t="s">
         <v>221</v>
       </c>
       <c r="I74" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J74" s="23">
         <v>5</v>
@@ -8824,13 +8823,13 @@
         <v>15</v>
       </c>
       <c r="F75" s="23" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G75" s="23" t="s">
         <v>222</v>
       </c>
       <c r="I75" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J75" s="23">
         <v>5</v>
@@ -8841,13 +8840,13 @@
         <v>16</v>
       </c>
       <c r="F76" s="23" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G76" s="23" t="s">
         <v>223</v>
       </c>
       <c r="I76" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J76" s="23">
         <v>1</v>
@@ -8858,13 +8857,13 @@
         <v>17</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G77" s="23" t="s">
         <v>228</v>
       </c>
       <c r="I77" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J77" s="23">
         <v>200</v>
@@ -8875,13 +8874,13 @@
         <v>18</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="G78" s="23" t="s">
         <v>229</v>
       </c>
       <c r="I78" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J78" s="23">
         <v>10</v>
@@ -8892,13 +8891,13 @@
         <v>19</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="G79" s="23" t="s">
         <v>224</v>
       </c>
       <c r="I79" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J79" s="23">
         <v>30</v>
@@ -8909,13 +8908,13 @@
         <v>20</v>
       </c>
       <c r="F80" s="23" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G80" s="23" t="s">
         <v>225</v>
       </c>
       <c r="I80" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J80" s="23">
         <v>30</v>
@@ -8932,7 +8931,7 @@
         <v>226</v>
       </c>
       <c r="I81" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J81" s="23">
         <v>50</v>
@@ -8943,13 +8942,13 @@
         <v>22</v>
       </c>
       <c r="F82" s="23" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G82" s="23" t="s">
         <v>227</v>
       </c>
       <c r="I82" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J82" s="23">
         <v>200</v>
@@ -8995,7 +8994,7 @@
         <v>177</v>
       </c>
       <c r="I84" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J84" s="23">
         <v>200</v>
@@ -9013,7 +9012,7 @@
         <v>192</v>
       </c>
       <c r="I85" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J85" s="23">
         <v>30</v>
@@ -9031,7 +9030,7 @@
         <v>193</v>
       </c>
       <c r="I86" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J86" s="23">
         <v>200</v>
@@ -9049,7 +9048,7 @@
         <v>351</v>
       </c>
       <c r="I87" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J87" s="23">
         <v>2</v>
@@ -9073,7 +9072,7 @@
         <v>382</v>
       </c>
       <c r="I88" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J88" s="23">
         <v>30</v>
@@ -9094,7 +9093,7 @@
         <v>383</v>
       </c>
       <c r="I89" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J89" s="23">
         <v>200</v>
@@ -9112,7 +9111,7 @@
         <v>284</v>
       </c>
       <c r="I90" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -9127,7 +9126,7 @@
         <v>283</v>
       </c>
       <c r="I91" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J91" s="23">
         <v>1</v>
@@ -9156,7 +9155,7 @@
         <v>353</v>
       </c>
       <c r="I92" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J92" s="23">
         <v>2</v>
@@ -9177,7 +9176,7 @@
         <v>354</v>
       </c>
       <c r="I93" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J93" s="23">
         <v>30</v>
@@ -9198,7 +9197,7 @@
         <v>382</v>
       </c>
       <c r="I94" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J94" s="23">
         <v>30</v>
@@ -9219,7 +9218,7 @@
         <v>383</v>
       </c>
       <c r="I95" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J95" s="23">
         <v>200</v>
@@ -9237,7 +9236,7 @@
         <v>284</v>
       </c>
       <c r="I96" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -9252,7 +9251,7 @@
         <v>283</v>
       </c>
       <c r="I97" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J97" s="23">
         <v>1</v>
@@ -9298,7 +9297,7 @@
         <v>177</v>
       </c>
       <c r="I99" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J99" s="23">
         <v>200</v>
@@ -9316,7 +9315,7 @@
         <v>358</v>
       </c>
       <c r="I100" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J100" s="23">
         <v>2</v>
@@ -9337,7 +9336,7 @@
         <v>231</v>
       </c>
       <c r="I101" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J101" s="23">
         <v>30</v>
@@ -9355,7 +9354,7 @@
         <v>232</v>
       </c>
       <c r="I102" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J102" s="23">
         <v>200</v>
@@ -9384,7 +9383,7 @@
         <v>358</v>
       </c>
       <c r="I103" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J103" s="23">
         <v>2</v>
@@ -9405,7 +9404,7 @@
         <v>359</v>
       </c>
       <c r="I104" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J104" s="23">
         <v>30</v>
@@ -9426,7 +9425,7 @@
         <v>382</v>
       </c>
       <c r="I105" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J105" s="23">
         <v>30</v>
@@ -9447,7 +9446,7 @@
         <v>383</v>
       </c>
       <c r="I106" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J106" s="23">
         <v>200</v>
@@ -9465,7 +9464,7 @@
         <v>284</v>
       </c>
       <c r="I107" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -9480,7 +9479,7 @@
         <v>283</v>
       </c>
       <c r="I108" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J108" s="23">
         <v>1</v>
@@ -9494,22 +9493,22 @@
         <v>76</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E109" s="29">
         <v>1</v>
       </c>
       <c r="F109" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="G109" s="23" t="s">
         <v>735</v>
       </c>
-      <c r="G109" s="23" t="s">
-        <v>736</v>
-      </c>
       <c r="I109" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J109" s="23">
         <v>30</v>
@@ -9523,13 +9522,13 @@
         <v>2</v>
       </c>
       <c r="F110" s="23" t="s">
+        <v>736</v>
+      </c>
+      <c r="G110" s="23" t="s">
         <v>737</v>
       </c>
-      <c r="G110" s="23" t="s">
-        <v>738</v>
-      </c>
       <c r="I110" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J110" s="23">
         <v>200</v>
@@ -9546,7 +9545,7 @@
         <v>487</v>
       </c>
       <c r="I111" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J111" s="23">
         <v>200</v>
@@ -9586,7 +9585,7 @@
         <v>383</v>
       </c>
       <c r="I113" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J113" s="23">
         <v>200</v>
@@ -9603,7 +9602,7 @@
         <v>488</v>
       </c>
       <c r="I114" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J114" s="23">
         <v>200</v>
@@ -9634,10 +9633,10 @@
         <v>686</v>
       </c>
       <c r="G116" s="23" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I116" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J116" s="23">
         <v>6</v>
@@ -9654,10 +9653,10 @@
         <v>692</v>
       </c>
       <c r="G117" s="23" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I117" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J117" s="23">
         <v>6</v>
@@ -9671,13 +9670,13 @@
         <v>10</v>
       </c>
       <c r="F118" s="23" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="G118" s="23" t="s">
         <v>331</v>
       </c>
       <c r="I118" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J118" s="23">
         <v>6</v>
@@ -9729,7 +9728,7 @@
         <v>177</v>
       </c>
       <c r="I120" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J120" s="23">
         <v>200</v>
@@ -9746,7 +9745,7 @@
         <v>233</v>
       </c>
       <c r="I121" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J121" s="23">
         <v>30</v>
@@ -9766,7 +9765,7 @@
         <v>234</v>
       </c>
       <c r="I122" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J122" s="23">
         <v>200</v>
@@ -9786,7 +9785,7 @@
         <v>435</v>
       </c>
       <c r="I123" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J123" s="23">
         <v>2</v>
@@ -9806,7 +9805,7 @@
         <v>355</v>
       </c>
       <c r="I124" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J124" s="23">
         <v>1</v>
@@ -9824,7 +9823,7 @@
         <v>284</v>
       </c>
       <c r="I125" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="126" spans="1:15">
@@ -9850,7 +9849,7 @@
         <v>233</v>
       </c>
       <c r="I126" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J126" s="23">
         <v>30</v>
@@ -9871,7 +9870,7 @@
         <v>436</v>
       </c>
       <c r="I127" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J127" s="23">
         <v>200</v>
@@ -9889,7 +9888,7 @@
         <v>235</v>
       </c>
       <c r="I128" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J128" s="23">
         <v>200</v>
@@ -9910,7 +9909,7 @@
         <v>435</v>
       </c>
       <c r="I129" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J129" s="23">
         <v>2</v>
@@ -9934,7 +9933,7 @@
         <v>485</v>
       </c>
       <c r="I130" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J130" s="23">
         <v>200</v>
@@ -9952,7 +9951,7 @@
         <v>486</v>
       </c>
       <c r="I131" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J131" s="23">
         <v>200</v>
@@ -9970,7 +9969,7 @@
         <v>487</v>
       </c>
       <c r="I132" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J132" s="23">
         <v>200</v>
@@ -9988,7 +9987,7 @@
         <v>587</v>
       </c>
       <c r="I133" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J133" s="23">
         <v>2</v>
@@ -10009,7 +10008,7 @@
         <v>488</v>
       </c>
       <c r="I134" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J134" s="23">
         <v>200</v>
@@ -10024,10 +10023,10 @@
         <v>686</v>
       </c>
       <c r="G135" s="23" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I135" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J135" s="23">
         <v>6</v>
@@ -10045,10 +10044,10 @@
         <v>692</v>
       </c>
       <c r="G136" s="23" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I136" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J136" s="23">
         <v>6</v>
@@ -10069,7 +10068,7 @@
         <v>643</v>
       </c>
       <c r="I137" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J137" s="23">
         <v>30</v>
@@ -10087,7 +10086,7 @@
         <v>489</v>
       </c>
       <c r="I138" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J138" s="23">
         <v>200</v>
@@ -10099,7 +10098,7 @@
         <v>14</v>
       </c>
       <c r="F139" s="23" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G139" s="23" t="s">
         <v>492</v>
@@ -10108,7 +10107,7 @@
         <v>493</v>
       </c>
       <c r="I139" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J139" s="23">
         <v>6</v>
@@ -10123,13 +10122,13 @@
         <v>15</v>
       </c>
       <c r="F140" s="23" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G140" s="23" t="s">
         <v>490</v>
       </c>
       <c r="I140" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J140" s="23">
         <v>6</v>
@@ -10144,13 +10143,13 @@
         <v>16</v>
       </c>
       <c r="F141" s="23" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G141" s="23" t="s">
         <v>491</v>
       </c>
       <c r="I141" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J141" s="23">
         <v>6</v>
@@ -10174,7 +10173,7 @@
         <v>382</v>
       </c>
       <c r="I142" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J142" s="23">
         <v>30</v>
@@ -10195,7 +10194,7 @@
         <v>383</v>
       </c>
       <c r="I143" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J143" s="23">
         <v>200</v>
@@ -10213,7 +10212,7 @@
         <v>284</v>
       </c>
       <c r="I144" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="145" spans="1:15">
@@ -10224,7 +10223,7 @@
         <v>76</v>
       </c>
       <c r="C145" s="23" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D145" s="23" t="s">
         <v>484</v>
@@ -10239,7 +10238,7 @@
         <v>361</v>
       </c>
       <c r="I145" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J145" s="23">
         <v>2</v>
@@ -10259,7 +10258,7 @@
         <v>362</v>
       </c>
       <c r="I146" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J146" s="23">
         <v>30</v>
@@ -10279,7 +10278,7 @@
         <v>382</v>
       </c>
       <c r="I147" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J147" s="23">
         <v>30</v>
@@ -10299,7 +10298,7 @@
         <v>383</v>
       </c>
       <c r="I148" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J148" s="23">
         <v>200</v>
@@ -10316,7 +10315,7 @@
         <v>284</v>
       </c>
       <c r="I149" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="150" spans="1:15">
@@ -10330,7 +10329,7 @@
         <v>283</v>
       </c>
       <c r="I150" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J150" s="23">
         <v>1</v>
@@ -10359,7 +10358,7 @@
         <v>233</v>
       </c>
       <c r="I151" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J151" s="23">
         <v>30</v>
@@ -10379,7 +10378,7 @@
         <v>234</v>
       </c>
       <c r="I152" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J152" s="23">
         <v>200</v>
@@ -10390,13 +10389,13 @@
         <v>3</v>
       </c>
       <c r="F153" s="23" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G153" s="23" t="s">
         <v>238</v>
       </c>
       <c r="I153" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J153" s="23">
         <v>6</v>
@@ -10410,13 +10409,13 @@
         <v>4</v>
       </c>
       <c r="F154" s="23" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G154" s="23" t="s">
         <v>239</v>
       </c>
       <c r="I154" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J154" s="23">
         <v>6</v>
@@ -10430,13 +10429,13 @@
         <v>5</v>
       </c>
       <c r="F155" s="23" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G155" s="23" t="s">
         <v>240</v>
       </c>
       <c r="I155" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J155" s="23">
         <v>6</v>
@@ -10471,7 +10470,7 @@
         <v>233</v>
       </c>
       <c r="I156" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J156" s="23">
         <v>30</v>
@@ -10488,7 +10487,7 @@
         <v>436</v>
       </c>
       <c r="I157" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J157" s="23">
         <v>200</v>
@@ -10505,7 +10504,7 @@
         <v>494</v>
       </c>
       <c r="I158" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J158" s="23">
         <v>30</v>
@@ -10522,7 +10521,7 @@
         <v>495</v>
       </c>
       <c r="I159" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J159" s="23">
         <v>1</v>
@@ -10539,7 +10538,7 @@
         <v>184</v>
       </c>
       <c r="I160" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J160" s="23">
         <v>30</v>
@@ -10556,7 +10555,7 @@
         <v>496</v>
       </c>
       <c r="I161" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J161" s="23">
         <v>50</v>
@@ -10573,7 +10572,7 @@
         <v>497</v>
       </c>
       <c r="I162" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J162" s="23">
         <v>6</v>
@@ -10587,13 +10586,13 @@
         <v>8</v>
       </c>
       <c r="F163" s="23" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G163" s="23" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I163" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J163" s="23">
         <v>30</v>
@@ -10604,7 +10603,7 @@
         <v>9</v>
       </c>
       <c r="F164" s="23" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G164" s="23" t="s">
         <v>589</v>
@@ -10613,7 +10612,7 @@
         <v>500</v>
       </c>
       <c r="I164" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J164" s="23">
         <v>2</v>
@@ -10645,7 +10644,7 @@
         <v>233</v>
       </c>
       <c r="I165" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J165" s="23">
         <v>30</v>
@@ -10662,7 +10661,7 @@
         <v>436</v>
       </c>
       <c r="I166" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J166" s="23">
         <v>200</v>
@@ -10679,7 +10678,7 @@
         <v>501</v>
       </c>
       <c r="I167" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J167" s="23">
         <v>6</v>
@@ -10699,7 +10698,7 @@
         <v>502</v>
       </c>
       <c r="I168" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J168" s="23">
         <v>6</v>
@@ -10719,7 +10718,7 @@
         <v>503</v>
       </c>
       <c r="I169" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J169" s="23">
         <v>200</v>
@@ -10730,13 +10729,13 @@
         <v>6</v>
       </c>
       <c r="F170" s="23" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G170" s="23" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="I170" s="23" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J170" s="23">
         <v>10</v>
@@ -10747,13 +10746,13 @@
         <v>7</v>
       </c>
       <c r="F171" s="23" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G171" s="23" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I171" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J171" s="23">
         <v>2</v>
@@ -10764,13 +10763,13 @@
         <v>8</v>
       </c>
       <c r="F172" s="23" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G172" s="23" t="s">
         <v>504</v>
       </c>
       <c r="I172" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J172" s="23">
         <v>2</v>
@@ -10781,13 +10780,13 @@
         <v>9</v>
       </c>
       <c r="F173" s="23" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G173" s="23" t="s">
         <v>505</v>
       </c>
       <c r="I173" s="23" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J173" s="23">
         <v>10</v>
@@ -10798,13 +10797,13 @@
         <v>10</v>
       </c>
       <c r="F174" s="23" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G174" s="23" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I174" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J174" s="23">
         <v>1</v>
@@ -10815,13 +10814,13 @@
         <v>11</v>
       </c>
       <c r="F175" s="23" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G175" s="23" t="s">
         <v>506</v>
       </c>
       <c r="I175" s="23" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J175" s="23">
         <v>10</v>
@@ -10832,13 +10831,13 @@
         <v>12</v>
       </c>
       <c r="F176" s="23" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G176" s="23" t="s">
         <v>504</v>
       </c>
       <c r="I176" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J176" s="23">
         <v>2</v>
@@ -10849,13 +10848,13 @@
         <v>13</v>
       </c>
       <c r="F177" s="23" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G177" s="23" t="s">
         <v>505</v>
       </c>
       <c r="I177" s="23" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J177" s="23">
         <v>10</v>
@@ -10866,13 +10865,13 @@
         <v>14</v>
       </c>
       <c r="F178" s="23" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G178" s="23" t="s">
         <v>507</v>
       </c>
       <c r="I178" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J178" s="23">
         <v>1</v>
@@ -10901,7 +10900,7 @@
         <v>233</v>
       </c>
       <c r="I179" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J179" s="23">
         <v>30</v>
@@ -10921,7 +10920,7 @@
         <v>436</v>
       </c>
       <c r="I180" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J180" s="23">
         <v>200</v>
@@ -10938,7 +10937,7 @@
         <v>523</v>
       </c>
       <c r="I181" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J181" s="23">
         <v>200</v>
@@ -10949,13 +10948,13 @@
         <v>4</v>
       </c>
       <c r="F182" s="23" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G182" s="23" t="s">
         <v>488</v>
       </c>
       <c r="I182" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J182" s="23">
         <v>200</v>
@@ -10966,13 +10965,13 @@
         <v>5</v>
       </c>
       <c r="F183" s="23" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G183" s="23" t="s">
         <v>524</v>
       </c>
       <c r="I183" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J183" s="23">
         <v>100</v>
@@ -10986,10 +10985,10 @@
         <v>646</v>
       </c>
       <c r="G184" s="23" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I184" s="23" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="185" spans="1:15">
@@ -11000,10 +10999,10 @@
         <v>647</v>
       </c>
       <c r="G185" s="23" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I185" s="23" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="186" spans="1:15">
@@ -11020,7 +11019,7 @@
         <v>528</v>
       </c>
       <c r="I186" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J186" s="23">
         <v>1000</v>
@@ -11040,7 +11039,7 @@
         <v>528</v>
       </c>
       <c r="I187" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J187" s="23">
         <v>1000</v>
@@ -11060,7 +11059,7 @@
         <v>528</v>
       </c>
       <c r="I188" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J188" s="23">
         <v>1000</v>
@@ -11089,7 +11088,7 @@
         <v>233</v>
       </c>
       <c r="I189" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J189" s="23">
         <v>30</v>
@@ -11109,7 +11108,7 @@
         <v>436</v>
       </c>
       <c r="I190" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J190" s="23">
         <v>200</v>
@@ -11126,7 +11125,7 @@
         <v>488</v>
       </c>
       <c r="I191" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J191" s="23">
         <v>200</v>
@@ -11143,7 +11142,7 @@
         <v>508</v>
       </c>
       <c r="I192" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J192" s="23">
         <v>6</v>
@@ -11166,7 +11165,7 @@
         <v>512</v>
       </c>
       <c r="I193" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J193" s="23">
         <v>6</v>
@@ -11180,7 +11179,7 @@
         <v>6</v>
       </c>
       <c r="F194" s="23" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G194" s="23" t="s">
         <v>510</v>
@@ -11189,7 +11188,7 @@
         <v>512</v>
       </c>
       <c r="I194" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J194" s="23">
         <v>5</v>
@@ -11200,7 +11199,7 @@
         <v>7</v>
       </c>
       <c r="F195" s="23" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G195" s="23" t="s">
         <v>511</v>
@@ -11209,7 +11208,7 @@
         <v>512</v>
       </c>
       <c r="I195" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J195" s="23">
         <v>1000</v>
@@ -11226,7 +11225,7 @@
         <v>476</v>
       </c>
       <c r="I196" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J196" s="23">
         <v>200</v>
@@ -11243,7 +11242,7 @@
         <v>513</v>
       </c>
       <c r="I197" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J197" s="23">
         <v>200</v>
@@ -11254,13 +11253,13 @@
         <v>10</v>
       </c>
       <c r="F198" s="23" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G198" s="23" t="s">
         <v>514</v>
       </c>
       <c r="I198" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J198" s="23">
         <v>5</v>
@@ -11274,10 +11273,10 @@
         <v>646</v>
       </c>
       <c r="G199" s="23" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I199" s="23" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="200" spans="5:15">
@@ -11288,10 +11287,10 @@
         <v>647</v>
       </c>
       <c r="G200" s="23" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I200" s="23" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="201" spans="5:15">
@@ -11299,7 +11298,7 @@
         <v>13</v>
       </c>
       <c r="F201" s="23" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G201" s="23" t="s">
         <v>515</v>
@@ -11308,7 +11307,7 @@
         <v>528</v>
       </c>
       <c r="I201" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J201" s="23">
         <v>1000</v>
@@ -11319,7 +11318,7 @@
         <v>14</v>
       </c>
       <c r="F202" s="23" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G202" s="23" t="s">
         <v>516</v>
@@ -11328,7 +11327,7 @@
         <v>512</v>
       </c>
       <c r="I202" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J202" s="23">
         <v>200</v>
@@ -11339,7 +11338,7 @@
         <v>15</v>
       </c>
       <c r="F203" s="23" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G203" s="23" t="s">
         <v>517</v>
@@ -11348,7 +11347,7 @@
         <v>512</v>
       </c>
       <c r="I203" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J203" s="23">
         <v>200</v>
@@ -11359,7 +11358,7 @@
         <v>16</v>
       </c>
       <c r="F204" s="23" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G204" s="23" t="s">
         <v>518</v>
@@ -11368,7 +11367,7 @@
         <v>512</v>
       </c>
       <c r="I204" s="23" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J204" s="23">
         <v>10</v>
@@ -11382,13 +11381,13 @@
         <v>17</v>
       </c>
       <c r="F205" s="23" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G205" s="23" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I205" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J205" s="23">
         <v>2</v>
@@ -11402,7 +11401,7 @@
         <v>18</v>
       </c>
       <c r="F206" s="23" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G206" s="23" t="s">
         <v>504</v>
@@ -11411,7 +11410,7 @@
         <v>512</v>
       </c>
       <c r="I206" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J206" s="23">
         <v>2</v>
@@ -11422,7 +11421,7 @@
         <v>19</v>
       </c>
       <c r="F207" s="23" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G207" s="23" t="s">
         <v>505</v>
@@ -11431,7 +11430,7 @@
         <v>512</v>
       </c>
       <c r="I207" s="23" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J207" s="23">
         <v>10</v>
@@ -11445,7 +11444,7 @@
         <v>20</v>
       </c>
       <c r="F208" s="23" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G208" s="23" t="s">
         <v>519</v>
@@ -11454,7 +11453,7 @@
         <v>529</v>
       </c>
       <c r="I208" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J208" s="23">
         <v>1000</v>
@@ -11483,7 +11482,7 @@
         <v>233</v>
       </c>
       <c r="I209" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J209" s="23">
         <v>30</v>
@@ -11503,7 +11502,7 @@
         <v>436</v>
       </c>
       <c r="I210" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J210" s="23">
         <v>200</v>
@@ -11514,13 +11513,13 @@
         <v>3</v>
       </c>
       <c r="F211" s="23" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="G211" s="23" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="I211" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J211" s="23">
         <v>6</v>
@@ -11534,13 +11533,13 @@
         <v>4</v>
       </c>
       <c r="F212" s="23" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G212" s="23" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I212" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J212" s="23">
         <v>6</v>
@@ -11554,13 +11553,13 @@
         <v>5</v>
       </c>
       <c r="F213" s="23" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G213" s="23" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I213" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J213" s="23">
         <v>100</v>
@@ -11574,10 +11573,10 @@
         <v>646</v>
       </c>
       <c r="G214" s="23" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="I214" s="23" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="215" spans="1:15">
@@ -11588,10 +11587,10 @@
         <v>647</v>
       </c>
       <c r="G215" s="23" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="I215" s="23" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="216" spans="1:15">
@@ -11605,7 +11604,7 @@
         <v>554</v>
       </c>
       <c r="I216" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J216" s="23">
         <v>6</v>
@@ -11619,13 +11618,13 @@
         <v>9</v>
       </c>
       <c r="F217" s="23" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G217" s="23" t="s">
         <v>520</v>
       </c>
       <c r="I217" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J217" s="23">
         <v>1</v>
@@ -11654,7 +11653,7 @@
         <v>233</v>
       </c>
       <c r="I218" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J218" s="23">
         <v>30</v>
@@ -11674,7 +11673,7 @@
         <v>436</v>
       </c>
       <c r="I219" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J219" s="23">
         <v>200</v>
@@ -11685,13 +11684,13 @@
         <v>3</v>
       </c>
       <c r="F220" s="23" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G220" s="23" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="I220" s="23" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="221" spans="1:15">
@@ -11699,13 +11698,13 @@
         <v>4</v>
       </c>
       <c r="F221" s="23" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G221" s="23" t="s">
         <v>538</v>
       </c>
       <c r="I221" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J221" s="23">
         <v>100</v>
@@ -11716,13 +11715,13 @@
         <v>5</v>
       </c>
       <c r="F222" s="23" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G222" s="23" t="s">
         <v>539</v>
       </c>
       <c r="I222" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J222" s="23">
         <v>30</v>
@@ -11751,7 +11750,7 @@
         <v>233</v>
       </c>
       <c r="I223" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J223" s="23">
         <v>30</v>
@@ -11771,7 +11770,7 @@
         <v>436</v>
       </c>
       <c r="I224" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J224" s="23">
         <v>200</v>
@@ -11788,7 +11787,7 @@
         <v>543</v>
       </c>
       <c r="I225" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J225" s="23">
         <v>6</v>
@@ -11805,13 +11804,13 @@
         <v>4</v>
       </c>
       <c r="F226" s="23" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G226" s="23" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="I226" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J226" s="23">
         <v>2</v>
@@ -11825,13 +11824,13 @@
         <v>5</v>
       </c>
       <c r="F227" s="23" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G227" s="23" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="I227" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J227" s="23">
         <v>5</v>
@@ -11842,13 +11841,13 @@
         <v>6</v>
       </c>
       <c r="F228" s="23" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G228" s="23" t="s">
         <v>535</v>
       </c>
       <c r="I228" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J228" s="23">
         <v>2</v>
@@ -11880,7 +11879,7 @@
         <v>233</v>
       </c>
       <c r="I229" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J229" s="23">
         <v>30</v>
@@ -11900,7 +11899,7 @@
         <v>436</v>
       </c>
       <c r="I230" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J230" s="23">
         <v>200</v>
@@ -11914,10 +11913,10 @@
         <v>646</v>
       </c>
       <c r="G231" s="23" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I231" s="23" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="232" spans="1:15">
@@ -11928,10 +11927,10 @@
         <v>647</v>
       </c>
       <c r="G232" s="23" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="I232" s="23" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="233" spans="1:15">
@@ -11939,13 +11938,13 @@
         <v>5</v>
       </c>
       <c r="F233" s="23" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G233" s="23" t="s">
         <v>549</v>
       </c>
       <c r="I233" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J233" s="23">
         <v>100</v>
@@ -11956,13 +11955,13 @@
         <v>6</v>
       </c>
       <c r="F234" s="23" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G234" s="23" t="s">
         <v>550</v>
       </c>
       <c r="I234" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J234" s="23">
         <v>200</v>
@@ -11973,13 +11972,13 @@
         <v>7</v>
       </c>
       <c r="F235" s="23" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G235" s="23" t="s">
         <v>542</v>
       </c>
       <c r="I235" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J235" s="23">
         <v>1</v>
@@ -12008,7 +12007,7 @@
         <v>233</v>
       </c>
       <c r="I236" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J236" s="23">
         <v>30</v>
@@ -12028,7 +12027,7 @@
         <v>436</v>
       </c>
       <c r="I237" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J237" s="23">
         <v>200</v>
@@ -12042,10 +12041,10 @@
         <v>646</v>
       </c>
       <c r="G238" s="23" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="I238" s="23" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="239" spans="1:15">
@@ -12056,10 +12055,10 @@
         <v>647</v>
       </c>
       <c r="G239" s="23" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I239" s="23" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="240" spans="1:15">
@@ -12067,13 +12066,13 @@
         <v>5</v>
       </c>
       <c r="F240" s="23" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G240" s="23" t="s">
         <v>540</v>
       </c>
       <c r="I240" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J240" s="23">
         <v>100</v>
@@ -12084,13 +12083,13 @@
         <v>6</v>
       </c>
       <c r="F241" s="23" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G241" s="23" t="s">
         <v>541</v>
       </c>
       <c r="I241" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J241" s="23">
         <v>200</v>
@@ -12101,13 +12100,13 @@
         <v>7</v>
       </c>
       <c r="F242" s="23" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G242" s="23" t="s">
         <v>542</v>
       </c>
       <c r="I242" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J242" s="23">
         <v>1</v>
@@ -12136,7 +12135,7 @@
         <v>233</v>
       </c>
       <c r="I243" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J243" s="23">
         <v>30</v>
@@ -12156,7 +12155,7 @@
         <v>436</v>
       </c>
       <c r="I244" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J244" s="23">
         <v>200</v>
@@ -12167,13 +12166,13 @@
         <v>3</v>
       </c>
       <c r="F245" s="23" t="s">
+        <v>934</v>
+      </c>
+      <c r="G245" s="23" t="s">
         <v>935</v>
       </c>
-      <c r="G245" s="23" t="s">
-        <v>936</v>
-      </c>
       <c r="I245" s="23" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="246" spans="1:15">
@@ -12181,13 +12180,13 @@
         <v>4</v>
       </c>
       <c r="F246" s="23" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G246" s="23" t="s">
         <v>533</v>
       </c>
       <c r="I246" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J246" s="23">
         <v>100</v>
@@ -12198,13 +12197,13 @@
         <v>5</v>
       </c>
       <c r="F247" s="23" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G247" s="23" t="s">
         <v>534</v>
       </c>
       <c r="I247" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J247" s="23">
         <v>200</v>
@@ -12233,7 +12232,7 @@
         <v>233</v>
       </c>
       <c r="I248" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J248" s="23">
         <v>30</v>
@@ -12253,7 +12252,7 @@
         <v>436</v>
       </c>
       <c r="I249" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J249" s="23">
         <v>200</v>
@@ -12270,7 +12269,7 @@
         <v>521</v>
       </c>
       <c r="I250" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J250" s="23">
         <v>6</v>
@@ -12284,7 +12283,7 @@
         <v>4</v>
       </c>
       <c r="F251" s="23" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G251" s="23" t="s">
         <v>535</v>
@@ -12293,7 +12292,7 @@
         <v>546</v>
       </c>
       <c r="I251" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J251" s="23">
         <v>2</v>
@@ -12307,7 +12306,7 @@
         <v>5</v>
       </c>
       <c r="F252" s="23" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G252" s="23" t="s">
         <v>536</v>
@@ -12316,7 +12315,7 @@
         <v>546</v>
       </c>
       <c r="I252" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J252" s="23">
         <v>3</v>
@@ -12330,7 +12329,7 @@
         <v>6</v>
       </c>
       <c r="F253" s="23" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G253" s="23" t="s">
         <v>537</v>
@@ -12339,7 +12338,7 @@
         <v>546</v>
       </c>
       <c r="I253" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J253" s="23">
         <v>4</v>
@@ -12371,7 +12370,7 @@
         <v>233</v>
       </c>
       <c r="I254" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J254" s="23">
         <v>30</v>
@@ -12391,7 +12390,7 @@
         <v>436</v>
       </c>
       <c r="I255" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J255" s="23">
         <v>200</v>
@@ -12402,7 +12401,7 @@
         <v>3</v>
       </c>
       <c r="F256" s="23" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G256" s="23" t="s">
         <v>530</v>
@@ -12411,7 +12410,7 @@
         <v>529</v>
       </c>
       <c r="I256" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J256" s="23">
         <v>1000</v>
@@ -12440,7 +12439,7 @@
         <v>233</v>
       </c>
       <c r="I257" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J257" s="23">
         <v>30</v>
@@ -12460,7 +12459,7 @@
         <v>436</v>
       </c>
       <c r="I258" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J258" s="23">
         <v>200</v>
@@ -12471,7 +12470,7 @@
         <v>3</v>
       </c>
       <c r="F259" s="23" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G259" s="23" t="s">
         <v>531</v>
@@ -12480,7 +12479,7 @@
         <v>529</v>
       </c>
       <c r="I259" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J259" s="23">
         <v>1000</v>
@@ -12503,13 +12502,13 @@
         <v>1</v>
       </c>
       <c r="F260" s="23" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G260" s="23" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I260" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J260" s="23">
         <v>30</v>
@@ -12523,13 +12522,13 @@
         <v>2</v>
       </c>
       <c r="F261" s="23" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G261" s="23" t="s">
         <v>234</v>
       </c>
       <c r="I261" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J261" s="23">
         <v>200</v>
@@ -12546,7 +12545,7 @@
         <v>241</v>
       </c>
       <c r="I262" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J262" s="23">
         <v>30</v>
@@ -12566,7 +12565,7 @@
         <v>248</v>
       </c>
       <c r="I263" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J263" s="23">
         <v>200</v>
@@ -12583,7 +12582,7 @@
         <v>310</v>
       </c>
       <c r="I264" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J264" s="23">
         <v>30</v>
@@ -12594,13 +12593,13 @@
         <v>6</v>
       </c>
       <c r="F265" s="23" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G265" s="23" t="s">
         <v>328</v>
       </c>
       <c r="I265" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J265" s="23">
         <v>200</v>
@@ -12611,13 +12610,13 @@
         <v>7</v>
       </c>
       <c r="F266" s="23" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G266" s="23" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I266" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J266" s="23">
         <v>2</v>
@@ -12634,10 +12633,10 @@
         <v>416</v>
       </c>
       <c r="G267" s="23" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I267" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J267" s="23">
         <v>30</v>
@@ -12654,7 +12653,7 @@
         <v>329</v>
       </c>
       <c r="I268" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J268" s="23">
         <v>200</v>
@@ -12665,13 +12664,13 @@
         <v>10</v>
       </c>
       <c r="F269" s="23" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G269" s="23" t="s">
         <v>242</v>
       </c>
       <c r="I269" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="270" spans="1:15">
@@ -12679,13 +12678,13 @@
         <v>11</v>
       </c>
       <c r="F270" s="23" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G270" s="23" t="s">
         <v>365</v>
       </c>
       <c r="I270" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J270" s="23">
         <v>6</v>
@@ -12699,13 +12698,13 @@
         <v>12</v>
       </c>
       <c r="F271" s="23" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G271" s="23" t="s">
         <v>363</v>
       </c>
       <c r="I271" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="272" spans="1:15">
@@ -12713,13 +12712,13 @@
         <v>13</v>
       </c>
       <c r="F272" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G272" s="23" t="s">
         <v>364</v>
       </c>
       <c r="I272" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="273" spans="1:15">
@@ -12745,7 +12744,7 @@
         <v>256</v>
       </c>
       <c r="I273" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J273" s="23">
         <v>30</v>
@@ -12765,7 +12764,7 @@
         <v>234</v>
       </c>
       <c r="I274" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J274" s="23">
         <v>200</v>
@@ -12782,7 +12781,7 @@
         <v>260</v>
       </c>
       <c r="I275" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J275" s="23">
         <v>30</v>
@@ -12802,7 +12801,7 @@
         <v>248</v>
       </c>
       <c r="I276" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J276" s="23">
         <v>200</v>
@@ -12819,7 +12818,7 @@
         <v>310</v>
       </c>
       <c r="I277" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J277" s="23">
         <v>30</v>
@@ -12836,7 +12835,7 @@
         <v>328</v>
       </c>
       <c r="I278" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J278" s="23">
         <v>200</v>
@@ -12853,7 +12852,7 @@
         <v>230</v>
       </c>
       <c r="I279" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J279" s="23">
         <v>30</v>
@@ -12870,7 +12869,7 @@
         <v>329</v>
       </c>
       <c r="I280" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J280" s="23">
         <v>200</v>
@@ -12881,13 +12880,13 @@
         <v>9</v>
       </c>
       <c r="F281" s="23" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G281" s="23" t="s">
         <v>259</v>
       </c>
       <c r="I281" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J281" s="23">
         <v>6</v>
@@ -12901,13 +12900,13 @@
         <v>10</v>
       </c>
       <c r="F282" s="23" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G282" s="23" t="s">
         <v>316</v>
       </c>
       <c r="I282" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="283" spans="1:15">
@@ -12933,7 +12932,7 @@
         <v>241</v>
       </c>
       <c r="I283" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J283" s="23">
         <v>30</v>
@@ -12953,7 +12952,7 @@
         <v>248</v>
       </c>
       <c r="I284" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J284" s="23">
         <v>200</v>
@@ -12964,13 +12963,13 @@
         <v>3</v>
       </c>
       <c r="F285" s="23" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G285" s="23" t="s">
         <v>246</v>
       </c>
       <c r="I285" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J285" s="23">
         <v>5</v>
@@ -12981,13 +12980,13 @@
         <v>4</v>
       </c>
       <c r="F286" s="23" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G286" s="23" t="s">
         <v>247</v>
       </c>
       <c r="I286" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J286" s="23">
         <v>5</v>
@@ -12998,13 +12997,13 @@
         <v>5</v>
       </c>
       <c r="F287" s="23" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G287" s="23" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I287" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J287" s="23">
         <v>5</v>
@@ -13015,13 +13014,13 @@
         <v>6</v>
       </c>
       <c r="F288" s="23" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G288" s="23" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I288" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J288" s="23">
         <v>5</v>
@@ -13032,13 +13031,13 @@
         <v>7</v>
       </c>
       <c r="F289" s="23" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G289" s="23" t="s">
         <v>366</v>
       </c>
       <c r="I289" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J289" s="23">
         <v>5</v>
@@ -13049,13 +13048,13 @@
         <v>8</v>
       </c>
       <c r="F290" s="23" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G290" s="23" t="s">
         <v>367</v>
       </c>
       <c r="I290" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="291" spans="1:15">
@@ -13081,7 +13080,7 @@
         <v>241</v>
       </c>
       <c r="I291" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J291" s="23">
         <v>30</v>
@@ -13101,7 +13100,7 @@
         <v>248</v>
       </c>
       <c r="I292" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J292" s="23">
         <v>200</v>
@@ -13118,7 +13117,7 @@
         <v>310</v>
       </c>
       <c r="I293" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J293" s="23">
         <v>30</v>
@@ -13135,7 +13134,7 @@
         <v>328</v>
       </c>
       <c r="I294" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J294" s="23">
         <v>200</v>
@@ -13155,7 +13154,7 @@
         <v>382</v>
       </c>
       <c r="I295" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J295" s="23">
         <v>30</v>
@@ -13175,7 +13174,7 @@
         <v>383</v>
       </c>
       <c r="I296" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J296" s="23">
         <v>200</v>
@@ -13192,7 +13191,7 @@
         <v>284</v>
       </c>
       <c r="I297" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="298" spans="1:15">
@@ -13206,7 +13205,7 @@
         <v>451</v>
       </c>
       <c r="I298" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="299" spans="1:15">
@@ -13220,7 +13219,7 @@
         <v>438</v>
       </c>
       <c r="I299" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J299" s="23">
         <v>1</v>
@@ -13249,7 +13248,7 @@
         <v>241</v>
       </c>
       <c r="I300" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J300" s="23">
         <v>30</v>
@@ -13269,7 +13268,7 @@
         <v>248</v>
       </c>
       <c r="I301" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J301" s="23">
         <v>200</v>
@@ -13286,7 +13285,7 @@
         <v>310</v>
       </c>
       <c r="I302" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J302" s="23">
         <v>30</v>
@@ -13303,7 +13302,7 @@
         <v>328</v>
       </c>
       <c r="I303" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J303" s="23">
         <v>200</v>
@@ -13323,7 +13322,7 @@
         <v>447</v>
       </c>
       <c r="I304" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J304" s="23">
         <v>6</v>
@@ -13337,7 +13336,7 @@
         <v>6</v>
       </c>
       <c r="F305" s="23" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G305" s="23" t="s">
         <v>445</v>
@@ -13346,7 +13345,7 @@
         <v>449</v>
       </c>
       <c r="I305" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J305" s="23">
         <v>200</v>
@@ -13360,10 +13359,10 @@
         <v>686</v>
       </c>
       <c r="G306" s="23" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I306" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J306" s="23">
         <v>6</v>
@@ -13383,7 +13382,7 @@
         <v>477</v>
       </c>
       <c r="I307" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J307" s="23">
         <v>6</v>
@@ -13397,13 +13396,13 @@
         <v>9</v>
       </c>
       <c r="F308" s="23" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G308" s="23" t="s">
         <v>532</v>
       </c>
       <c r="I308" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J308" s="23">
         <v>5</v>
@@ -13414,13 +13413,13 @@
         <v>10</v>
       </c>
       <c r="F309" s="23" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G309" s="23" t="s">
         <v>517</v>
       </c>
       <c r="I309" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J309" s="23">
         <v>200</v>
@@ -13431,13 +13430,13 @@
         <v>11</v>
       </c>
       <c r="F310" s="23" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G310" s="23" t="s">
         <v>442</v>
       </c>
       <c r="I310" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J310" s="23">
         <v>5</v>
@@ -13448,16 +13447,16 @@
         <v>12</v>
       </c>
       <c r="F311" s="23" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G311" s="23" t="s">
         <v>220</v>
       </c>
       <c r="H311" s="23" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I311" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J311" s="23">
         <v>5</v>
@@ -13474,7 +13473,7 @@
         <v>450</v>
       </c>
       <c r="I312" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J312" s="23">
         <v>200</v>
@@ -13485,7 +13484,7 @@
         <v>14</v>
       </c>
       <c r="F313" s="23" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G313" s="23" t="s">
         <v>440</v>
@@ -13494,7 +13493,7 @@
         <v>439</v>
       </c>
       <c r="I313" s="23" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J313" s="23">
         <v>10</v>
@@ -13508,13 +13507,13 @@
         <v>15</v>
       </c>
       <c r="F314" s="23" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G314" s="23" t="s">
         <v>441</v>
       </c>
       <c r="I314" s="23" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J314" s="23">
         <v>10</v>
@@ -13528,13 +13527,13 @@
         <v>16</v>
       </c>
       <c r="F315" s="23" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G315" s="23" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I315" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J315" s="23">
         <v>2</v>
@@ -13548,7 +13547,7 @@
         <v>17</v>
       </c>
       <c r="F316" s="23" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G316" s="23" t="s">
         <v>453</v>
@@ -13557,7 +13556,7 @@
         <v>454</v>
       </c>
       <c r="I316" s="23" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J316" s="23">
         <v>10</v>
@@ -13571,13 +13570,13 @@
         <v>18</v>
       </c>
       <c r="F317" s="23" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G317" s="23" t="s">
         <v>455</v>
       </c>
       <c r="I317" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J317" s="23">
         <v>200</v>
@@ -13588,13 +13587,13 @@
         <v>19</v>
       </c>
       <c r="F318" s="23" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G318" s="23" t="s">
         <v>456</v>
       </c>
       <c r="I318" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J318" s="23">
         <v>200</v>
@@ -13605,13 +13604,13 @@
         <v>20</v>
       </c>
       <c r="F319" s="23" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G319" s="23" t="s">
         <v>457</v>
       </c>
       <c r="I319" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J319" s="23">
         <v>200</v>
@@ -13622,7 +13621,7 @@
         <v>21</v>
       </c>
       <c r="F320" s="23" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G320" s="23" t="s">
         <v>458</v>
@@ -13631,7 +13630,7 @@
         <v>528</v>
       </c>
       <c r="I320" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J320" s="23">
         <v>1000</v>
@@ -13642,7 +13641,7 @@
         <v>22</v>
       </c>
       <c r="F321" s="23" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G321" s="23" t="s">
         <v>459</v>
@@ -13651,7 +13650,7 @@
         <v>528</v>
       </c>
       <c r="I321" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J321" s="23">
         <v>1000</v>
@@ -13665,7 +13664,7 @@
         <v>76</v>
       </c>
       <c r="C322" s="23" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D322" s="23" t="s">
         <v>315</v>
@@ -13680,7 +13679,7 @@
         <v>241</v>
       </c>
       <c r="I322" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J322" s="23">
         <v>30</v>
@@ -13700,7 +13699,7 @@
         <v>248</v>
       </c>
       <c r="I323" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J323" s="23">
         <v>200</v>
@@ -13720,7 +13719,7 @@
         <v>460</v>
       </c>
       <c r="I324" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J324" s="23">
         <v>6</v>
@@ -13740,7 +13739,7 @@
         <v>587</v>
       </c>
       <c r="I325" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J325" s="23">
         <v>2</v>
@@ -13760,7 +13759,7 @@
         <v>468</v>
       </c>
       <c r="I326" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J326" s="23">
         <v>6</v>
@@ -13774,13 +13773,13 @@
         <v>6</v>
       </c>
       <c r="F327" s="23" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G327" s="23" t="s">
         <v>467</v>
       </c>
       <c r="I327" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J327" s="23">
         <v>6</v>
@@ -13794,13 +13793,13 @@
         <v>7</v>
       </c>
       <c r="F328" s="23" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G328" s="23" t="s">
         <v>469</v>
       </c>
       <c r="I328" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J328" s="23">
         <v>3</v>
@@ -13811,13 +13810,13 @@
         <v>8</v>
       </c>
       <c r="F329" s="23" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G329" s="23" t="s">
         <v>470</v>
       </c>
       <c r="I329" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J329" s="23">
         <v>3</v>
@@ -13828,13 +13827,13 @@
         <v>9</v>
       </c>
       <c r="F330" s="23" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G330" s="23" t="s">
         <v>471</v>
       </c>
       <c r="I330" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J330" s="23">
         <v>3</v>
@@ -13845,13 +13844,13 @@
         <v>10</v>
       </c>
       <c r="F331" s="23" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G331" s="23" t="s">
         <v>472</v>
       </c>
       <c r="I331" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J331" s="23">
         <v>3</v>
@@ -13862,7 +13861,7 @@
         <v>11</v>
       </c>
       <c r="F332" s="23" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G332" s="23" t="s">
         <v>473</v>
@@ -13871,7 +13870,7 @@
         <v>528</v>
       </c>
       <c r="I332" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J332" s="23">
         <v>1000</v>
@@ -13882,7 +13881,7 @@
         <v>12</v>
       </c>
       <c r="F333" s="23" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G333" s="23" t="s">
         <v>474</v>
@@ -13891,7 +13890,7 @@
         <v>528</v>
       </c>
       <c r="I333" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J333" s="23">
         <v>1000</v>
@@ -13920,7 +13919,7 @@
         <v>241</v>
       </c>
       <c r="I334" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J334" s="23">
         <v>30</v>
@@ -13940,7 +13939,7 @@
         <v>476</v>
       </c>
       <c r="I335" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J335" s="23">
         <v>200</v>
@@ -13951,13 +13950,13 @@
         <v>3</v>
       </c>
       <c r="F336" s="23" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G336" s="23" t="s">
         <v>238</v>
       </c>
       <c r="I336" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J336" s="23">
         <v>6</v>
@@ -13971,13 +13970,13 @@
         <v>4</v>
       </c>
       <c r="F337" s="23" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G337" s="23" t="s">
         <v>239</v>
       </c>
       <c r="I337" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J337" s="23">
         <v>6</v>
@@ -13991,13 +13990,13 @@
         <v>5</v>
       </c>
       <c r="F338" s="23" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G338" s="23" t="s">
         <v>240</v>
       </c>
       <c r="I338" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J338" s="23">
         <v>6</v>
@@ -14032,7 +14031,7 @@
         <v>241</v>
       </c>
       <c r="I339" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J339" s="23">
         <v>30</v>
@@ -14052,7 +14051,7 @@
         <v>476</v>
       </c>
       <c r="I340" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J340" s="23">
         <v>200</v>
@@ -14063,13 +14062,13 @@
         <v>3</v>
       </c>
       <c r="F341" s="23" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G341" s="23" t="s">
         <v>238</v>
       </c>
       <c r="I341" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J341" s="23">
         <v>6</v>
@@ -14083,13 +14082,13 @@
         <v>4</v>
       </c>
       <c r="F342" s="23" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G342" s="23" t="s">
         <v>239</v>
       </c>
       <c r="I342" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J342" s="23">
         <v>6</v>
@@ -14103,13 +14102,13 @@
         <v>5</v>
       </c>
       <c r="F343" s="23" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G343" s="23" t="s">
         <v>240</v>
       </c>
       <c r="I343" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J343" s="23">
         <v>6</v>
@@ -14126,13 +14125,13 @@
         <v>6</v>
       </c>
       <c r="F344" s="23" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G344" s="23" t="s">
         <v>481</v>
       </c>
       <c r="I344" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J344" s="23">
         <v>6</v>
@@ -14146,13 +14145,13 @@
         <v>7</v>
       </c>
       <c r="F345" s="23" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G345" s="23" t="s">
         <v>482</v>
       </c>
       <c r="I345" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J345" s="23">
         <v>6</v>
@@ -14184,7 +14183,7 @@
         <v>260</v>
       </c>
       <c r="I346" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J346" s="23">
         <v>30</v>
@@ -14204,7 +14203,7 @@
         <v>248</v>
       </c>
       <c r="I347" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J347" s="23">
         <v>200</v>
@@ -14221,7 +14220,7 @@
         <v>310</v>
       </c>
       <c r="I348" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J348" s="23">
         <v>30</v>
@@ -14238,7 +14237,7 @@
         <v>328</v>
       </c>
       <c r="I349" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J349" s="23">
         <v>200</v>
@@ -14255,7 +14254,7 @@
         <v>261</v>
       </c>
       <c r="I350" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J350" s="23">
         <v>30</v>
@@ -14275,7 +14274,7 @@
         <v>344</v>
       </c>
       <c r="I351" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J351" s="23">
         <v>200</v>
@@ -14286,13 +14285,13 @@
         <v>7</v>
       </c>
       <c r="F352" s="23" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G352" s="23" t="s">
         <v>345</v>
       </c>
       <c r="I352" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J352" s="23">
         <v>200</v>
@@ -14303,13 +14302,13 @@
         <v>8</v>
       </c>
       <c r="F353" s="23" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G353" s="23" t="s">
         <v>262</v>
       </c>
       <c r="I353" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="354" spans="1:15">
@@ -14355,7 +14354,7 @@
         <v>177</v>
       </c>
       <c r="I355" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J355" s="23">
         <v>200</v>
@@ -14372,7 +14371,7 @@
         <v>241</v>
       </c>
       <c r="I356" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J356" s="23">
         <v>30</v>
@@ -14392,7 +14391,7 @@
         <v>248</v>
       </c>
       <c r="I357" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J357" s="23">
         <v>200</v>
@@ -14409,7 +14408,7 @@
         <v>310</v>
       </c>
       <c r="I358" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J358" s="23">
         <v>30</v>
@@ -14426,7 +14425,7 @@
         <v>328</v>
       </c>
       <c r="I359" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J359" s="23">
         <v>200</v>
@@ -14437,13 +14436,13 @@
         <v>7</v>
       </c>
       <c r="F360" s="23" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G360" s="23" t="s">
         <v>250</v>
       </c>
       <c r="I360" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="361" spans="1:15">
@@ -14451,13 +14450,13 @@
         <v>8</v>
       </c>
       <c r="F361" s="23" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G361" s="23" t="s">
         <v>338</v>
       </c>
       <c r="I361" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="362" spans="1:15">
@@ -14471,7 +14470,7 @@
         <v>339</v>
       </c>
       <c r="I362" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J362" s="23">
         <v>1</v>
@@ -14485,10 +14484,10 @@
         <v>76</v>
       </c>
       <c r="C363" s="23" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D363" s="23" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E363" s="29">
         <v>1</v>
@@ -14520,7 +14519,7 @@
         <v>177</v>
       </c>
       <c r="I364" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J364" s="23">
         <v>200</v>
@@ -14531,16 +14530,16 @@
         <v>3</v>
       </c>
       <c r="F365" s="23" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G365" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="H365" s="23" t="s">
         <v>719</v>
       </c>
-      <c r="H365" s="23" t="s">
-        <v>720</v>
-      </c>
       <c r="I365" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J365" s="23">
         <v>2</v>
@@ -14560,7 +14559,7 @@
         <v>241</v>
       </c>
       <c r="I366" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J366" s="23">
         <v>30</v>
@@ -14580,7 +14579,7 @@
         <v>248</v>
       </c>
       <c r="I367" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J367" s="23">
         <v>200</v>
@@ -14597,7 +14596,7 @@
         <v>310</v>
       </c>
       <c r="I368" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J368" s="23">
         <v>30</v>
@@ -14614,7 +14613,7 @@
         <v>328</v>
       </c>
       <c r="I369" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J369" s="23">
         <v>200</v>
@@ -14625,16 +14624,16 @@
         <v>8</v>
       </c>
       <c r="F370" s="23" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G370" s="23" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H370" s="23" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="I370" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J370" s="23">
         <v>2</v>
@@ -14648,13 +14647,13 @@
         <v>9</v>
       </c>
       <c r="F371" s="23" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G371" s="23" t="s">
         <v>340</v>
       </c>
       <c r="I371" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="372" spans="1:15">
@@ -14665,10 +14664,10 @@
         <v>76</v>
       </c>
       <c r="C372" s="23" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D372" s="23" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E372" s="29">
         <v>1</v>
@@ -14680,7 +14679,7 @@
         <v>241</v>
       </c>
       <c r="I372" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J372" s="23">
         <v>30</v>
@@ -14700,7 +14699,7 @@
         <v>248</v>
       </c>
       <c r="I373" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J373" s="23">
         <v>200</v>
@@ -14717,7 +14716,7 @@
         <v>310</v>
       </c>
       <c r="I374" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J374" s="23">
         <v>30</v>
@@ -14734,7 +14733,7 @@
         <v>328</v>
       </c>
       <c r="I375" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J375" s="23">
         <v>200</v>
@@ -14748,10 +14747,10 @@
         <v>686</v>
       </c>
       <c r="G376" s="23" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I376" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J376" s="23">
         <v>6</v>
@@ -14771,7 +14770,7 @@
         <v>477</v>
       </c>
       <c r="I377" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J377" s="23">
         <v>6</v>
@@ -14785,16 +14784,16 @@
         <v>7</v>
       </c>
       <c r="F378" s="23" t="s">
+        <v>991</v>
+      </c>
+      <c r="G378" s="23" t="s">
         <v>992</v>
       </c>
-      <c r="G378" s="23" t="s">
-        <v>993</v>
-      </c>
       <c r="H378" s="23" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I378" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J378" s="23">
         <v>6</v>
@@ -14811,13 +14810,13 @@
         <v>8</v>
       </c>
       <c r="F379" s="23" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="G379" s="23" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I379" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J379" s="23">
         <v>10</v>
@@ -14846,7 +14845,7 @@
         <v>241</v>
       </c>
       <c r="I380" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J380" s="23">
         <v>30</v>
@@ -14866,7 +14865,7 @@
         <v>248</v>
       </c>
       <c r="I381" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J381" s="23">
         <v>200</v>
@@ -14883,7 +14882,7 @@
         <v>267</v>
       </c>
       <c r="I382" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J382" s="23">
         <v>200</v>
@@ -14906,7 +14905,7 @@
         <v>337</v>
       </c>
       <c r="I383" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J383" s="23">
         <v>30</v>
@@ -14923,7 +14922,7 @@
         <v>243</v>
       </c>
       <c r="I384" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J384" s="23">
         <v>2</v>
@@ -14943,7 +14942,7 @@
         <v>308</v>
       </c>
       <c r="I385" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J385" s="23">
         <v>2</v>
@@ -14963,7 +14962,7 @@
         <v>290</v>
       </c>
       <c r="I386" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J386" s="23">
         <v>100</v>
@@ -14983,7 +14982,7 @@
         <v>382</v>
       </c>
       <c r="I387" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J387" s="23">
         <v>30</v>
@@ -15003,7 +15002,7 @@
         <v>383</v>
       </c>
       <c r="I388" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J388" s="23">
         <v>200</v>
@@ -15020,7 +15019,7 @@
         <v>284</v>
       </c>
       <c r="I389" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="390" spans="1:15">
@@ -15046,7 +15045,7 @@
         <v>308</v>
       </c>
       <c r="I390" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J390" s="23">
         <v>2</v>
@@ -15066,7 +15065,7 @@
         <v>309</v>
       </c>
       <c r="I391" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J391" s="23">
         <v>30</v>
@@ -15086,7 +15085,7 @@
         <v>382</v>
       </c>
       <c r="I392" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J392" s="23">
         <v>30</v>
@@ -15106,7 +15105,7 @@
         <v>383</v>
       </c>
       <c r="I393" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J393" s="23">
         <v>200</v>
@@ -15123,7 +15122,7 @@
         <v>284</v>
       </c>
       <c r="I394" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="395" spans="1:15">
@@ -15137,7 +15136,7 @@
         <v>283</v>
       </c>
       <c r="I395" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J395" s="23">
         <v>1</v>
@@ -15166,7 +15165,7 @@
         <v>274</v>
       </c>
       <c r="I396" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J396" s="23">
         <v>2</v>
@@ -15186,10 +15185,10 @@
         <v>275</v>
       </c>
       <c r="H397" s="35" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I397" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J397" s="23">
         <v>30</v>
@@ -15209,7 +15208,7 @@
         <v>382</v>
       </c>
       <c r="I398" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J398" s="23">
         <v>30</v>
@@ -15229,7 +15228,7 @@
         <v>383</v>
       </c>
       <c r="I399" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J399" s="23">
         <v>200</v>
@@ -15246,7 +15245,7 @@
         <v>284</v>
       </c>
       <c r="I400" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="401" spans="1:15">
@@ -15260,7 +15259,7 @@
         <v>283</v>
       </c>
       <c r="I401" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J401" s="23">
         <v>1</v>
@@ -15277,7 +15276,7 @@
         <v>272</v>
       </c>
       <c r="D402" s="23" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E402" s="29">
         <v>1</v>
@@ -15289,7 +15288,7 @@
         <v>276</v>
       </c>
       <c r="I402" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J402" s="23">
         <v>6</v>
@@ -15309,10 +15308,10 @@
         <v>277</v>
       </c>
       <c r="H403" s="35" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I403" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J403" s="23">
         <v>30</v>
@@ -15329,7 +15328,7 @@
         <v>274</v>
       </c>
       <c r="I404" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J404" s="23">
         <v>2</v>
@@ -15352,7 +15351,7 @@
         <v>382</v>
       </c>
       <c r="I405" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J405" s="23">
         <v>30</v>
@@ -15372,7 +15371,7 @@
         <v>383</v>
       </c>
       <c r="I406" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J406" s="23">
         <v>200</v>
@@ -15389,7 +15388,7 @@
         <v>284</v>
       </c>
       <c r="I407" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="408" spans="1:15">
@@ -15403,7 +15402,7 @@
         <v>283</v>
       </c>
       <c r="I408" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J408" s="23">
         <v>1</v>
@@ -15432,7 +15431,7 @@
         <v>241</v>
       </c>
       <c r="I409" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J409" s="23">
         <v>30</v>
@@ -15452,7 +15451,7 @@
         <v>248</v>
       </c>
       <c r="I410" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J410" s="23">
         <v>200</v>
@@ -15469,7 +15468,7 @@
         <v>310</v>
       </c>
       <c r="I411" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J411" s="23">
         <v>30</v>
@@ -15486,7 +15485,7 @@
         <v>328</v>
       </c>
       <c r="I412" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J412" s="23">
         <v>200</v>
@@ -15503,7 +15502,7 @@
         <v>274</v>
       </c>
       <c r="I413" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J413" s="23">
         <v>2</v>
@@ -15523,7 +15522,7 @@
         <v>276</v>
       </c>
       <c r="I414" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J414" s="23">
         <v>6</v>
@@ -15543,7 +15542,7 @@
         <v>233</v>
       </c>
       <c r="I415" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J415" s="23">
         <v>30</v>
@@ -15583,7 +15582,7 @@
         <v>177</v>
       </c>
       <c r="I417" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J417" s="23">
         <v>200</v>
@@ -15594,16 +15593,16 @@
         <v>10</v>
       </c>
       <c r="F418" s="23" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G418" s="23" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H418" s="23" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I418" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J418" s="23">
         <v>2</v>
@@ -15617,13 +15616,13 @@
         <v>11</v>
       </c>
       <c r="F419" s="23" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G419" s="23" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I419" s="23" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J419" s="23">
         <v>20</v>
@@ -15637,13 +15636,13 @@
         <v>12</v>
       </c>
       <c r="F420" s="23" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G420" s="23" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I420" s="23" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J420" s="23">
         <v>20</v>
@@ -15657,13 +15656,13 @@
         <v>13</v>
       </c>
       <c r="F421" s="23" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G421" s="23" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I421" s="23" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J421" s="23">
         <v>20</v>
@@ -15680,10 +15679,10 @@
         <v>667</v>
       </c>
       <c r="G422" s="23" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I422" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J422" s="23">
         <v>6</v>
@@ -15700,10 +15699,10 @@
         <v>668</v>
       </c>
       <c r="G423" s="23" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I423" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J423" s="23">
         <v>30</v>
@@ -15714,13 +15713,13 @@
         <v>16</v>
       </c>
       <c r="F424" s="23" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G424" s="23" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I424" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="425" spans="1:15">
@@ -15731,10 +15730,10 @@
         <v>76</v>
       </c>
       <c r="C425" s="23" t="s">
+        <v>766</v>
+      </c>
+      <c r="D425" s="23" t="s">
         <v>767</v>
-      </c>
-      <c r="D425" s="23" t="s">
-        <v>768</v>
       </c>
       <c r="E425" s="29">
         <v>1</v>
@@ -15746,7 +15745,7 @@
         <v>241</v>
       </c>
       <c r="I425" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J425" s="23">
         <v>30</v>
@@ -15766,7 +15765,7 @@
         <v>248</v>
       </c>
       <c r="I426" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J426" s="23">
         <v>200</v>
@@ -15783,7 +15782,7 @@
         <v>310</v>
       </c>
       <c r="I427" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J427" s="23">
         <v>30</v>
@@ -15800,7 +15799,7 @@
         <v>328</v>
       </c>
       <c r="I428" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J428" s="23">
         <v>200</v>
@@ -15817,7 +15816,7 @@
         <v>274</v>
       </c>
       <c r="I429" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J429" s="23">
         <v>2</v>
@@ -15837,7 +15836,7 @@
         <v>276</v>
       </c>
       <c r="I430" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J430" s="23">
         <v>6</v>
@@ -15851,13 +15850,13 @@
         <v>7</v>
       </c>
       <c r="F431" s="23" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G431" s="23" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I431" s="23" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J431" s="23">
         <v>20</v>
@@ -15871,13 +15870,13 @@
         <v>8</v>
       </c>
       <c r="F432" s="23" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G432" s="23" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I432" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="433" spans="1:15">
@@ -15888,10 +15887,10 @@
         <v>76</v>
       </c>
       <c r="C433" s="23" t="s">
+        <v>769</v>
+      </c>
+      <c r="D433" s="23" t="s">
         <v>770</v>
-      </c>
-      <c r="D433" s="23" t="s">
-        <v>771</v>
       </c>
       <c r="E433" s="29">
         <v>1</v>
@@ -15903,7 +15902,7 @@
         <v>241</v>
       </c>
       <c r="I433" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J433" s="23">
         <v>30</v>
@@ -15923,7 +15922,7 @@
         <v>248</v>
       </c>
       <c r="I434" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J434" s="23">
         <v>200</v>
@@ -15940,7 +15939,7 @@
         <v>310</v>
       </c>
       <c r="I435" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J435" s="23">
         <v>30</v>
@@ -15957,7 +15956,7 @@
         <v>328</v>
       </c>
       <c r="I436" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J436" s="23">
         <v>200</v>
@@ -15974,7 +15973,7 @@
         <v>274</v>
       </c>
       <c r="I437" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J437" s="23">
         <v>2</v>
@@ -15994,7 +15993,7 @@
         <v>276</v>
       </c>
       <c r="I438" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J438" s="23">
         <v>6</v>
@@ -16014,7 +16013,7 @@
         <v>233</v>
       </c>
       <c r="I439" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J439" s="23">
         <v>30</v>
@@ -16054,7 +16053,7 @@
         <v>177</v>
       </c>
       <c r="I441" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J441" s="23">
         <v>200</v>
@@ -16065,16 +16064,16 @@
         <v>10</v>
       </c>
       <c r="F442" s="23" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G442" s="23" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H442" s="23" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I442" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J442" s="23">
         <v>2</v>
@@ -16088,13 +16087,13 @@
         <v>11</v>
       </c>
       <c r="F443" s="23" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G443" s="23" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I443" s="23" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J443" s="23">
         <v>20</v>
@@ -16108,13 +16107,13 @@
         <v>12</v>
       </c>
       <c r="F444" s="23" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G444" s="23" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I444" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="445" spans="1:15">
@@ -16125,10 +16124,10 @@
         <v>76</v>
       </c>
       <c r="C445" s="23" t="s">
+        <v>772</v>
+      </c>
+      <c r="D445" s="23" t="s">
         <v>773</v>
-      </c>
-      <c r="D445" s="23" t="s">
-        <v>774</v>
       </c>
       <c r="E445" s="29">
         <v>1</v>
@@ -16140,7 +16139,7 @@
         <v>241</v>
       </c>
       <c r="I445" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J445" s="23">
         <v>30</v>
@@ -16160,7 +16159,7 @@
         <v>248</v>
       </c>
       <c r="I446" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J446" s="23">
         <v>200</v>
@@ -16177,7 +16176,7 @@
         <v>310</v>
       </c>
       <c r="I447" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J447" s="23">
         <v>30</v>
@@ -16194,7 +16193,7 @@
         <v>328</v>
       </c>
       <c r="I448" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J448" s="23">
         <v>200</v>
@@ -16211,7 +16210,7 @@
         <v>274</v>
       </c>
       <c r="I449" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J449" s="23">
         <v>2</v>
@@ -16231,7 +16230,7 @@
         <v>276</v>
       </c>
       <c r="I450" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J450" s="23">
         <v>6</v>
@@ -16245,13 +16244,13 @@
         <v>7</v>
       </c>
       <c r="F451" s="23" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G451" s="23" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I451" s="23" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J451" s="23">
         <v>20</v>
@@ -16265,13 +16264,13 @@
         <v>8</v>
       </c>
       <c r="F452" s="23" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G452" s="23" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I452" s="23" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J452" s="23">
         <v>20</v>
@@ -16285,13 +16284,13 @@
         <v>9</v>
       </c>
       <c r="F453" s="23" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G453" s="23" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I453" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J453" s="23">
         <v>6</v>
@@ -16305,13 +16304,13 @@
         <v>10</v>
       </c>
       <c r="F454" s="23" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G454" s="23" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I454" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="455" spans="1:15">
@@ -16337,7 +16336,7 @@
         <v>241</v>
       </c>
       <c r="I455" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J455" s="23">
         <v>30</v>
@@ -16357,7 +16356,7 @@
         <v>248</v>
       </c>
       <c r="I456" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J456" s="23">
         <v>200</v>
@@ -16374,7 +16373,7 @@
         <v>310</v>
       </c>
       <c r="I457" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J457" s="23">
         <v>30</v>
@@ -16391,7 +16390,7 @@
         <v>328</v>
       </c>
       <c r="I458" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J458" s="23">
         <v>200</v>
@@ -16428,7 +16427,7 @@
         <v>177</v>
       </c>
       <c r="I460" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J460" s="23">
         <v>200</v>
@@ -16439,7 +16438,7 @@
         <v>7</v>
       </c>
       <c r="F461" s="23" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G461" s="23" t="s">
         <v>321</v>
@@ -16448,7 +16447,7 @@
         <v>666</v>
       </c>
       <c r="I461" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J461" s="23">
         <v>2</v>
@@ -16462,13 +16461,13 @@
         <v>8</v>
       </c>
       <c r="F462" s="23" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G462" s="23" t="s">
         <v>317</v>
       </c>
       <c r="I462" s="23" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J462" s="23">
         <v>20</v>
@@ -16482,13 +16481,13 @@
         <v>9</v>
       </c>
       <c r="F463" s="23" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G463" s="23" t="s">
         <v>318</v>
       </c>
       <c r="I463" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="464" spans="1:15">
@@ -16502,7 +16501,7 @@
         <v>320</v>
       </c>
       <c r="I464" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J464" s="23">
         <v>6</v>
@@ -16522,7 +16521,7 @@
         <v>322</v>
       </c>
       <c r="I465" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J465" s="23">
         <v>6</v>
@@ -16539,7 +16538,7 @@
         <v>283</v>
       </c>
       <c r="I466" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J466" s="23">
         <v>1</v>
@@ -16568,7 +16567,7 @@
         <v>241</v>
       </c>
       <c r="I467" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J467" s="23">
         <v>30</v>
@@ -16588,7 +16587,7 @@
         <v>248</v>
       </c>
       <c r="I468" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J468" s="23">
         <v>200</v>
@@ -16605,7 +16604,7 @@
         <v>310</v>
       </c>
       <c r="I469" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J469" s="23">
         <v>30</v>
@@ -16622,7 +16621,7 @@
         <v>328</v>
       </c>
       <c r="I470" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J470" s="23">
         <v>200</v>
@@ -16639,7 +16638,7 @@
         <v>230</v>
       </c>
       <c r="I471" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J471" s="23">
         <v>30</v>
@@ -16659,7 +16658,7 @@
         <v>329</v>
       </c>
       <c r="I472" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J472" s="23">
         <v>200</v>
@@ -16670,13 +16669,13 @@
         <v>7</v>
       </c>
       <c r="F473" s="23" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G473" s="23" t="s">
         <v>319</v>
       </c>
       <c r="I473" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J473" s="23">
         <v>30</v>
@@ -16690,13 +16689,13 @@
         <v>8</v>
       </c>
       <c r="F474" s="23" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G474" s="23" t="s">
         <v>330</v>
       </c>
       <c r="I474" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J474" s="23">
         <v>200</v>
@@ -16713,7 +16712,7 @@
         <v>323</v>
       </c>
       <c r="I475" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J475" s="23">
         <v>6</v>
@@ -16733,7 +16732,7 @@
         <v>327</v>
       </c>
       <c r="I476" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J476" s="23">
         <v>30</v>
@@ -16750,7 +16749,7 @@
         <v>324</v>
       </c>
       <c r="I477" s="23" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J477" s="23">
         <v>20</v>
@@ -16764,13 +16763,13 @@
         <v>12</v>
       </c>
       <c r="F478" s="23" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G478" s="23" t="s">
         <v>325</v>
       </c>
       <c r="I478" s="23" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J478" s="23">
         <v>20</v>
@@ -16790,7 +16789,7 @@
         <v>326</v>
       </c>
       <c r="I479" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="480" spans="1:15">
@@ -16816,7 +16815,7 @@
         <v>192</v>
       </c>
       <c r="I480" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J480" s="23">
         <v>30</v>
@@ -16833,7 +16832,7 @@
         <v>193</v>
       </c>
       <c r="I481" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J481" s="23">
         <v>200</v>
@@ -16850,7 +16849,7 @@
         <v>241</v>
       </c>
       <c r="I482" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J482" s="23">
         <v>30</v>
@@ -16870,7 +16869,7 @@
         <v>248</v>
       </c>
       <c r="I483" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J483" s="23">
         <v>200</v>
@@ -16881,13 +16880,13 @@
         <v>5</v>
       </c>
       <c r="F484" s="23" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="G484" s="23" t="s">
         <v>331</v>
       </c>
       <c r="I484" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J484" s="23">
         <v>6</v>
@@ -16907,7 +16906,7 @@
         <v>332</v>
       </c>
       <c r="I485" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J485" s="23">
         <v>30</v>
@@ -16918,13 +16917,13 @@
         <v>7</v>
       </c>
       <c r="F486" s="23" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G486" s="23" t="s">
         <v>333</v>
       </c>
       <c r="I486" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="487" spans="1:15">
@@ -16950,7 +16949,7 @@
         <v>192</v>
       </c>
       <c r="I487" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J487" s="23">
         <v>30</v>
@@ -16970,7 +16969,7 @@
         <v>193</v>
       </c>
       <c r="I488" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J488" s="23">
         <v>200</v>
@@ -16981,13 +16980,13 @@
         <v>3</v>
       </c>
       <c r="F489" s="23" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="G489" s="23" t="s">
         <v>331</v>
       </c>
       <c r="I489" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J489" s="23">
         <v>6</v>
@@ -17001,13 +17000,13 @@
         <v>4</v>
       </c>
       <c r="F490" s="23" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G490" s="23" t="s">
         <v>335</v>
       </c>
       <c r="I490" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J490" s="23">
         <v>6</v>
@@ -17021,13 +17020,13 @@
         <v>5</v>
       </c>
       <c r="F491" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="G491" s="23" t="s">
         <v>336</v>
       </c>
       <c r="I491" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J491" s="23">
         <v>6</v>
@@ -17041,13 +17040,13 @@
         <v>6</v>
       </c>
       <c r="F492" s="23" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G492" s="23" t="s">
         <v>334</v>
       </c>
       <c r="I492" s="23" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J492" s="23">
         <v>10</v>
@@ -17058,13 +17057,13 @@
         <v>7</v>
       </c>
       <c r="F493" s="23" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G493" s="23" t="s">
         <v>333</v>
       </c>
       <c r="I493" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="494" spans="1:15">
@@ -17090,7 +17089,7 @@
         <v>297</v>
       </c>
       <c r="I494" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J494" s="23">
         <v>30</v>
@@ -17110,7 +17109,7 @@
         <v>298</v>
       </c>
       <c r="I495" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J495" s="23">
         <v>100</v>
@@ -17127,7 +17126,7 @@
         <v>304</v>
       </c>
       <c r="I496" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J496" s="23">
         <v>30</v>
@@ -17144,7 +17143,7 @@
         <v>399</v>
       </c>
       <c r="I497" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J497" s="23">
         <v>100</v>
@@ -17161,7 +17160,7 @@
         <v>305</v>
       </c>
       <c r="I498" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J498" s="23">
         <v>1</v>
@@ -17181,7 +17180,7 @@
         <v>382</v>
       </c>
       <c r="I499" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J499" s="23">
         <v>30</v>
@@ -17201,7 +17200,7 @@
         <v>383</v>
       </c>
       <c r="I500" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J500" s="23">
         <v>200</v>
@@ -17218,7 +17217,7 @@
         <v>284</v>
       </c>
       <c r="I501" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="502" spans="1:12">
@@ -17232,7 +17231,7 @@
         <v>283</v>
       </c>
       <c r="I502" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J502" s="23">
         <v>1</v>
@@ -17261,7 +17260,7 @@
         <v>299</v>
       </c>
       <c r="I503" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J503" s="23">
         <v>30</v>
@@ -17281,7 +17280,7 @@
         <v>300</v>
       </c>
       <c r="I504" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J504" s="23">
         <v>100</v>
@@ -17298,7 +17297,7 @@
         <v>306</v>
       </c>
       <c r="I505" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J505" s="23">
         <v>30</v>
@@ -17315,7 +17314,7 @@
         <v>394</v>
       </c>
       <c r="I506" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J506" s="23">
         <v>100</v>
@@ -17332,7 +17331,7 @@
         <v>307</v>
       </c>
       <c r="I507" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J507" s="23">
         <v>1</v>
@@ -17349,7 +17348,7 @@
         <v>301</v>
       </c>
       <c r="I508" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J508" s="23">
         <v>30</v>
@@ -17369,7 +17368,7 @@
         <v>382</v>
       </c>
       <c r="I509" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J509" s="23">
         <v>30</v>
@@ -17389,7 +17388,7 @@
         <v>383</v>
       </c>
       <c r="I510" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J510" s="23">
         <v>200</v>
@@ -17406,7 +17405,7 @@
         <v>284</v>
       </c>
       <c r="I511" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="512" spans="1:12">
@@ -17420,7 +17419,7 @@
         <v>283</v>
       </c>
       <c r="I512" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J512" s="23">
         <v>1</v>
@@ -17449,7 +17448,7 @@
         <v>302</v>
       </c>
       <c r="I513" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J513" s="23">
         <v>30</v>
@@ -17469,7 +17468,7 @@
         <v>303</v>
       </c>
       <c r="I514" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J514" s="23">
         <v>200</v>
@@ -17489,7 +17488,7 @@
         <v>382</v>
       </c>
       <c r="I515" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J515" s="23">
         <v>30</v>
@@ -17509,7 +17508,7 @@
         <v>383</v>
       </c>
       <c r="I516" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J516" s="23">
         <v>200</v>
@@ -17526,7 +17525,7 @@
         <v>284</v>
       </c>
       <c r="I517" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="518" spans="1:12">
@@ -17540,7 +17539,7 @@
         <v>283</v>
       </c>
       <c r="I518" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J518" s="23">
         <v>1</v>
@@ -17569,7 +17568,7 @@
         <v>299</v>
       </c>
       <c r="I519" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J519" s="23">
         <v>30</v>
@@ -17589,7 +17588,7 @@
         <v>300</v>
       </c>
       <c r="I520" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J520" s="23">
         <v>200</v>
@@ -17606,7 +17605,7 @@
         <v>302</v>
       </c>
       <c r="I521" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J521" s="23">
         <v>30</v>
@@ -17626,7 +17625,7 @@
         <v>303</v>
       </c>
       <c r="I522" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J522" s="23">
         <v>200</v>
@@ -17646,7 +17645,7 @@
         <v>382</v>
       </c>
       <c r="I523" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J523" s="23">
         <v>30</v>
@@ -17666,7 +17665,7 @@
         <v>383</v>
       </c>
       <c r="I524" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J524" s="23">
         <v>200</v>
@@ -17683,7 +17682,7 @@
         <v>284</v>
       </c>
       <c r="I525" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="526" spans="1:12">
@@ -17697,7 +17696,7 @@
         <v>283</v>
       </c>
       <c r="I526" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J526" s="23">
         <v>1</v>
@@ -17746,7 +17745,7 @@
         <v>177</v>
       </c>
       <c r="I528" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J528" s="23">
         <v>200</v>
@@ -17763,7 +17762,7 @@
         <v>302</v>
       </c>
       <c r="I529" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J529" s="23">
         <v>30</v>
@@ -17783,7 +17782,7 @@
         <v>303</v>
       </c>
       <c r="I530" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J530" s="23">
         <v>200</v>
@@ -17803,7 +17802,7 @@
         <v>382</v>
       </c>
       <c r="I531" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J531" s="23">
         <v>30</v>
@@ -17823,7 +17822,7 @@
         <v>383</v>
       </c>
       <c r="I532" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J532" s="23">
         <v>200</v>
@@ -17840,7 +17839,7 @@
         <v>284</v>
       </c>
       <c r="I533" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="534" spans="1:12">
@@ -17854,7 +17853,7 @@
         <v>283</v>
       </c>
       <c r="I534" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J534" s="23">
         <v>1</v>
@@ -17903,7 +17902,7 @@
         <v>300</v>
       </c>
       <c r="I536" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J536" s="23">
         <v>200</v>
@@ -17940,7 +17939,7 @@
         <v>177</v>
       </c>
       <c r="I538" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J538" s="23">
         <v>200</v>
@@ -17960,7 +17959,7 @@
         <v>382</v>
       </c>
       <c r="I539" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J539" s="23">
         <v>30</v>
@@ -17980,7 +17979,7 @@
         <v>383</v>
       </c>
       <c r="I540" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J540" s="23">
         <v>200</v>
@@ -17997,7 +17996,7 @@
         <v>284</v>
       </c>
       <c r="I541" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="542" spans="1:12">
@@ -18011,7 +18010,7 @@
         <v>283</v>
       </c>
       <c r="I542" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J542" s="23">
         <v>1</v>
@@ -18040,7 +18039,7 @@
         <v>243</v>
       </c>
       <c r="I543" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J543" s="23">
         <v>2</v>
@@ -18060,7 +18059,7 @@
         <v>281</v>
       </c>
       <c r="I544" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J544" s="23">
         <v>30</v>
@@ -18080,7 +18079,7 @@
         <v>382</v>
       </c>
       <c r="I545" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J545" s="23">
         <v>30</v>
@@ -18100,7 +18099,7 @@
         <v>383</v>
       </c>
       <c r="I546" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J546" s="23">
         <v>200</v>
@@ -18117,7 +18116,7 @@
         <v>284</v>
       </c>
       <c r="I547" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="548" spans="1:15">
@@ -18131,7 +18130,7 @@
         <v>285</v>
       </c>
       <c r="I548" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J548" s="23">
         <v>200</v>
@@ -18148,7 +18147,7 @@
         <v>280</v>
       </c>
       <c r="I549" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J549" s="23">
         <v>1</v>
@@ -18177,7 +18176,7 @@
         <v>244</v>
       </c>
       <c r="I550" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J550" s="23">
         <v>6</v>
@@ -18197,7 +18196,7 @@
         <v>282</v>
       </c>
       <c r="I551" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J551" s="23">
         <v>200</v>
@@ -18214,7 +18213,7 @@
         <v>243</v>
       </c>
       <c r="I552" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J552" s="23">
         <v>2</v>
@@ -18237,7 +18236,7 @@
         <v>382</v>
       </c>
       <c r="I553" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J553" s="23">
         <v>30</v>
@@ -18257,7 +18256,7 @@
         <v>383</v>
       </c>
       <c r="I554" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J554" s="23">
         <v>200</v>
@@ -18274,7 +18273,7 @@
         <v>284</v>
       </c>
       <c r="I555" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="556" spans="1:15">
@@ -18288,7 +18287,7 @@
         <v>283</v>
       </c>
       <c r="I556" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J556" s="23">
         <v>1</v>
@@ -18317,7 +18316,7 @@
         <v>245</v>
       </c>
       <c r="I557" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J557" s="23">
         <v>6</v>
@@ -18337,7 +18336,7 @@
         <v>286</v>
       </c>
       <c r="I558" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J558" s="23">
         <v>200</v>
@@ -18354,7 +18353,7 @@
         <v>244</v>
       </c>
       <c r="I559" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J559" s="23">
         <v>6</v>
@@ -18374,7 +18373,7 @@
         <v>243</v>
       </c>
       <c r="I560" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J560" s="23">
         <v>2</v>
@@ -18397,7 +18396,7 @@
         <v>382</v>
       </c>
       <c r="I561" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J561" s="23">
         <v>30</v>
@@ -18417,7 +18416,7 @@
         <v>383</v>
       </c>
       <c r="I562" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J562" s="23">
         <v>200</v>
@@ -18434,7 +18433,7 @@
         <v>284</v>
       </c>
       <c r="I563" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="564" spans="1:15">
@@ -18448,7 +18447,7 @@
         <v>283</v>
       </c>
       <c r="I564" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J564" s="23">
         <v>1</v>
@@ -18477,7 +18476,7 @@
         <v>243</v>
       </c>
       <c r="I565" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J565" s="23">
         <v>2</v>
@@ -18500,7 +18499,7 @@
         <v>281</v>
       </c>
       <c r="I566" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J566" s="23">
         <v>30</v>
@@ -18517,7 +18516,7 @@
         <v>288</v>
       </c>
       <c r="I567" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J567" s="23">
         <v>200</v>
@@ -18540,7 +18539,7 @@
         <v>289</v>
       </c>
       <c r="I568" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J568" s="23">
         <v>30</v>
@@ -18557,7 +18556,7 @@
         <v>290</v>
       </c>
       <c r="I569" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J569" s="23">
         <v>100</v>
@@ -18580,7 +18579,7 @@
         <v>382</v>
       </c>
       <c r="I570" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J570" s="23">
         <v>30</v>
@@ -18600,7 +18599,7 @@
         <v>383</v>
       </c>
       <c r="I571" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J571" s="23">
         <v>200</v>
@@ -18617,7 +18616,7 @@
         <v>284</v>
       </c>
       <c r="I572" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="573" spans="1:15">
@@ -18646,7 +18645,7 @@
         <v>293</v>
       </c>
       <c r="I573" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J573" s="23">
         <v>2</v>
@@ -18669,7 +18668,7 @@
         <v>281</v>
       </c>
       <c r="I574" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J574" s="23">
         <v>30</v>
@@ -18686,7 +18685,7 @@
         <v>288</v>
       </c>
       <c r="I575" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J575" s="23">
         <v>200</v>
@@ -18709,7 +18708,7 @@
         <v>337</v>
       </c>
       <c r="I576" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J576" s="23">
         <v>30</v>
@@ -18726,7 +18725,7 @@
         <v>290</v>
       </c>
       <c r="I577" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J577" s="23">
         <v>100</v>
@@ -18746,7 +18745,7 @@
         <v>244</v>
       </c>
       <c r="I578" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J578" s="23">
         <v>6</v>
@@ -18766,7 +18765,7 @@
         <v>282</v>
       </c>
       <c r="I579" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J579" s="23">
         <v>200</v>
@@ -18783,7 +18782,7 @@
         <v>245</v>
       </c>
       <c r="I580" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J580" s="23">
         <v>6</v>
@@ -18803,7 +18802,7 @@
         <v>286</v>
       </c>
       <c r="I581" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J581" s="23">
         <v>200</v>
@@ -18820,7 +18819,7 @@
         <v>292</v>
       </c>
       <c r="I582" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="583" spans="1:15">
@@ -18831,22 +18830,22 @@
         <v>76</v>
       </c>
       <c r="C583" s="23" t="s">
+        <v>965</v>
+      </c>
+      <c r="D583" s="23" t="s">
         <v>966</v>
-      </c>
-      <c r="D583" s="23" t="s">
-        <v>967</v>
       </c>
       <c r="E583" s="29">
         <v>1</v>
       </c>
       <c r="F583" s="23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G583" s="23" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I583" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J583" s="23">
         <v>6</v>
@@ -18860,13 +18859,13 @@
         <v>2</v>
       </c>
       <c r="F584" s="23" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="G584" s="23" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="I584" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J584" s="23">
         <v>100</v>
@@ -18886,7 +18885,7 @@
         <v>382</v>
       </c>
       <c r="I585" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J585" s="23">
         <v>30</v>
@@ -18906,7 +18905,7 @@
         <v>383</v>
       </c>
       <c r="I586" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J586" s="23">
         <v>200</v>
@@ -18923,7 +18922,7 @@
         <v>284</v>
       </c>
       <c r="I587" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="588" spans="1:15">
@@ -18937,7 +18936,7 @@
         <v>283</v>
       </c>
       <c r="I588" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J588" s="23">
         <v>1</v>
@@ -18966,7 +18965,7 @@
         <v>552</v>
       </c>
       <c r="I589" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J589" s="23">
         <v>2</v>
@@ -18986,7 +18985,7 @@
         <v>553</v>
       </c>
       <c r="I590" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J590" s="23">
         <v>30</v>
@@ -19006,7 +19005,7 @@
         <v>382</v>
       </c>
       <c r="I591" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J591" s="23">
         <v>30</v>
@@ -19026,7 +19025,7 @@
         <v>383</v>
       </c>
       <c r="I592" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J592" s="23">
         <v>200</v>
@@ -19043,7 +19042,7 @@
         <v>284</v>
       </c>
       <c r="I593" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="594" spans="1:12">
@@ -19057,7 +19056,7 @@
         <v>283</v>
       </c>
       <c r="I594" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J594" s="23">
         <v>1</v>
@@ -19086,7 +19085,7 @@
         <v>554</v>
       </c>
       <c r="I595" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J595" s="23">
         <v>6</v>
@@ -19106,7 +19105,7 @@
         <v>555</v>
       </c>
       <c r="I596" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J596" s="23">
         <v>100</v>
@@ -19126,7 +19125,7 @@
         <v>382</v>
       </c>
       <c r="I597" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J597" s="23">
         <v>30</v>
@@ -19146,7 +19145,7 @@
         <v>383</v>
       </c>
       <c r="I598" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J598" s="23">
         <v>200</v>
@@ -19163,7 +19162,7 @@
         <v>284</v>
       </c>
       <c r="I599" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="600" spans="1:12">
@@ -19177,7 +19176,7 @@
         <v>283</v>
       </c>
       <c r="I600" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J600" s="23">
         <v>1</v>
@@ -19206,7 +19205,7 @@
         <v>556</v>
       </c>
       <c r="I601" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J601" s="23">
         <v>6</v>
@@ -19226,7 +19225,7 @@
         <v>557</v>
       </c>
       <c r="I602" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J602" s="23">
         <v>100</v>
@@ -19246,7 +19245,7 @@
         <v>382</v>
       </c>
       <c r="I603" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J603" s="23">
         <v>30</v>
@@ -19266,7 +19265,7 @@
         <v>383</v>
       </c>
       <c r="I604" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J604" s="23">
         <v>200</v>
@@ -19283,7 +19282,7 @@
         <v>284</v>
       </c>
       <c r="I605" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="606" spans="1:12">
@@ -19297,7 +19296,7 @@
         <v>283</v>
       </c>
       <c r="I606" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J606" s="23">
         <v>1</v>
@@ -19326,7 +19325,7 @@
         <v>558</v>
       </c>
       <c r="I607" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J607" s="23">
         <v>6</v>
@@ -19346,7 +19345,7 @@
         <v>559</v>
       </c>
       <c r="I608" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J608" s="23">
         <v>100</v>
@@ -19366,7 +19365,7 @@
         <v>382</v>
       </c>
       <c r="I609" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J609" s="23">
         <v>30</v>
@@ -19386,7 +19385,7 @@
         <v>383</v>
       </c>
       <c r="I610" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J610" s="23">
         <v>200</v>
@@ -19403,7 +19402,7 @@
         <v>284</v>
       </c>
       <c r="I611" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="612" spans="1:15">
@@ -19417,7 +19416,7 @@
         <v>283</v>
       </c>
       <c r="I612" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J612" s="23">
         <v>1</v>
@@ -19446,7 +19445,7 @@
         <v>565</v>
       </c>
       <c r="I613" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J613" s="23">
         <v>6</v>
@@ -19466,7 +19465,7 @@
         <v>566</v>
       </c>
       <c r="I614" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J614" s="23">
         <v>100</v>
@@ -19486,7 +19485,7 @@
         <v>382</v>
       </c>
       <c r="I615" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J615" s="23">
         <v>30</v>
@@ -19506,7 +19505,7 @@
         <v>383</v>
       </c>
       <c r="I616" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J616" s="23">
         <v>200</v>
@@ -19523,7 +19522,7 @@
         <v>284</v>
       </c>
       <c r="I617" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="618" spans="1:15">
@@ -19537,7 +19536,7 @@
         <v>283</v>
       </c>
       <c r="I618" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J618" s="23">
         <v>1</v>
@@ -19566,7 +19565,7 @@
         <v>558</v>
       </c>
       <c r="I619" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J619" s="23">
         <v>6</v>
@@ -19586,7 +19585,7 @@
         <v>565</v>
       </c>
       <c r="I620" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J620" s="23">
         <v>6</v>
@@ -19609,7 +19608,7 @@
         <v>568</v>
       </c>
       <c r="I621" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J621" s="23">
         <v>200</v>
@@ -19626,10 +19625,10 @@
         <v>569</v>
       </c>
       <c r="H622" s="23" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="I622" s="23" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J622" s="23">
         <v>20</v>
@@ -19652,7 +19651,7 @@
         <v>572</v>
       </c>
       <c r="I623" s="23" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="624" spans="1:15">
@@ -19669,7 +19668,7 @@
         <v>573</v>
       </c>
       <c r="I624" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="625" spans="1:12">
@@ -19683,10 +19682,10 @@
         <v>574</v>
       </c>
       <c r="H625" s="23" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="I625" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J625" s="23">
         <v>200</v>
@@ -19697,16 +19696,16 @@
         <v>8</v>
       </c>
       <c r="F626" s="23" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G626" s="23" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H626" s="23" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I626" s="23" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J626" s="23">
         <v>20</v>
@@ -19720,16 +19719,16 @@
         <v>9</v>
       </c>
       <c r="F627" s="23" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G627" s="23" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H627" s="23" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I627" s="23" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="628" spans="1:12">
@@ -19737,16 +19736,16 @@
         <v>10</v>
       </c>
       <c r="F628" s="23" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G628" s="23" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H628" s="23" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="I628" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="629" spans="1:12">
@@ -19754,16 +19753,16 @@
         <v>11</v>
       </c>
       <c r="F629" s="23" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G629" s="23" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H629" s="23" t="s">
         <v>575</v>
       </c>
       <c r="I629" s="23" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="630" spans="1:12">
@@ -19771,16 +19770,16 @@
         <v>12</v>
       </c>
       <c r="F630" s="23" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G630" s="23" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H630" s="23" t="s">
         <v>575</v>
       </c>
       <c r="I630" s="23" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="631" spans="1:12">
@@ -19797,7 +19796,7 @@
         <v>382</v>
       </c>
       <c r="I631" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J631" s="23">
         <v>30</v>
@@ -19817,7 +19816,7 @@
         <v>383</v>
       </c>
       <c r="I632" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J632" s="23">
         <v>200</v>
@@ -19834,7 +19833,7 @@
         <v>284</v>
       </c>
       <c r="I633" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="634" spans="1:12">
@@ -19848,7 +19847,7 @@
         <v>283</v>
       </c>
       <c r="I634" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J634" s="23">
         <v>1</v>
@@ -19877,7 +19876,7 @@
         <v>576</v>
       </c>
       <c r="I635" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J635" s="23">
         <v>6</v>
@@ -19897,7 +19896,7 @@
         <v>577</v>
       </c>
       <c r="I636" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J636" s="23">
         <v>100</v>
@@ -19914,7 +19913,7 @@
         <v>578</v>
       </c>
       <c r="I637" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J637" s="23">
         <v>6</v>
@@ -19931,7 +19930,7 @@
         <v>580</v>
       </c>
       <c r="I638" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J638" s="23">
         <v>100</v>
@@ -19948,7 +19947,7 @@
         <v>579</v>
       </c>
       <c r="I639" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J639" s="23">
         <v>1</v>
@@ -19968,7 +19967,7 @@
         <v>382</v>
       </c>
       <c r="I640" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J640" s="23">
         <v>30</v>
@@ -19988,7 +19987,7 @@
         <v>383</v>
       </c>
       <c r="I641" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J641" s="23">
         <v>200</v>
@@ -20005,7 +20004,7 @@
         <v>284</v>
       </c>
       <c r="I642" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="643" spans="1:12">
@@ -20019,7 +20018,7 @@
         <v>283</v>
       </c>
       <c r="I643" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J643" s="23">
         <v>1</v>
@@ -20048,7 +20047,7 @@
         <v>581</v>
       </c>
       <c r="I644" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J644" s="23">
         <v>6</v>
@@ -20068,7 +20067,7 @@
         <v>582</v>
       </c>
       <c r="I645" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J645" s="23">
         <v>100</v>
@@ -20085,7 +20084,7 @@
         <v>583</v>
       </c>
       <c r="I646" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J646" s="23">
         <v>6</v>
@@ -20102,7 +20101,7 @@
         <v>584</v>
       </c>
       <c r="I647" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J647" s="23">
         <v>100</v>
@@ -20119,7 +20118,7 @@
         <v>579</v>
       </c>
       <c r="I648" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J648" s="23">
         <v>1</v>
@@ -20139,7 +20138,7 @@
         <v>382</v>
       </c>
       <c r="I649" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J649" s="23">
         <v>30</v>
@@ -20159,7 +20158,7 @@
         <v>383</v>
       </c>
       <c r="I650" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J650" s="23">
         <v>200</v>
@@ -20176,7 +20175,7 @@
         <v>284</v>
       </c>
       <c r="I651" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="652" spans="1:12">
@@ -20190,7 +20189,7 @@
         <v>283</v>
       </c>
       <c r="I652" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J652" s="23">
         <v>1</v>
@@ -20219,7 +20218,7 @@
         <v>585</v>
       </c>
       <c r="I653" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J653" s="23">
         <v>6</v>
@@ -20239,7 +20238,7 @@
         <v>586</v>
       </c>
       <c r="I654" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J654" s="23">
         <v>100</v>
@@ -20259,7 +20258,7 @@
         <v>382</v>
       </c>
       <c r="I655" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J655" s="23">
         <v>30</v>
@@ -20279,7 +20278,7 @@
         <v>383</v>
       </c>
       <c r="I656" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J656" s="23">
         <v>200</v>
@@ -20296,7 +20295,7 @@
         <v>284</v>
       </c>
       <c r="I657" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="658" spans="1:12">
@@ -20310,7 +20309,7 @@
         <v>283</v>
       </c>
       <c r="I658" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J658" s="23">
         <v>1</v>
@@ -20339,7 +20338,7 @@
         <v>587</v>
       </c>
       <c r="I659" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J659" s="23">
         <v>2</v>
@@ -20359,7 +20358,7 @@
         <v>588</v>
       </c>
       <c r="I660" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J660" s="23">
         <v>30</v>
@@ -20379,7 +20378,7 @@
         <v>382</v>
       </c>
       <c r="I661" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J661" s="23">
         <v>30</v>
@@ -20399,7 +20398,7 @@
         <v>383</v>
       </c>
       <c r="I662" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J662" s="23">
         <v>200</v>
@@ -20416,7 +20415,7 @@
         <v>284</v>
       </c>
       <c r="I663" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="664" spans="1:12">
@@ -20430,7 +20429,7 @@
         <v>283</v>
       </c>
       <c r="I664" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J664" s="23">
         <v>1</v>
@@ -20453,13 +20452,13 @@
         <v>1</v>
       </c>
       <c r="F665" s="23" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G665" s="23" t="s">
         <v>589</v>
       </c>
       <c r="I665" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J665" s="23">
         <v>2</v>
@@ -20473,13 +20472,13 @@
         <v>2</v>
       </c>
       <c r="F666" s="23" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G666" s="23" t="s">
         <v>590</v>
       </c>
       <c r="I666" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J666" s="23">
         <v>30</v>
@@ -20499,7 +20498,7 @@
         <v>382</v>
       </c>
       <c r="I667" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J667" s="23">
         <v>30</v>
@@ -20519,7 +20518,7 @@
         <v>383</v>
       </c>
       <c r="I668" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J668" s="23">
         <v>200</v>
@@ -20536,7 +20535,7 @@
         <v>284</v>
       </c>
       <c r="I669" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="670" spans="1:12">
@@ -20550,7 +20549,7 @@
         <v>283</v>
       </c>
       <c r="I670" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J670" s="23">
         <v>1</v>
@@ -20579,7 +20578,7 @@
         <v>591</v>
       </c>
       <c r="I671" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J671" s="23">
         <v>6</v>
@@ -20599,7 +20598,7 @@
         <v>593</v>
       </c>
       <c r="I672" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J672" s="23">
         <v>100</v>
@@ -20619,7 +20618,7 @@
         <v>382</v>
       </c>
       <c r="I673" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J673" s="23">
         <v>30</v>
@@ -20639,7 +20638,7 @@
         <v>383</v>
       </c>
       <c r="I674" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J674" s="23">
         <v>200</v>
@@ -20656,7 +20655,7 @@
         <v>284</v>
       </c>
       <c r="I675" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="676" spans="1:12">
@@ -20670,7 +20669,7 @@
         <v>283</v>
       </c>
       <c r="I676" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J676" s="23">
         <v>1</v>
@@ -20699,7 +20698,7 @@
         <v>594</v>
       </c>
       <c r="I677" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J677" s="23">
         <v>6</v>
@@ -20719,7 +20718,7 @@
         <v>595</v>
       </c>
       <c r="I678" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J678" s="23">
         <v>100</v>
@@ -20739,7 +20738,7 @@
         <v>382</v>
       </c>
       <c r="I679" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J679" s="23">
         <v>30</v>
@@ -20759,7 +20758,7 @@
         <v>383</v>
       </c>
       <c r="I680" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J680" s="23">
         <v>200</v>
@@ -20776,7 +20775,7 @@
         <v>284</v>
       </c>
       <c r="I681" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="682" spans="1:12">
@@ -20790,7 +20789,7 @@
         <v>283</v>
       </c>
       <c r="I682" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J682" s="23">
         <v>1</v>
@@ -20819,7 +20818,7 @@
         <v>616</v>
       </c>
       <c r="I683" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J683" s="23">
         <v>6</v>
@@ -20839,7 +20838,7 @@
         <v>617</v>
       </c>
       <c r="I684" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J684" s="23">
         <v>100</v>
@@ -20859,7 +20858,7 @@
         <v>382</v>
       </c>
       <c r="I685" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J685" s="23">
         <v>30</v>
@@ -20879,7 +20878,7 @@
         <v>383</v>
       </c>
       <c r="I686" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J686" s="23">
         <v>200</v>
@@ -20896,7 +20895,7 @@
         <v>284</v>
       </c>
       <c r="I687" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="688" spans="1:12">
@@ -20910,7 +20909,7 @@
         <v>283</v>
       </c>
       <c r="I688" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J688" s="23">
         <v>1</v>
@@ -20939,7 +20938,7 @@
         <v>618</v>
       </c>
       <c r="I689" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J689" s="23">
         <v>6</v>
@@ -20959,7 +20958,7 @@
         <v>619</v>
       </c>
       <c r="I690" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J690" s="23">
         <v>100</v>
@@ -20979,7 +20978,7 @@
         <v>382</v>
       </c>
       <c r="I691" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J691" s="23">
         <v>30</v>
@@ -20999,7 +20998,7 @@
         <v>383</v>
       </c>
       <c r="I692" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J692" s="23">
         <v>200</v>
@@ -21016,7 +21015,7 @@
         <v>284</v>
       </c>
       <c r="I693" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="694" spans="1:12">
@@ -21030,7 +21029,7 @@
         <v>283</v>
       </c>
       <c r="I694" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J694" s="23">
         <v>1</v>
@@ -21059,7 +21058,7 @@
         <v>671</v>
       </c>
       <c r="I695" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J695" s="23">
         <v>6</v>
@@ -21079,7 +21078,7 @@
         <v>672</v>
       </c>
       <c r="I696" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J696" s="23">
         <v>100</v>
@@ -21099,7 +21098,7 @@
         <v>382</v>
       </c>
       <c r="I697" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J697" s="23">
         <v>30</v>
@@ -21119,7 +21118,7 @@
         <v>383</v>
       </c>
       <c r="I698" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J698" s="23">
         <v>200</v>
@@ -21136,7 +21135,7 @@
         <v>284</v>
       </c>
       <c r="I699" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="700" spans="1:12">
@@ -21150,7 +21149,7 @@
         <v>283</v>
       </c>
       <c r="I700" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J700" s="23">
         <v>1</v>
@@ -21164,22 +21163,22 @@
         <v>76</v>
       </c>
       <c r="C701" s="23" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D701" s="23" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E701" s="29">
         <v>1</v>
       </c>
       <c r="F701" s="23" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G701" s="23" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I701" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J701" s="23">
         <v>2</v>
@@ -21193,13 +21192,13 @@
         <v>2</v>
       </c>
       <c r="F702" s="23" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G702" s="23" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I702" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J702" s="23">
         <v>30</v>
@@ -21219,7 +21218,7 @@
         <v>382</v>
       </c>
       <c r="I703" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J703" s="23">
         <v>30</v>
@@ -21239,7 +21238,7 @@
         <v>383</v>
       </c>
       <c r="I704" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J704" s="23">
         <v>200</v>
@@ -21256,7 +21255,7 @@
         <v>284</v>
       </c>
       <c r="I705" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="706" spans="1:12">
@@ -21270,7 +21269,7 @@
         <v>283</v>
       </c>
       <c r="I706" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J706" s="23">
         <v>1</v>
@@ -21284,7 +21283,7 @@
         <v>76</v>
       </c>
       <c r="C707" s="23" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D707" s="23" t="s">
         <v>321</v>
@@ -21293,13 +21292,13 @@
         <v>1</v>
       </c>
       <c r="F707" s="23" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G707" s="23" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I707" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J707" s="23">
         <v>2</v>
@@ -21313,13 +21312,13 @@
         <v>2</v>
       </c>
       <c r="F708" s="23" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G708" s="23" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I708" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J708" s="23">
         <v>30</v>
@@ -21339,7 +21338,7 @@
         <v>382</v>
       </c>
       <c r="I709" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J709" s="23">
         <v>30</v>
@@ -21359,7 +21358,7 @@
         <v>383</v>
       </c>
       <c r="I710" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J710" s="23">
         <v>200</v>
@@ -21376,7 +21375,7 @@
         <v>284</v>
       </c>
       <c r="I711" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="712" spans="1:12">
@@ -21390,7 +21389,7 @@
         <v>283</v>
       </c>
       <c r="I712" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J712" s="23">
         <v>1</v>
@@ -21404,22 +21403,22 @@
         <v>76</v>
       </c>
       <c r="C713" s="23" t="s">
+        <v>781</v>
+      </c>
+      <c r="D713" s="23" t="s">
         <v>782</v>
-      </c>
-      <c r="D713" s="23" t="s">
-        <v>783</v>
       </c>
       <c r="E713" s="29">
         <v>1</v>
       </c>
       <c r="F713" s="23" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G713" s="23" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I713" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J713" s="23">
         <v>6</v>
@@ -21433,13 +21432,13 @@
         <v>2</v>
       </c>
       <c r="F714" s="23" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G714" s="23" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="I714" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J714" s="23">
         <v>100</v>
@@ -21459,7 +21458,7 @@
         <v>382</v>
       </c>
       <c r="I715" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J715" s="23">
         <v>30</v>
@@ -21479,7 +21478,7 @@
         <v>383</v>
       </c>
       <c r="I716" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J716" s="23">
         <v>200</v>
@@ -21496,7 +21495,7 @@
         <v>284</v>
       </c>
       <c r="I717" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="718" spans="1:12">
@@ -21510,7 +21509,7 @@
         <v>283</v>
       </c>
       <c r="I718" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J718" s="23">
         <v>1</v>
@@ -21524,22 +21523,22 @@
         <v>76</v>
       </c>
       <c r="C719" s="23" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D719" s="23" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E719" s="29">
         <v>1</v>
       </c>
       <c r="F719" s="23" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G719" s="23" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I719" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J719" s="23">
         <v>2</v>
@@ -21553,13 +21552,13 @@
         <v>2</v>
       </c>
       <c r="F720" s="23" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G720" s="23" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I720" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J720" s="23">
         <v>30</v>
@@ -21579,7 +21578,7 @@
         <v>382</v>
       </c>
       <c r="I721" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J721" s="23">
         <v>30</v>
@@ -21599,7 +21598,7 @@
         <v>383</v>
       </c>
       <c r="I722" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J722" s="23">
         <v>200</v>
@@ -21616,7 +21615,7 @@
         <v>284</v>
       </c>
       <c r="I723" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="724" spans="1:12">
@@ -21630,7 +21629,7 @@
         <v>283</v>
       </c>
       <c r="I724" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J724" s="23">
         <v>1</v>
@@ -21644,22 +21643,22 @@
         <v>76</v>
       </c>
       <c r="C725" s="23" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D725" s="23" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E725" s="29">
         <v>1</v>
       </c>
       <c r="F725" s="23" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G725" s="23" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I725" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J725" s="23">
         <v>6</v>
@@ -21673,13 +21672,13 @@
         <v>2</v>
       </c>
       <c r="F726" s="23" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G726" s="23" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I726" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J726" s="23">
         <v>100</v>
@@ -21699,7 +21698,7 @@
         <v>382</v>
       </c>
       <c r="I727" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J727" s="23">
         <v>30</v>
@@ -21719,7 +21718,7 @@
         <v>383</v>
       </c>
       <c r="I728" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J728" s="23">
         <v>200</v>
@@ -21736,7 +21735,7 @@
         <v>284</v>
       </c>
       <c r="I729" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="730" spans="1:12">
@@ -21750,7 +21749,7 @@
         <v>283</v>
       </c>
       <c r="I730" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J730" s="23">
         <v>1</v>
@@ -21764,22 +21763,22 @@
         <v>76</v>
       </c>
       <c r="C731" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D731" s="23" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E731" s="29">
         <v>1</v>
       </c>
       <c r="F731" s="23" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G731" s="23" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="I731" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J731" s="23">
         <v>6</v>
@@ -21793,13 +21792,13 @@
         <v>2</v>
       </c>
       <c r="F732" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G732" s="23" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I732" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J732" s="23">
         <v>100</v>
@@ -21819,7 +21818,7 @@
         <v>382</v>
       </c>
       <c r="I733" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J733" s="23">
         <v>30</v>
@@ -21839,7 +21838,7 @@
         <v>383</v>
       </c>
       <c r="I734" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J734" s="23">
         <v>200</v>
@@ -21856,7 +21855,7 @@
         <v>284</v>
       </c>
       <c r="I735" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="736" spans="1:12">
@@ -21870,7 +21869,7 @@
         <v>283</v>
       </c>
       <c r="I736" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J736" s="23">
         <v>1</v>
@@ -21884,22 +21883,22 @@
         <v>76</v>
       </c>
       <c r="C737" s="23" t="s">
+        <v>928</v>
+      </c>
+      <c r="D737" s="23" t="s">
         <v>929</v>
-      </c>
-      <c r="D737" s="23" t="s">
-        <v>930</v>
       </c>
       <c r="E737" s="29">
         <v>1</v>
       </c>
       <c r="F737" s="23" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G737" s="23" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I737" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J737" s="23">
         <v>2</v>
@@ -21913,13 +21912,13 @@
         <v>2</v>
       </c>
       <c r="F738" s="23" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G738" s="23" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="I738" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J738" s="23">
         <v>100</v>
@@ -21939,7 +21938,7 @@
         <v>382</v>
       </c>
       <c r="I739" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J739" s="23">
         <v>30</v>
@@ -21959,7 +21958,7 @@
         <v>383</v>
       </c>
       <c r="I740" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J740" s="23">
         <v>200</v>
@@ -21976,7 +21975,7 @@
         <v>284</v>
       </c>
       <c r="I741" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="742" spans="1:12">
@@ -21990,7 +21989,7 @@
         <v>283</v>
       </c>
       <c r="I742" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J742" s="23">
         <v>1</v>
@@ -22004,22 +22003,22 @@
         <v>76</v>
       </c>
       <c r="C743" s="23" t="s">
+        <v>971</v>
+      </c>
+      <c r="D743" s="23" t="s">
         <v>972</v>
-      </c>
-      <c r="D743" s="23" t="s">
-        <v>973</v>
       </c>
       <c r="E743" s="29">
         <v>1</v>
       </c>
       <c r="F743" s="23" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="G743" s="23" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I743" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J743" s="23">
         <v>6</v>
@@ -22033,13 +22032,13 @@
         <v>2</v>
       </c>
       <c r="F744" s="23" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G744" s="23" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I744" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J744" s="23">
         <v>100</v>
@@ -22059,7 +22058,7 @@
         <v>382</v>
       </c>
       <c r="I745" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J745" s="23">
         <v>30</v>
@@ -22079,7 +22078,7 @@
         <v>383</v>
       </c>
       <c r="I746" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J746" s="23">
         <v>200</v>
@@ -22096,7 +22095,7 @@
         <v>284</v>
       </c>
       <c r="I747" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="748" spans="1:12">
@@ -22110,7 +22109,7 @@
         <v>283</v>
       </c>
       <c r="I748" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J748" s="23">
         <v>1</v>
@@ -22124,22 +22123,22 @@
         <v>76</v>
       </c>
       <c r="C749" s="23" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D749" s="23" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E749" s="29">
         <v>1</v>
       </c>
       <c r="F749" s="23" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G749" s="23" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="I749" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J749" s="23">
         <v>6</v>
@@ -22153,13 +22152,13 @@
         <v>2</v>
       </c>
       <c r="F750" s="23" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="G750" s="23" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="I750" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J750" s="23">
         <v>100</v>
@@ -22179,7 +22178,7 @@
         <v>382</v>
       </c>
       <c r="I751" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J751" s="23">
         <v>30</v>
@@ -22199,7 +22198,7 @@
         <v>383</v>
       </c>
       <c r="I752" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J752" s="23">
         <v>200</v>
@@ -22216,7 +22215,7 @@
         <v>284</v>
       </c>
       <c r="I753" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="754" spans="1:12">
@@ -22230,7 +22229,7 @@
         <v>283</v>
       </c>
       <c r="I754" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J754" s="23">
         <v>1</v>
@@ -22244,22 +22243,22 @@
         <v>76</v>
       </c>
       <c r="C755" s="23" t="s">
+        <v>998</v>
+      </c>
+      <c r="D755" s="23" t="s">
         <v>999</v>
-      </c>
-      <c r="D755" s="23" t="s">
-        <v>1000</v>
       </c>
       <c r="E755" s="29">
         <v>1</v>
       </c>
       <c r="F755" s="23" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G755" s="23" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I755" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J755" s="23">
         <v>2</v>
@@ -22273,13 +22272,13 @@
         <v>2</v>
       </c>
       <c r="F756" s="23" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G756" s="23" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I756" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J756" s="23">
         <v>30</v>
@@ -22299,7 +22298,7 @@
         <v>382</v>
       </c>
       <c r="I757" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J757" s="23">
         <v>30</v>
@@ -22319,7 +22318,7 @@
         <v>383</v>
       </c>
       <c r="I758" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J758" s="23">
         <v>200</v>
@@ -22336,7 +22335,7 @@
         <v>284</v>
       </c>
       <c r="I759" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="760" spans="1:12">
@@ -22350,7 +22349,7 @@
         <v>283</v>
       </c>
       <c r="I760" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J760" s="23">
         <v>1</v>
@@ -22364,22 +22363,22 @@
         <v>76</v>
       </c>
       <c r="C761" s="23" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D761" s="23" t="s">
         <v>1005</v>
-      </c>
-      <c r="D761" s="23" t="s">
-        <v>1006</v>
       </c>
       <c r="E761" s="29">
         <v>1</v>
       </c>
       <c r="F761" s="23" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G761" s="23" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="I761" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J761" s="23">
         <v>2</v>
@@ -22393,13 +22392,13 @@
         <v>2</v>
       </c>
       <c r="F762" s="23" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G762" s="23" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I762" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J762" s="23">
         <v>30</v>
@@ -22419,7 +22418,7 @@
         <v>382</v>
       </c>
       <c r="I763" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J763" s="23">
         <v>30</v>
@@ -22439,7 +22438,7 @@
         <v>383</v>
       </c>
       <c r="I764" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J764" s="23">
         <v>200</v>
@@ -22456,7 +22455,7 @@
         <v>284</v>
       </c>
       <c r="I765" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="766" spans="1:12">
@@ -22470,7 +22469,7 @@
         <v>283</v>
       </c>
       <c r="I766" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J766" s="23">
         <v>1</v>
@@ -22484,22 +22483,22 @@
         <v>76</v>
       </c>
       <c r="C767" s="23" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D767" s="23" t="s">
         <v>1011</v>
-      </c>
-      <c r="D767" s="23" t="s">
-        <v>1012</v>
       </c>
       <c r="E767" s="29">
         <v>1</v>
       </c>
       <c r="F767" s="23" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="G767" s="23" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="I767" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J767" s="23">
         <v>6</v>
@@ -22513,13 +22512,13 @@
         <v>2</v>
       </c>
       <c r="F768" s="23" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="G768" s="23" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="I768" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J768" s="23">
         <v>30</v>
@@ -22539,7 +22538,7 @@
         <v>382</v>
       </c>
       <c r="I769" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J769" s="23">
         <v>30</v>
@@ -22559,7 +22558,7 @@
         <v>383</v>
       </c>
       <c r="I770" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J770" s="23">
         <v>200</v>
@@ -22576,7 +22575,7 @@
         <v>284</v>
       </c>
       <c r="I771" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="772" spans="1:12">
@@ -22590,7 +22589,7 @@
         <v>283</v>
       </c>
       <c r="I772" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J772" s="23">
         <v>1</v>
@@ -22604,22 +22603,22 @@
         <v>76</v>
       </c>
       <c r="C773" s="23" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D773" s="23" t="s">
         <v>1017</v>
-      </c>
-      <c r="D773" s="23" t="s">
-        <v>1018</v>
       </c>
       <c r="E773" s="29">
         <v>1</v>
       </c>
       <c r="F773" s="23" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="G773" s="23" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="I773" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J773" s="23">
         <v>2</v>
@@ -22633,13 +22632,13 @@
         <v>2</v>
       </c>
       <c r="F774" s="23" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G774" s="23" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="I774" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J774" s="23">
         <v>30</v>
@@ -22659,7 +22658,7 @@
         <v>382</v>
       </c>
       <c r="I775" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J775" s="23">
         <v>30</v>
@@ -22679,7 +22678,7 @@
         <v>383</v>
       </c>
       <c r="I776" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J776" s="23">
         <v>200</v>
@@ -22696,7 +22695,7 @@
         <v>284</v>
       </c>
       <c r="I777" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="778" spans="1:12">
@@ -22710,7 +22709,7 @@
         <v>283</v>
       </c>
       <c r="I778" s="23" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J778" s="23">
         <v>1</v>
@@ -22782,10 +22781,10 @@
         <v>76</v>
       </c>
       <c r="C2" s="23" t="s">
+        <v>965</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>966</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>967</v>
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -22841,7 +22840,7 @@
         <v>76</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>465</v>
@@ -23050,7 +23049,7 @@
         <v>76</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>484</v>
@@ -23088,7 +23087,7 @@
         <v>76</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>543</v>
@@ -23183,10 +23182,10 @@
         <v>76</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -23202,7 +23201,7 @@
         <v>76</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>321</v>
@@ -23221,10 +23220,10 @@
         <v>76</v>
       </c>
       <c r="C25" s="23" t="s">
+        <v>781</v>
+      </c>
+      <c r="D25" s="23" t="s">
         <v>782</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>783</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -23240,10 +23239,10 @@
         <v>76</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
@@ -23259,10 +23258,10 @@
         <v>76</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
@@ -23278,10 +23277,10 @@
         <v>76</v>
       </c>
       <c r="C28" s="23" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>1011</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>1012</v>
       </c>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
@@ -23297,10 +23296,10 @@
         <v>76</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
@@ -23316,10 +23315,10 @@
         <v>76</v>
       </c>
       <c r="C30" s="23" t="s">
+        <v>928</v>
+      </c>
+      <c r="D30" s="23" t="s">
         <v>929</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>930</v>
       </c>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
@@ -23335,10 +23334,10 @@
         <v>76</v>
       </c>
       <c r="C31" s="23" t="s">
+        <v>971</v>
+      </c>
+      <c r="D31" s="23" t="s">
         <v>972</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>973</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
@@ -23354,10 +23353,10 @@
         <v>76</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
@@ -23373,10 +23372,10 @@
         <v>76</v>
       </c>
       <c r="C33" s="23" t="s">
+        <v>998</v>
+      </c>
+      <c r="D33" s="23" t="s">
         <v>999</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>1000</v>
       </c>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
@@ -23392,10 +23391,10 @@
         <v>76</v>
       </c>
       <c r="C34" s="23" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D34" s="23" t="s">
         <v>1005</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>1006</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -23411,10 +23410,10 @@
         <v>76</v>
       </c>
       <c r="C35" s="23" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D35" s="23" t="s">
         <v>1017</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>1018</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -23490,25 +23489,25 @@
         <v>18</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>940</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>938</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>939</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>941</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>939</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>940</v>
-      </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="36" t="s">
         <v>942</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="H1" s="26" t="s">
         <v>943</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="38" t="s">
         <v>944</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>945</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>51</v>
